--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HouseHoldSurvey\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRHEIS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="EduCodes-A" sheetId="6" r:id="rId3"/>
     <sheet name="EduCodes-B" sheetId="4" r:id="rId4"/>
     <sheet name="EduCodes-C" sheetId="5" r:id="rId5"/>
-    <sheet name="LoanTables" sheetId="7" r:id="rId6"/>
-    <sheet name="HouseTables" sheetId="8" r:id="rId7"/>
-    <sheet name="RegionWeights" sheetId="9" r:id="rId8"/>
+    <sheet name="FoodTables" sheetId="10" r:id="rId6"/>
+    <sheet name="LoanTables" sheetId="7" r:id="rId7"/>
+    <sheet name="HouseTables" sheetId="8" r:id="rId8"/>
+    <sheet name="RegionWeights" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="311">
   <si>
     <t>Year</t>
   </si>
@@ -923,17 +924,53 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>P3S01</t>
+  </si>
+  <si>
+    <t>BuyingMethod</t>
+  </si>
+  <si>
+    <t>Grams</t>
+  </si>
+  <si>
+    <t>Kilos</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>COL3</t>
+  </si>
+  <si>
+    <t>COL7</t>
+  </si>
+  <si>
+    <t>COL4_5</t>
+  </si>
+  <si>
+    <t>COL8</t>
+  </si>
+  <si>
+    <t>COL5_6</t>
+  </si>
+  <si>
+    <t>PriceSystem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -941,7 +978,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -949,7 +986,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="major"/>
@@ -958,7 +995,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -967,7 +1004,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -976,7 +1013,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -984,7 +1021,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -992,7 +1029,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1000,7 +1037,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1008,7 +1045,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1017,7 +1054,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1026,7 +1063,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1034,7 +1071,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1043,7 +1080,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1051,7 +1088,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1060,7 +1097,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1069,7 +1106,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1077,7 +1114,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1086,7 +1123,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1760,9 +1797,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>63</v>
       </c>
@@ -1778,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
@@ -1786,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -1794,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>66</v>
       </c>
@@ -1802,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67</v>
       </c>
@@ -1810,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>68</v>
       </c>
@@ -1818,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>69</v>
       </c>
@@ -1826,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1834,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71</v>
       </c>
@@ -1842,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>72</v>
       </c>
@@ -1850,7 +1887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>73</v>
       </c>
@@ -1858,7 +1895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>74</v>
       </c>
@@ -1866,7 +1903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>75</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>76</v>
       </c>
@@ -1882,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>77</v>
       </c>
@@ -1890,7 +1927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>78</v>
       </c>
@@ -1898,7 +1935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>79</v>
       </c>
@@ -1906,7 +1943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
@@ -1914,7 +1951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>81</v>
       </c>
@@ -1922,7 +1959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>82</v>
       </c>
@@ -1930,7 +1967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>83</v>
       </c>
@@ -1938,7 +1975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>84</v>
       </c>
@@ -1946,7 +1983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>85</v>
       </c>
@@ -1954,7 +1991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>86</v>
       </c>
@@ -1962,7 +1999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>87</v>
       </c>
@@ -1970,7 +2007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>88</v>
       </c>
@@ -1978,7 +2015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
@@ -1986,7 +2023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>90</v>
       </c>
@@ -1994,7 +2031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>91</v>
       </c>
@@ -2002,7 +2039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>92</v>
       </c>
@@ -2010,7 +2047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
@@ -2018,7 +2055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2035,13 +2072,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>63</v>
       </c>
@@ -2147,7 +2184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
@@ -2197,7 +2234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -2247,7 +2284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>66</v>
       </c>
@@ -2291,7 +2328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67</v>
       </c>
@@ -2335,7 +2372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>68</v>
       </c>
@@ -2379,7 +2416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>69</v>
       </c>
@@ -2414,7 +2451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -2449,7 +2486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71</v>
       </c>
@@ -2484,7 +2521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>72</v>
       </c>
@@ -2519,7 +2556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>73</v>
       </c>
@@ -2554,7 +2591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>74</v>
       </c>
@@ -2589,7 +2626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>75</v>
       </c>
@@ -2624,7 +2661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>76</v>
       </c>
@@ -2659,7 +2696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>77</v>
       </c>
@@ -2694,7 +2731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>78</v>
       </c>
@@ -2729,7 +2766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>79</v>
       </c>
@@ -2764,7 +2801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
@@ -2799,7 +2836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>81</v>
       </c>
@@ -2834,7 +2871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>82</v>
       </c>
@@ -2869,7 +2906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>83</v>
       </c>
@@ -2904,7 +2941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>84</v>
       </c>
@@ -2939,7 +2976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>85</v>
       </c>
@@ -2974,7 +3011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>86</v>
       </c>
@@ -3009,7 +3046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>87</v>
       </c>
@@ -3044,7 +3081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>88</v>
       </c>
@@ -3079,7 +3116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3114,7 +3151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>90</v>
       </c>
@@ -3149,7 +3186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>91</v>
       </c>
@@ -3184,7 +3221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>92</v>
       </c>
@@ -3219,7 +3256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
@@ -3254,7 +3291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>94</v>
       </c>
@@ -3302,9 +3339,9 @@
       <selection sqref="A1:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3315,7 +3352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3326,7 +3363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3337,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3348,7 +3385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3359,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3370,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3392,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
@@ -3403,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3414,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3425,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3436,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3447,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16</v>
       </c>
@@ -3458,7 +3495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21</v>
       </c>
@@ -3469,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
@@ -3480,7 +3517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
@@ -3491,7 +3528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
@@ -3502,7 +3539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>25</v>
       </c>
@@ -3513,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>26</v>
       </c>
@@ -3524,7 +3561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>27</v>
       </c>
@@ -3535,7 +3572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>30</v>
       </c>
@@ -3546,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31</v>
       </c>
@@ -3557,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>32</v>
       </c>
@@ -3568,7 +3605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34</v>
       </c>
@@ -3579,7 +3616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>35</v>
       </c>
@@ -3590,7 +3627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38</v>
       </c>
@@ -3601,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>39</v>
       </c>
@@ -3612,7 +3649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40</v>
       </c>
@@ -3623,7 +3660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>41</v>
       </c>
@@ -3634,7 +3671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>42</v>
       </c>
@@ -3645,7 +3682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>43</v>
       </c>
@@ -3656,7 +3693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>44</v>
       </c>
@@ -3667,7 +3704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>45</v>
       </c>
@@ -3678,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>46</v>
       </c>
@@ -3689,7 +3726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>47</v>
       </c>
@@ -3700,7 +3737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>48</v>
       </c>
@@ -3711,7 +3748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>49</v>
       </c>
@@ -3722,7 +3759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>51</v>
       </c>
@@ -3733,7 +3770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>52</v>
       </c>
@@ -3744,7 +3781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>61</v>
       </c>
@@ -3755,7 +3792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>62</v>
       </c>
@@ -3766,7 +3803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>71</v>
       </c>
@@ -3777,7 +3814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>72</v>
       </c>
@@ -3788,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>73</v>
       </c>
@@ -3799,7 +3836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>75</v>
       </c>
@@ -3810,7 +3847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>76</v>
       </c>
@@ -3821,7 +3858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>77</v>
       </c>
@@ -3832,7 +3869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>78</v>
       </c>
@@ -3843,7 +3880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>81</v>
       </c>
@@ -3854,7 +3891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>82</v>
       </c>
@@ -3865,7 +3902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>83</v>
       </c>
@@ -3876,7 +3913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>85</v>
       </c>
@@ -3887,7 +3924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>86</v>
       </c>
@@ -3898,7 +3935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>87</v>
       </c>
@@ -3909,7 +3946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>89</v>
       </c>
@@ -3920,7 +3957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>91</v>
       </c>
@@ -3931,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>92</v>
       </c>
@@ -3942,7 +3979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>93</v>
       </c>
@@ -3953,7 +3990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>94</v>
       </c>
@@ -3977,9 +4014,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3993,7 +4030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4007,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4021,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4035,7 +4072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>101</v>
       </c>
@@ -4049,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>102</v>
       </c>
@@ -4063,7 +4100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>103</v>
       </c>
@@ -4077,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>104</v>
       </c>
@@ -4091,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>105</v>
       </c>
@@ -4105,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>106</v>
       </c>
@@ -4119,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -4133,7 +4170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -4147,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -4161,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>210</v>
       </c>
@@ -4175,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>211</v>
       </c>
@@ -4189,7 +4226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>212</v>
       </c>
@@ -4203,7 +4240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>213</v>
       </c>
@@ -4217,7 +4254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>214</v>
       </c>
@@ -4231,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>215</v>
       </c>
@@ -4245,7 +4282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>216</v>
       </c>
@@ -4259,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>217</v>
       </c>
@@ -4273,7 +4310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>220</v>
       </c>
@@ -4287,7 +4324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>221</v>
       </c>
@@ -4301,7 +4338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>222</v>
       </c>
@@ -4315,7 +4352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>230</v>
       </c>
@@ -4326,7 +4363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>231</v>
       </c>
@@ -4337,7 +4374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>232</v>
       </c>
@@ -4348,7 +4385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>233</v>
       </c>
@@ -4359,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>234</v>
       </c>
@@ -4370,7 +4407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>300</v>
       </c>
@@ -4384,7 +4421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>301</v>
       </c>
@@ -4398,7 +4435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>302</v>
       </c>
@@ -4412,7 +4449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>303</v>
       </c>
@@ -4426,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>310</v>
       </c>
@@ -4440,7 +4477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>311</v>
       </c>
@@ -4454,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>312</v>
       </c>
@@ -4468,7 +4505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>313</v>
       </c>
@@ -4482,7 +4519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>314</v>
       </c>
@@ -4496,7 +4533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>315</v>
       </c>
@@ -4510,7 +4547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>316</v>
       </c>
@@ -4524,7 +4561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>317</v>
       </c>
@@ -4538,7 +4575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>318</v>
       </c>
@@ -4552,7 +4589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>319</v>
       </c>
@@ -4566,7 +4603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -4580,7 +4617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -4594,7 +4631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -4608,7 +4645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -4622,7 +4659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>321</v>
       </c>
@@ -4636,7 +4673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>322</v>
       </c>
@@ -4650,7 +4687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>323</v>
       </c>
@@ -4664,7 +4701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>324</v>
       </c>
@@ -4678,7 +4715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>325</v>
       </c>
@@ -4692,7 +4729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>326</v>
       </c>
@@ -4706,7 +4743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>327</v>
       </c>
@@ -4720,7 +4757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>328</v>
       </c>
@@ -4734,7 +4771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>216</v>
       </c>
@@ -4745,7 +4782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -4756,7 +4793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>219</v>
       </c>
@@ -4767,7 +4804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -4778,7 +4815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>340</v>
       </c>
@@ -4792,7 +4829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>341</v>
       </c>
@@ -4806,7 +4843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>342</v>
       </c>
@@ -4820,7 +4857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>343</v>
       </c>
@@ -4834,7 +4871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>344</v>
       </c>
@@ -4848,7 +4885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>345</v>
       </c>
@@ -4862,7 +4899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>346</v>
       </c>
@@ -4876,7 +4913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>352</v>
       </c>
@@ -4884,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>353</v>
       </c>
@@ -4892,7 +4929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>354</v>
       </c>
@@ -4900,7 +4937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>362</v>
       </c>
@@ -4908,7 +4945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>363</v>
       </c>
@@ -4916,7 +4953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>364</v>
       </c>
@@ -4924,7 +4961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>510</v>
       </c>
@@ -4935,7 +4972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>511</v>
       </c>
@@ -4946,7 +4983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>512</v>
       </c>
@@ -4957,7 +4994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>513</v>
       </c>
@@ -4968,7 +5005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>514</v>
       </c>
@@ -4979,7 +5016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>515</v>
       </c>
@@ -4990,7 +5027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>516</v>
       </c>
@@ -5001,7 +5038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>517</v>
       </c>
@@ -5012,7 +5049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>520</v>
       </c>
@@ -5023,7 +5060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>521</v>
       </c>
@@ -5034,7 +5071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>522</v>
       </c>
@@ -5045,7 +5082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>601</v>
       </c>
@@ -5056,7 +5093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>602</v>
       </c>
@@ -5067,7 +5104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>603</v>
       </c>
@@ -5078,7 +5115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>604</v>
       </c>
@@ -5089,7 +5126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>605</v>
       </c>
@@ -5100,7 +5137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>606</v>
       </c>
@@ -5111,7 +5148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>901</v>
       </c>
@@ -5122,7 +5159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>902</v>
       </c>
@@ -5133,7 +5170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>903</v>
       </c>
@@ -5144,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>904</v>
       </c>
@@ -5155,7 +5192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>905</v>
       </c>
@@ -5166,7 +5203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>906</v>
       </c>
@@ -5177,7 +5214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>907</v>
       </c>
@@ -5188,7 +5225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>908</v>
       </c>
@@ -5212,9 +5249,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5228,7 +5265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11</v>
       </c>
@@ -5239,7 +5276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -5250,7 +5287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>31</v>
       </c>
@@ -5261,7 +5298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>41</v>
       </c>
@@ -5272,7 +5309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>51</v>
       </c>
@@ -5283,7 +5320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>52</v>
       </c>
@@ -5294,7 +5331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>53</v>
       </c>
@@ -5305,7 +5342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>61</v>
       </c>
@@ -5316,7 +5353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71</v>
       </c>
@@ -5334,15 +5371,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5350,10 +5387,10 @@
         <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -5362,29 +5399,44 @@
         <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -5392,19 +5444,13 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -5412,19 +5458,13 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -5432,19 +5472,13 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
-      <c r="G5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -5452,19 +5486,13 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
-      <c r="G6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -5472,19 +5500,13 @@
       <c r="F7" t="s">
         <v>274</v>
       </c>
-      <c r="G7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -5493,18 +5515,27 @@
         <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" t="s">
+        <v>306</v>
+      </c>
+      <c r="L8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -5513,18 +5544,24 @@
         <v>274</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -5533,18 +5570,24 @@
         <v>274</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -5553,18 +5596,27 @@
         <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -5573,18 +5625,27 @@
         <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>309</v>
+      </c>
+      <c r="K12" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -5593,18 +5654,24 @@
         <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -5613,18 +5680,24 @@
         <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J14" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -5633,18 +5706,24 @@
         <v>274</v>
       </c>
       <c r="G15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -5653,18 +5732,24 @@
         <v>274</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J16" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -5673,18 +5758,24 @@
         <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -5693,18 +5784,24 @@
         <v>274</v>
       </c>
       <c r="G18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J18" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -5713,18 +5810,24 @@
         <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J19" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -5733,18 +5836,24 @@
         <v>274</v>
       </c>
       <c r="G20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21">
-        <v>84124</v>
+        <v>299</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -5753,21 +5862,24 @@
         <v>274</v>
       </c>
       <c r="G21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="J21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22">
-        <v>126112</v>
-      </c>
-      <c r="D22">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -5776,21 +5888,27 @@
         <v>274</v>
       </c>
       <c r="G22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23">
-        <v>126112</v>
-      </c>
-      <c r="D23">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -5799,44 +5917,56 @@
         <v>67</v>
       </c>
       <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24">
-        <v>126112</v>
-      </c>
-      <c r="D24">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
         <v>67</v>
       </c>
       <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25">
-        <v>126112</v>
-      </c>
-      <c r="D25">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -5845,21 +5975,27 @@
         <v>67</v>
       </c>
       <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26">
-        <v>126112</v>
-      </c>
-      <c r="D26">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -5868,24 +6004,27 @@
         <v>67</v>
       </c>
       <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
         <v>69</v>
       </c>
-      <c r="H26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27">
-        <v>126112</v>
-      </c>
-      <c r="D27">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -5894,56 +6033,56 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" t="s">
         <v>277</v>
       </c>
       <c r="I27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28">
-        <v>126112</v>
-      </c>
-      <c r="D28">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E28" t="s">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
-      </c>
-      <c r="H28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29">
-        <v>126112</v>
-      </c>
-      <c r="D29">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -5952,27 +6091,27 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s">
         <v>277</v>
       </c>
       <c r="I29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30">
-        <v>126112</v>
-      </c>
-      <c r="D30">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -5981,27 +6120,27 @@
         <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s">
         <v>277</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31">
-        <v>126112</v>
-      </c>
-      <c r="D31">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -6010,27 +6149,27 @@
         <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
         <v>277</v>
       </c>
       <c r="I31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32">
-        <v>126112</v>
-      </c>
-      <c r="D32">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -6039,27 +6178,27 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s">
         <v>277</v>
       </c>
       <c r="I32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C33">
-        <v>126112</v>
-      </c>
-      <c r="D33">
-        <v>126111</v>
+        <v>299</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -6068,13 +6207,19 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" t="s">
         <v>277</v>
       </c>
       <c r="I33" t="s">
         <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6084,15 +6229,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C22" sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6100,10 +6245,10 @@
         <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -6112,41 +6257,29 @@
         <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="H1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2">
-        <v>31117</v>
-      </c>
-      <c r="D2">
-        <v>31172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C3">
-        <v>31117</v>
-      </c>
-      <c r="D3">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -6154,19 +6287,19 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C4">
-        <v>31117</v>
-      </c>
-      <c r="D4">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -6174,19 +6307,19 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C5">
-        <v>31117</v>
-      </c>
-      <c r="D5">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -6194,19 +6327,19 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C6">
-        <v>31117</v>
-      </c>
-      <c r="D6">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -6214,19 +6347,19 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C7">
-        <v>31117</v>
-      </c>
-      <c r="D7">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -6234,19 +6367,19 @@
       <c r="F7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C8">
-        <v>31117</v>
-      </c>
-      <c r="D8">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -6255,21 +6388,18 @@
         <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C9">
-        <v>31117</v>
-      </c>
-      <c r="D9">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -6281,18 +6411,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C10">
-        <v>31117</v>
-      </c>
-      <c r="D10">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -6304,18 +6431,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C11">
-        <v>31117</v>
-      </c>
-      <c r="D11">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -6327,18 +6451,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C12">
-        <v>31117</v>
-      </c>
-      <c r="D12">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -6350,18 +6471,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C13">
-        <v>31117</v>
-      </c>
-      <c r="D13">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -6373,18 +6491,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C14">
-        <v>31117</v>
-      </c>
-      <c r="D14">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -6396,18 +6511,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C15">
-        <v>31117</v>
-      </c>
-      <c r="D15">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -6419,18 +6531,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C16">
-        <v>31117</v>
-      </c>
-      <c r="D16">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -6442,18 +6551,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C17">
-        <v>31117</v>
-      </c>
-      <c r="D17">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -6465,18 +6571,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C18">
-        <v>31117</v>
-      </c>
-      <c r="D18">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -6488,18 +6591,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C19">
-        <v>31117</v>
-      </c>
-      <c r="D19">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -6511,18 +6611,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C20">
-        <v>31117</v>
-      </c>
-      <c r="D20">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -6534,18 +6631,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C21">
-        <v>31117</v>
-      </c>
-      <c r="D21">
-        <v>31172</v>
+        <v>84124</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -6557,18 +6651,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C22">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D22">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -6580,18 +6674,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C23">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D23">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -6603,18 +6697,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C24">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D24">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -6626,18 +6720,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C25">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D25">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -6649,18 +6743,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C26">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D26">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -6671,19 +6765,22 @@
       <c r="G26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C27">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D27">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -6692,21 +6789,27 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C28">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D28">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -6715,21 +6818,27 @@
         <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H28" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C29">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D29">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -6738,21 +6847,27 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C30">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D30">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -6761,21 +6876,27 @@
         <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C31">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D31">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -6784,21 +6905,27 @@
         <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C32">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D32">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -6807,21 +6934,27 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C33">
-        <v>41111</v>
+        <v>126112</v>
       </c>
       <c r="D33">
-        <v>42212</v>
+        <v>126111</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -6830,7 +6963,13 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6840,22 +6979,778 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="A1:G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2">
+        <v>31117</v>
+      </c>
+      <c r="D2">
+        <v>31172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3">
+        <v>31117</v>
+      </c>
+      <c r="D3">
+        <v>31172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4">
+        <v>31117</v>
+      </c>
+      <c r="D4">
+        <v>31172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5">
+        <v>31117</v>
+      </c>
+      <c r="D5">
+        <v>31172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6">
+        <v>31117</v>
+      </c>
+      <c r="D6">
+        <v>31172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7">
+        <v>31117</v>
+      </c>
+      <c r="D7">
+        <v>31172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8">
+        <v>31117</v>
+      </c>
+      <c r="D8">
+        <v>31172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9">
+        <v>31117</v>
+      </c>
+      <c r="D9">
+        <v>31172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10">
+        <v>31117</v>
+      </c>
+      <c r="D10">
+        <v>31172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11">
+        <v>31117</v>
+      </c>
+      <c r="D11">
+        <v>31172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>31117</v>
+      </c>
+      <c r="D12">
+        <v>31172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13">
+        <v>31117</v>
+      </c>
+      <c r="D13">
+        <v>31172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>31117</v>
+      </c>
+      <c r="D14">
+        <v>31172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15">
+        <v>31117</v>
+      </c>
+      <c r="D15">
+        <v>31172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16">
+        <v>31117</v>
+      </c>
+      <c r="D16">
+        <v>31172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17">
+        <v>31117</v>
+      </c>
+      <c r="D17">
+        <v>31172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18">
+        <v>31117</v>
+      </c>
+      <c r="D18">
+        <v>31172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19">
+        <v>31117</v>
+      </c>
+      <c r="D19">
+        <v>31172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20">
+        <v>31117</v>
+      </c>
+      <c r="D20">
+        <v>31172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21">
+        <v>31117</v>
+      </c>
+      <c r="D21">
+        <v>31172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22">
+        <v>41111</v>
+      </c>
+      <c r="D22">
+        <v>42212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23">
+        <v>41111</v>
+      </c>
+      <c r="D23">
+        <v>42212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24">
+        <v>41111</v>
+      </c>
+      <c r="D24">
+        <v>42212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25">
+        <v>41111</v>
+      </c>
+      <c r="D25">
+        <v>42212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26">
+        <v>41111</v>
+      </c>
+      <c r="D26">
+        <v>42212</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27">
+        <v>41111</v>
+      </c>
+      <c r="D27">
+        <v>42212</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28">
+        <v>41111</v>
+      </c>
+      <c r="D28">
+        <v>42212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29">
+        <v>41111</v>
+      </c>
+      <c r="D29">
+        <v>42212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30">
+        <v>41111</v>
+      </c>
+      <c r="D30">
+        <v>42212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31">
+        <v>41111</v>
+      </c>
+      <c r="D31">
+        <v>42212</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32">
+        <v>41111</v>
+      </c>
+      <c r="D32">
+        <v>42212</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33">
+        <v>41111</v>
+      </c>
+      <c r="D33">
+        <v>42212</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6872,7 +7767,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>35</v>
       </c>
@@ -6883,7 +7778,7 @@
         <v>5876050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36</v>
       </c>
@@ -6894,7 +7789,7 @@
         <v>6196716</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>37</v>
       </c>
@@ -6905,7 +7800,7 @@
         <v>6531840</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>38</v>
       </c>
@@ -6916,7 +7811,7 @@
         <v>6881821</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>39</v>
       </c>
@@ -6927,7 +7822,7 @@
         <v>7247396.0000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40</v>
       </c>
@@ -6938,7 +7833,7 @@
         <v>7628985.0000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>41</v>
       </c>
@@ -6949,7 +7844,7 @@
         <v>8027360.0000000019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>42</v>
       </c>
@@ -6960,7 +7855,7 @@
         <v>8443321.0000000037</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>43</v>
       </c>
@@ -6971,7 +7866,7 @@
         <v>8877330.0000000037</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>44</v>
       </c>
@@ -6982,7 +7877,7 @@
         <v>9330222.0000000037</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>45</v>
       </c>
@@ -6993,7 +7888,7 @@
         <v>9799820</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>46</v>
       </c>
@@ -7004,7 +7899,7 @@
         <v>10303832</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>47</v>
       </c>
@@ -7015,7 +7910,7 @@
         <v>10827590</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>48</v>
       </c>
@@ -7026,7 +7921,7 @@
         <v>11372800.999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>49</v>
       </c>
@@ -7037,7 +7932,7 @@
         <v>11939199.999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50</v>
       </c>
@@ -7048,7 +7943,7 @@
         <v>12528149.999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>51</v>
       </c>
@@ -7059,7 +7954,7 @@
         <v>13140217.999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>52</v>
       </c>
@@ -7070,7 +7965,7 @@
         <v>13775970.999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>53</v>
       </c>
@@ -7081,7 +7976,7 @@
         <v>14436879.999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>54</v>
       </c>
@@ -7092,7 +7987,7 @@
         <v>15123104.999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>55</v>
       </c>
@@ -7103,7 +7998,7 @@
         <v>15843230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -7114,7 +8009,7 @@
         <v>16707879.000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>57</v>
       </c>
@@ -7125,7 +8020,7 @@
         <v>17615664</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>58</v>
       </c>
@@ -7136,7 +8031,7 @@
         <v>18569129.000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>59</v>
       </c>
@@ -7147,7 +8042,7 @@
         <v>19570404.000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>60</v>
       </c>
@@ -7158,7 +8053,7 @@
         <v>20621675.000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>61</v>
       </c>
@@ -7169,7 +8064,7 @@
         <v>21724672.000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>62</v>
       </c>
@@ -7180,7 +8075,7 @@
         <v>22882710.000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>63</v>
       </c>
@@ -7192,7 +8087,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>64</v>
       </c>
@@ -7204,7 +8099,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>65</v>
       </c>
@@ -7216,7 +8111,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66</v>
       </c>
@@ -7228,7 +8123,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>67</v>
       </c>
@@ -7240,7 +8135,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68</v>
       </c>
@@ -7252,7 +8147,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>69</v>
       </c>
@@ -7266,11 +8161,11 @@
         <v>46918</v>
       </c>
       <c r="E36" s="1">
-        <f>C36/D36</f>
+        <f t="shared" ref="E36:E61" si="0">C36/D36</f>
         <v>659.70467624365926</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70</v>
       </c>
@@ -7284,11 +8179,11 @@
         <v>47249</v>
       </c>
       <c r="E37" s="1">
-        <f>C37/D37</f>
+        <f t="shared" si="0"/>
         <v>679.51226480983735</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71</v>
       </c>
@@ -7302,11 +8197,11 @@
         <v>46102</v>
       </c>
       <c r="E38" s="1">
-        <f>C38/D38</f>
+        <f t="shared" si="0"/>
         <v>715.26085636198025</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -7320,11 +8215,11 @@
         <v>33141</v>
       </c>
       <c r="E39" s="1">
-        <f>C39/D39</f>
+        <f t="shared" si="0"/>
         <v>1021.7615340514775</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>73</v>
       </c>
@@ -7338,11 +8233,11 @@
         <v>60228</v>
       </c>
       <c r="E40" s="1">
-        <f>C40/D40</f>
+        <f t="shared" si="0"/>
         <v>577.27727967058536</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>74</v>
       </c>
@@ -7356,11 +8251,11 @@
         <v>100804</v>
       </c>
       <c r="E41" s="1">
-        <f>C41/D41</f>
+        <f t="shared" si="0"/>
         <v>354.08693107416389</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>75</v>
       </c>
@@ -7374,11 +8269,11 @@
         <v>52693</v>
       </c>
       <c r="E42">
-        <f>C42/D42</f>
+        <f t="shared" si="0"/>
         <v>695.22612111665683</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>76</v>
       </c>
@@ -7392,11 +8287,11 @@
         <v>52096</v>
       </c>
       <c r="E43">
-        <f>C43/D43</f>
+        <f t="shared" si="0"/>
         <v>723.2837453931204</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>77</v>
       </c>
@@ -7410,11 +8305,11 @@
         <v>39130</v>
       </c>
       <c r="E44">
-        <f>C44/D44</f>
+        <f t="shared" si="0"/>
         <v>990.34684385382059</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>78</v>
       </c>
@@ -7428,11 +8323,11 @@
         <v>60658</v>
       </c>
       <c r="E45">
-        <f>C45/D45</f>
+        <f t="shared" si="0"/>
         <v>656.94404695176252</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>79</v>
       </c>
@@ -7446,11 +8341,11 @@
         <v>55675</v>
       </c>
       <c r="E46">
-        <f>C46/D46</f>
+        <f t="shared" si="0"/>
         <v>735.90879209699165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>80</v>
       </c>
@@ -7464,11 +8359,11 @@
         <v>55178</v>
       </c>
       <c r="E47">
-        <f>C47/D47</f>
+        <f t="shared" si="0"/>
         <v>763.33221573815661</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>81</v>
       </c>
@@ -7482,11 +8377,11 @@
         <v>66708</v>
       </c>
       <c r="E48">
-        <f>C48/D48</f>
+        <f t="shared" si="0"/>
         <v>648.0122324159023</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>82</v>
       </c>
@@ -7500,11 +8395,11 @@
         <v>48180</v>
       </c>
       <c r="E49">
-        <f>C49/D49</f>
+        <f t="shared" si="0"/>
         <v>920.72613117476146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>83</v>
       </c>
@@ -7518,11 +8413,11 @@
         <v>49900</v>
       </c>
       <c r="E50">
-        <f>C50/D50</f>
+        <f t="shared" si="0"/>
         <v>912.17975951903838</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>84</v>
       </c>
@@ -7536,11 +8431,11 @@
         <v>54278</v>
       </c>
       <c r="E51">
-        <f>C51/D51</f>
+        <f t="shared" si="0"/>
         <v>860.375658646229</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>85</v>
       </c>
@@ -7554,11 +8449,11 @@
         <v>57986</v>
       </c>
       <c r="E52">
-        <f>C52/D52</f>
+        <f t="shared" si="0"/>
         <v>832.26985824164456</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>86</v>
       </c>
@@ -7572,11 +8467,11 @@
         <v>60662</v>
       </c>
       <c r="E53">
-        <f>C53/D53</f>
+        <f t="shared" si="0"/>
         <v>812.50206059806794</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>87</v>
       </c>
@@ -7590,11 +8485,11 @@
         <v>77271</v>
       </c>
       <c r="E54">
-        <f>C54/D54</f>
+        <f t="shared" si="0"/>
         <v>651.47338587568424</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>88</v>
       </c>
@@ -7608,11 +8503,11 @@
         <v>74398</v>
       </c>
       <c r="E55">
-        <f>C55/D55</f>
+        <f t="shared" si="0"/>
         <v>691.09384660877981</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>89</v>
       </c>
@@ -7626,11 +8521,11 @@
         <v>72441</v>
       </c>
       <c r="E56">
-        <f>C56/D56</f>
+        <f t="shared" si="0"/>
         <v>724.98999185544096</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>90</v>
       </c>
@@ -7644,11 +8539,11 @@
         <v>71461</v>
       </c>
       <c r="E57">
-        <f>C57/D57</f>
+        <f t="shared" si="0"/>
         <v>750.71717440282112</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>91</v>
       </c>
@@ -7662,11 +8557,11 @@
         <v>69567</v>
       </c>
       <c r="E58">
-        <f>C58/D58</f>
+        <f t="shared" si="0"/>
         <v>784.9555105150431</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>92</v>
       </c>
@@ -7680,11 +8575,11 @@
         <v>68058</v>
       </c>
       <c r="E59">
-        <f>C59/D59</f>
+        <f t="shared" si="0"/>
         <v>815.51030003820267</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>93</v>
       </c>
@@ -7698,11 +8593,11 @@
         <v>67482</v>
       </c>
       <c r="E60">
-        <f>C60/D60</f>
+        <f t="shared" si="0"/>
         <v>835.89697993539016</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>94</v>
       </c>
@@ -7716,11 +8611,11 @@
         <v>67177</v>
       </c>
       <c r="E61">
-        <f>C61/D61</f>
+        <f t="shared" si="0"/>
         <v>853.37243401759531</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>95</v>
       </c>
@@ -7731,7 +8626,7 @@
         <v>58220000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>35</v>
       </c>
@@ -7742,7 +8637,7 @@
         <v>13078950</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>36</v>
       </c>
@@ -7753,7 +8648,7 @@
         <v>13351284</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>37</v>
       </c>
@@ -7764,7 +8659,7 @@
         <v>13628160</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -7775,7 +8670,7 @@
         <v>13909179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>39</v>
       </c>
@@ -7786,7 +8681,7 @@
         <v>14194603.999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40</v>
       </c>
@@ -7797,7 +8692,7 @@
         <v>14484014.999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>41</v>
       </c>
@@ -7808,7 +8703,7 @@
         <v>14777639.999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>42</v>
       </c>
@@ -7819,7 +8714,7 @@
         <v>15075678.999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>43</v>
       </c>
@@ -7830,7 +8725,7 @@
         <v>15377669.999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>44</v>
       </c>
@@ -7841,7 +8736,7 @@
         <v>15683777.999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>45</v>
       </c>
@@ -7852,7 +8747,7 @@
         <v>15989180</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>46</v>
       </c>
@@ -7863,7 +8758,7 @@
         <v>16184168</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>47</v>
       </c>
@@ -7874,7 +8769,7 @@
         <v>16377410</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>48</v>
       </c>
@@ -7885,7 +8780,7 @@
         <v>16570199.000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>49</v>
       </c>
@@ -7896,7 +8791,7 @@
         <v>16760800.000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>50</v>
       </c>
@@ -7907,7 +8802,7 @@
         <v>16949850.000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>51</v>
       </c>
@@ -7918,7 +8813,7 @@
         <v>17136782</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>52</v>
       </c>
@@ -7929,7 +8824,7 @@
         <v>17321029.000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>53</v>
       </c>
@@ -7940,7 +8835,7 @@
         <v>17503120.000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>54</v>
       </c>
@@ -7951,7 +8846,7 @@
         <v>17681895.000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>55</v>
       </c>
@@ -7962,7 +8857,7 @@
         <v>17865770</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>56</v>
       </c>
@@ -7973,7 +8868,7 @@
         <v>18319121</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>57</v>
       </c>
@@ -7984,7 +8879,7 @@
         <v>18780336</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>58</v>
       </c>
@@ -7995,7 +8890,7 @@
         <v>19249870.999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>59</v>
       </c>
@@ -8006,7 +8901,7 @@
         <v>19727595.999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>60</v>
       </c>
@@ -8017,7 +8912,7 @@
         <v>20213324.999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>61</v>
       </c>
@@ -8028,7 +8923,7 @@
         <v>20706327.999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>62</v>
       </c>
@@ -8039,7 +8934,7 @@
         <v>21207289.999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>63</v>
       </c>
@@ -8050,7 +8945,7 @@
         <v>21715835.999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>64</v>
       </c>
@@ -8061,7 +8956,7 @@
         <v>22232001.999999989</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>65</v>
       </c>
@@ -8072,7 +8967,7 @@
         <v>22744700</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>66</v>
       </c>
@@ -8083,7 +8978,7 @@
         <v>22949433</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>67</v>
       </c>
@@ -8094,7 +8989,7 @@
         <v>23150968</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>68</v>
       </c>
@@ -8105,7 +9000,7 @@
         <v>23348214.999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>69</v>
       </c>
@@ -8119,11 +9014,11 @@
         <v>54653</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E62:E123" si="0">C97/D97</f>
+        <f t="shared" ref="E97:E122" si="1">C97/D97</f>
         <v>430.73529357949229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>70</v>
       </c>
@@ -8137,11 +9032,11 @@
         <v>55664</v>
       </c>
       <c r="E98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>426.32087165852244</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>71</v>
       </c>
@@ -8155,11 +9050,11 @@
         <v>53935</v>
       </c>
       <c r="E99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>439.10343932511336</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>72</v>
       </c>
@@ -8173,11 +9068,11 @@
         <v>33099</v>
       </c>
       <c r="E100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>713.88262485271412</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>73</v>
       </c>
@@ -8191,11 +9086,11 @@
         <v>44146</v>
       </c>
       <c r="E101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>533.85910388257116</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>74</v>
       </c>
@@ -8209,11 +9104,11 @@
         <v>92800</v>
       </c>
       <c r="E102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253.22867456896535</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>75</v>
       </c>
@@ -8227,11 +9122,11 @@
         <v>61055</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>383.6123167635738</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>76</v>
       </c>
@@ -8245,11 +9140,11 @@
         <v>59639</v>
       </c>
       <c r="E104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>392.18984221734098</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>77</v>
       </c>
@@ -8263,11 +9158,11 @@
         <v>49905</v>
       </c>
       <c r="E105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467.90357679591222</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>78</v>
       </c>
@@ -8281,11 +9176,11 @@
         <v>79183</v>
       </c>
       <c r="E106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294.294078274377</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>79</v>
       </c>
@@ -8299,11 +9194,11 @@
         <v>77033</v>
       </c>
       <c r="E107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301.78336557059953</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>80</v>
       </c>
@@ -8317,11 +9212,11 @@
         <v>75787</v>
       </c>
       <c r="E108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305.88168155488398</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>81</v>
       </c>
@@ -8335,11 +9230,11 @@
         <v>86406</v>
       </c>
       <c r="E109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>267.02312339420865</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>82</v>
       </c>
@@ -8353,11 +9248,11 @@
         <v>59940</v>
       </c>
       <c r="E110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>382.95653987320628</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>83</v>
       </c>
@@ -8371,11 +9266,11 @@
         <v>62874</v>
       </c>
       <c r="E111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>363.06311034767924</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>84</v>
       </c>
@@ -8389,11 +9284,11 @@
         <v>66361</v>
       </c>
       <c r="E112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>341.92567923931199</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>85</v>
       </c>
@@ -8407,11 +9302,11 @@
         <v>77284</v>
       </c>
       <c r="E113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287.71802701723516</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>86</v>
       </c>
@@ -8425,11 +9320,11 @@
         <v>72814</v>
       </c>
       <c r="E114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303.21092097673522</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>87</v>
       </c>
@@ -8443,11 +9338,11 @@
         <v>83979</v>
       </c>
       <c r="E115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261.08908179425811</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>88</v>
       </c>
@@ -8461,11 +9356,11 @@
         <v>76072</v>
       </c>
       <c r="E116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>286.30770848669681</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>89</v>
       </c>
@@ -8479,11 +9374,11 @@
         <v>79850</v>
       </c>
       <c r="E117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270.99561678146523</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>90</v>
       </c>
@@ -8497,11 +9392,11 @@
         <v>79079</v>
       </c>
       <c r="E118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271.91795546225927</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>91</v>
       </c>
@@ -8515,11 +9410,11 @@
         <v>76496</v>
       </c>
       <c r="E119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280.14536707801716</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>92</v>
       </c>
@@ -8533,11 +9428,11 @@
         <v>72301</v>
       </c>
       <c r="E120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>296.55191491127368</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>93</v>
       </c>
@@ -8551,11 +9446,11 @@
         <v>71551</v>
       </c>
       <c r="E121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>299.75821442048328</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>94</v>
       </c>
@@ -8569,11 +9464,11 @@
         <v>70439</v>
       </c>
       <c r="E122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>304.46201678047674</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>95</v>
       </c>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRHEIS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HouseHoldSurvey\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,16 @@
     <sheet name="EduCodes-A" sheetId="6" r:id="rId3"/>
     <sheet name="EduCodes-B" sheetId="4" r:id="rId4"/>
     <sheet name="EduCodes-C" sheetId="5" r:id="rId5"/>
-    <sheet name="FoodTables" sheetId="10" r:id="rId6"/>
-    <sheet name="LoanTables" sheetId="7" r:id="rId7"/>
-    <sheet name="HouseTables" sheetId="8" r:id="rId8"/>
-    <sheet name="RegionWeights" sheetId="9" r:id="rId9"/>
+    <sheet name="LoanTables" sheetId="7" r:id="rId6"/>
+    <sheet name="HouseTables" sheetId="8" r:id="rId7"/>
+    <sheet name="RegionWeights" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="299">
   <si>
     <t>Year</t>
   </si>
@@ -924,53 +923,17 @@
   </si>
   <si>
     <t>Weight</t>
-  </si>
-  <si>
-    <t>P3S01</t>
-  </si>
-  <si>
-    <t>BuyingMethod</t>
-  </si>
-  <si>
-    <t>Grams</t>
-  </si>
-  <si>
-    <t>Kilos</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
-    <t>COL3</t>
-  </si>
-  <si>
-    <t>COL7</t>
-  </si>
-  <si>
-    <t>COL4_5</t>
-  </si>
-  <si>
-    <t>COL8</t>
-  </si>
-  <si>
-    <t>COL5_6</t>
-  </si>
-  <si>
-    <t>PriceSystem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -978,7 +941,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -986,7 +949,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="major"/>
@@ -995,7 +958,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1004,7 +967,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1013,7 +976,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1021,7 +984,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1029,7 +992,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1037,7 +1000,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1045,7 +1008,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1054,7 +1017,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1063,7 +1026,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1071,7 +1034,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1080,7 +1043,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1088,7 +1051,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1097,7 +1060,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1106,7 +1069,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1114,7 +1077,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1123,7 +1086,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1797,9 +1760,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>63</v>
       </c>
@@ -1815,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -1823,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
@@ -1831,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
@@ -1839,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
@@ -1847,7 +1810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68</v>
       </c>
@@ -1855,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>69</v>
       </c>
@@ -1863,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1871,7 +1834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -1879,7 +1842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
@@ -1887,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
@@ -1895,7 +1858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>74</v>
       </c>
@@ -1903,7 +1866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75</v>
       </c>
@@ -1911,7 +1874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76</v>
       </c>
@@ -1919,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77</v>
       </c>
@@ -1927,7 +1890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>78</v>
       </c>
@@ -1935,7 +1898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
@@ -1943,7 +1906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -1951,7 +1914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
@@ -1959,7 +1922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
@@ -1967,7 +1930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
@@ -1975,7 +1938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
@@ -1983,7 +1946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
@@ -1991,7 +1954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
@@ -1999,7 +1962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -2007,7 +1970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
@@ -2015,7 +1978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
@@ -2023,7 +1986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
@@ -2031,7 +1994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91</v>
       </c>
@@ -2039,7 +2002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92</v>
       </c>
@@ -2047,7 +2010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>93</v>
       </c>
@@ -2055,7 +2018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2072,13 +2035,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>63</v>
       </c>
@@ -2184,7 +2147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -2234,7 +2197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
@@ -2284,7 +2247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
@@ -2328,7 +2291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
@@ -2372,7 +2335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68</v>
       </c>
@@ -2416,7 +2379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>69</v>
       </c>
@@ -2451,7 +2414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -2486,7 +2449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -2521,7 +2484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
@@ -2556,7 +2519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
@@ -2591,7 +2554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>74</v>
       </c>
@@ -2626,7 +2589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75</v>
       </c>
@@ -2661,7 +2624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76</v>
       </c>
@@ -2696,7 +2659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77</v>
       </c>
@@ -2731,7 +2694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>78</v>
       </c>
@@ -2766,7 +2729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
@@ -2801,7 +2764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -2836,7 +2799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
@@ -2871,7 +2834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
@@ -2906,7 +2869,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
@@ -2941,7 +2904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
@@ -2976,7 +2939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
@@ -3011,7 +2974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
@@ -3046,7 +3009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -3081,7 +3044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
@@ -3116,7 +3079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3151,7 +3114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
@@ -3186,7 +3149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91</v>
       </c>
@@ -3221,7 +3184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92</v>
       </c>
@@ -3256,7 +3219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>93</v>
       </c>
@@ -3291,7 +3254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
@@ -3339,9 +3302,9 @@
       <selection sqref="A1:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3363,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3374,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3385,7 +3348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3396,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3407,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3418,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3429,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -3440,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3451,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3462,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3473,7 +3436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3484,7 +3447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -3495,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -3506,7 +3469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -3517,7 +3480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -3528,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -3539,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -3550,7 +3513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26</v>
       </c>
@@ -3561,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
@@ -3572,7 +3535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -3583,7 +3546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -3594,7 +3557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -3605,7 +3568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -3616,7 +3579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -3627,7 +3590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -3638,7 +3601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>39</v>
       </c>
@@ -3649,7 +3612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>40</v>
       </c>
@@ -3660,7 +3623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>41</v>
       </c>
@@ -3671,7 +3634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -3682,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -3693,7 +3656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -3704,7 +3667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45</v>
       </c>
@@ -3715,7 +3678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>46</v>
       </c>
@@ -3726,7 +3689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>47</v>
       </c>
@@ -3737,7 +3700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>48</v>
       </c>
@@ -3748,7 +3711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>49</v>
       </c>
@@ -3759,7 +3722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>51</v>
       </c>
@@ -3770,7 +3733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>52</v>
       </c>
@@ -3781,7 +3744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>61</v>
       </c>
@@ -3792,7 +3755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>62</v>
       </c>
@@ -3803,7 +3766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>71</v>
       </c>
@@ -3814,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>72</v>
       </c>
@@ -3825,7 +3788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>73</v>
       </c>
@@ -3836,7 +3799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>75</v>
       </c>
@@ -3847,7 +3810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>76</v>
       </c>
@@ -3858,7 +3821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>77</v>
       </c>
@@ -3869,7 +3832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>78</v>
       </c>
@@ -3880,7 +3843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>81</v>
       </c>
@@ -3891,7 +3854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>82</v>
       </c>
@@ -3902,7 +3865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>83</v>
       </c>
@@ -3913,7 +3876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>85</v>
       </c>
@@ -3924,7 +3887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>86</v>
       </c>
@@ -3935,7 +3898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>87</v>
       </c>
@@ -3946,7 +3909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>89</v>
       </c>
@@ -3957,7 +3920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>91</v>
       </c>
@@ -3968,7 +3931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>92</v>
       </c>
@@ -3979,7 +3942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>93</v>
       </c>
@@ -3990,7 +3953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>94</v>
       </c>
@@ -4014,9 +3977,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -4030,7 +3993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4044,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4058,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4072,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -4086,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -4100,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>103</v>
       </c>
@@ -4114,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>104</v>
       </c>
@@ -4128,7 +4091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>105</v>
       </c>
@@ -4142,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>106</v>
       </c>
@@ -4156,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>107</v>
       </c>
@@ -4170,7 +4133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>108</v>
       </c>
@@ -4184,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>109</v>
       </c>
@@ -4198,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>210</v>
       </c>
@@ -4212,7 +4175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>211</v>
       </c>
@@ -4226,7 +4189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>212</v>
       </c>
@@ -4240,7 +4203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>213</v>
       </c>
@@ -4254,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>214</v>
       </c>
@@ -4268,7 +4231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>215</v>
       </c>
@@ -4282,7 +4245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>216</v>
       </c>
@@ -4296,7 +4259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>217</v>
       </c>
@@ -4310,7 +4273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>220</v>
       </c>
@@ -4324,7 +4287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>221</v>
       </c>
@@ -4338,7 +4301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>222</v>
       </c>
@@ -4352,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
@@ -4363,7 +4326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>231</v>
       </c>
@@ -4374,7 +4337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>232</v>
       </c>
@@ -4385,7 +4348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>233</v>
       </c>
@@ -4396,7 +4359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>234</v>
       </c>
@@ -4407,7 +4370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>300</v>
       </c>
@@ -4421,7 +4384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>301</v>
       </c>
@@ -4435,7 +4398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>302</v>
       </c>
@@ -4449,7 +4412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>303</v>
       </c>
@@ -4463,7 +4426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>310</v>
       </c>
@@ -4477,7 +4440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>311</v>
       </c>
@@ -4491,7 +4454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>312</v>
       </c>
@@ -4505,7 +4468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>313</v>
       </c>
@@ -4519,7 +4482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>314</v>
       </c>
@@ -4533,7 +4496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>315</v>
       </c>
@@ -4547,7 +4510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>316</v>
       </c>
@@ -4561,7 +4524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>317</v>
       </c>
@@ -4575,7 +4538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>318</v>
       </c>
@@ -4589,7 +4552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>319</v>
       </c>
@@ -4603,7 +4566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -4617,7 +4580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -4631,7 +4594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -4645,7 +4608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -4659,7 +4622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>321</v>
       </c>
@@ -4673,7 +4636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>322</v>
       </c>
@@ -4687,7 +4650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>323</v>
       </c>
@@ -4701,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>324</v>
       </c>
@@ -4715,7 +4678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>325</v>
       </c>
@@ -4729,7 +4692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>326</v>
       </c>
@@ -4743,7 +4706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>327</v>
       </c>
@@ -4757,7 +4720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>328</v>
       </c>
@@ -4771,7 +4734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>216</v>
       </c>
@@ -4782,7 +4745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -4793,7 +4756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>219</v>
       </c>
@@ -4804,7 +4767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -4815,7 +4778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>340</v>
       </c>
@@ -4829,7 +4792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>341</v>
       </c>
@@ -4843,7 +4806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>342</v>
       </c>
@@ -4857,7 +4820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>343</v>
       </c>
@@ -4871,7 +4834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>344</v>
       </c>
@@ -4885,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>345</v>
       </c>
@@ -4899,7 +4862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>346</v>
       </c>
@@ -4913,7 +4876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>352</v>
       </c>
@@ -4921,7 +4884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>353</v>
       </c>
@@ -4929,7 +4892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>354</v>
       </c>
@@ -4937,7 +4900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>362</v>
       </c>
@@ -4945,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>363</v>
       </c>
@@ -4953,7 +4916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>364</v>
       </c>
@@ -4961,7 +4924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>510</v>
       </c>
@@ -4972,7 +4935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>511</v>
       </c>
@@ -4983,7 +4946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>512</v>
       </c>
@@ -4994,7 +4957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>513</v>
       </c>
@@ -5005,7 +4968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>514</v>
       </c>
@@ -5016,7 +4979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>515</v>
       </c>
@@ -5027,7 +4990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>516</v>
       </c>
@@ -5038,7 +5001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>517</v>
       </c>
@@ -5049,7 +5012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>520</v>
       </c>
@@ -5060,7 +5023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>521</v>
       </c>
@@ -5071,7 +5034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>522</v>
       </c>
@@ -5082,7 +5045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>601</v>
       </c>
@@ -5093,7 +5056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>602</v>
       </c>
@@ -5104,7 +5067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>603</v>
       </c>
@@ -5115,7 +5078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>604</v>
       </c>
@@ -5126,7 +5089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>605</v>
       </c>
@@ -5137,7 +5100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>606</v>
       </c>
@@ -5148,7 +5111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>901</v>
       </c>
@@ -5159,7 +5122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>902</v>
       </c>
@@ -5170,7 +5133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>903</v>
       </c>
@@ -5181,7 +5144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>904</v>
       </c>
@@ -5192,7 +5155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>905</v>
       </c>
@@ -5203,7 +5166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>906</v>
       </c>
@@ -5214,7 +5177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>907</v>
       </c>
@@ -5225,7 +5188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>908</v>
       </c>
@@ -5249,9 +5212,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5265,7 +5228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -5276,7 +5239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -5287,7 +5250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -5298,7 +5261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
@@ -5309,7 +5272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>51</v>
       </c>
@@ -5320,7 +5283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>52</v>
       </c>
@@ -5331,7 +5294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53</v>
       </c>
@@ -5342,7 +5305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>61</v>
       </c>
@@ -5353,7 +5316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -5371,15 +5334,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5387,10 +5350,10 @@
         <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -5399,44 +5362,29 @@
         <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>84124</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -5444,13 +5392,19 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C4">
+        <v>84124</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -5458,13 +5412,19 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C5">
+        <v>84124</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -5472,13 +5432,19 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C6">
+        <v>84124</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -5486,13 +5452,19 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C7">
+        <v>84124</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -5500,13 +5472,19 @@
       <c r="F7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C8">
+        <v>84124</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -5515,27 +5493,18 @@
         <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K8" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C9">
+        <v>84124</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -5544,24 +5513,18 @@
         <v>274</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>309</v>
-      </c>
-      <c r="L9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C10">
+        <v>84124</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -5570,24 +5533,18 @@
         <v>274</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>309</v>
-      </c>
-      <c r="L10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C11">
+        <v>84124</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -5596,27 +5553,18 @@
         <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>309</v>
-      </c>
-      <c r="K11" t="s">
-        <v>306</v>
-      </c>
-      <c r="L11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C12">
+        <v>84124</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -5625,27 +5573,18 @@
         <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>309</v>
-      </c>
-      <c r="K12" t="s">
-        <v>306</v>
-      </c>
-      <c r="L12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C13">
+        <v>84124</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -5654,24 +5593,18 @@
         <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
-      </c>
-      <c r="J13" t="s">
-        <v>307</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C14">
+        <v>84124</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -5680,24 +5613,18 @@
         <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
-      </c>
-      <c r="J14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C15">
+        <v>84124</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -5706,24 +5633,18 @@
         <v>274</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J15" t="s">
-        <v>307</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C16">
+        <v>84124</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -5732,24 +5653,18 @@
         <v>274</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
-      </c>
-      <c r="J16" t="s">
-        <v>307</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C17">
+        <v>84124</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -5758,24 +5673,18 @@
         <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>305</v>
-      </c>
-      <c r="J17" t="s">
-        <v>307</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C18">
+        <v>84124</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -5784,24 +5693,18 @@
         <v>274</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
-      </c>
-      <c r="J18" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C19">
+        <v>84124</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -5810,24 +5713,18 @@
         <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
-      </c>
-      <c r="J19" t="s">
-        <v>307</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C20">
+        <v>84124</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -5836,24 +5733,18 @@
         <v>274</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
-      </c>
-      <c r="J20" t="s">
-        <v>307</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="C21">
+        <v>84124</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -5862,24 +5753,21 @@
         <v>274</v>
       </c>
       <c r="G21" t="s">
-        <v>305</v>
-      </c>
-      <c r="J21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C22">
+        <v>126112</v>
+      </c>
+      <c r="D22">
+        <v>126111</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -5888,27 +5776,21 @@
         <v>274</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
-      </c>
-      <c r="I22" t="s">
         <v>275</v>
       </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C23">
+        <v>126112</v>
+      </c>
+      <c r="D23">
+        <v>126111</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -5917,56 +5799,44 @@
         <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
         <v>69</v>
       </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C24">
+        <v>126112</v>
+      </c>
+      <c r="D24">
+        <v>126111</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
         <v>69</v>
       </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C25">
+        <v>126112</v>
+      </c>
+      <c r="D25">
+        <v>126111</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -5975,27 +5845,21 @@
         <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
         <v>69</v>
       </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C26">
+        <v>126112</v>
+      </c>
+      <c r="D26">
+        <v>126111</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -6004,27 +5868,24 @@
         <v>67</v>
       </c>
       <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
         <v>277</v>
       </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C27">
+        <v>126112</v>
+      </c>
+      <c r="D27">
+        <v>126111</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -6033,56 +5894,56 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
         <v>277</v>
       </c>
       <c r="I27" t="s">
         <v>68</v>
       </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C28">
+        <v>126112</v>
+      </c>
+      <c r="D28">
+        <v>126111</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="H28" t="s">
+        <v>280</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C29">
+        <v>126112</v>
+      </c>
+      <c r="D29">
+        <v>126111</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -6091,27 +5952,27 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
         <v>277</v>
       </c>
       <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>126112</v>
+      </c>
+      <c r="D30">
+        <v>126111</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -6120,27 +5981,27 @@
         <v>67</v>
       </c>
       <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
         <v>277</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
       </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>126112</v>
+      </c>
+      <c r="D31">
+        <v>126111</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -6149,27 +6010,27 @@
         <v>67</v>
       </c>
       <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
         <v>277</v>
       </c>
       <c r="I31" t="s">
         <v>68</v>
       </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C32">
+        <v>126112</v>
+      </c>
+      <c r="D32">
+        <v>126111</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -6178,27 +6039,27 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
         <v>277</v>
       </c>
       <c r="I32" t="s">
         <v>68</v>
       </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="C33">
+        <v>126112</v>
+      </c>
+      <c r="D33">
+        <v>126111</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -6207,19 +6068,13 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
         <v>277</v>
       </c>
       <c r="I33" t="s">
         <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6229,15 +6084,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:I33"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6245,10 +6100,10 @@
         <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -6257,29 +6112,41 @@
         <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2">
+        <v>31117</v>
+      </c>
+      <c r="D2">
+        <v>31172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C3">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D3">
+        <v>31172</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -6287,19 +6154,19 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C4">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D4">
+        <v>31172</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -6307,19 +6174,19 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C5">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D5">
+        <v>31172</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -6327,19 +6194,19 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
-      <c r="G5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C6">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D6">
+        <v>31172</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -6347,19 +6214,19 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
-      <c r="G6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C7">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D7">
+        <v>31172</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -6367,19 +6234,19 @@
       <c r="F7" t="s">
         <v>274</v>
       </c>
-      <c r="G7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C8">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D8">
+        <v>31172</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -6388,18 +6255,21 @@
         <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C9">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D9">
+        <v>31172</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -6411,15 +6281,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C10">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D10">
+        <v>31172</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -6431,15 +6304,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C11">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D11">
+        <v>31172</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -6451,15 +6327,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C12">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D12">
+        <v>31172</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -6471,15 +6350,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C13">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D13">
+        <v>31172</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -6491,15 +6373,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C14">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D14">
+        <v>31172</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -6511,15 +6396,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C15">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D15">
+        <v>31172</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -6531,15 +6419,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C16">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D16">
+        <v>31172</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -6551,15 +6442,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C17">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D17">
+        <v>31172</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -6571,15 +6465,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C18">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D18">
+        <v>31172</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -6591,15 +6488,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C19">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D19">
+        <v>31172</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -6611,15 +6511,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C20">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D20">
+        <v>31172</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -6631,15 +6534,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C21">
-        <v>84124</v>
+        <v>31117</v>
+      </c>
+      <c r="D21">
+        <v>31172</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -6651,18 +6557,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C22">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D22">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -6674,18 +6580,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C23">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D23">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -6697,18 +6603,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C24">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D24">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -6720,18 +6626,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C25">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D25">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -6743,18 +6649,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C26">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D26">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -6765,22 +6671,19 @@
       <c r="G26" t="s">
         <v>69</v>
       </c>
-      <c r="H26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C27">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D27">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -6789,27 +6692,21 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C28">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D28">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -6818,27 +6715,21 @@
         <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
-      </c>
-      <c r="H28" t="s">
-        <v>280</v>
-      </c>
-      <c r="I28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C29">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D29">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -6847,27 +6738,21 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C30">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D30">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -6876,27 +6761,21 @@
         <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C31">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D31">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -6905,27 +6784,21 @@
         <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C32">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D32">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -6934,27 +6807,21 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C33">
-        <v>126112</v>
+        <v>41111</v>
       </c>
       <c r="D33">
-        <v>126111</v>
+        <v>42212</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -6963,13 +6830,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6979,782 +6840,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2">
-        <v>31117</v>
-      </c>
-      <c r="D2">
-        <v>31172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3">
-        <v>31117</v>
-      </c>
-      <c r="D3">
-        <v>31172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4">
-        <v>31117</v>
-      </c>
-      <c r="D4">
-        <v>31172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5">
-        <v>31117</v>
-      </c>
-      <c r="D5">
-        <v>31172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6">
-        <v>31117</v>
-      </c>
-      <c r="D6">
-        <v>31172</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7">
-        <v>31117</v>
-      </c>
-      <c r="D7">
-        <v>31172</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8">
-        <v>31117</v>
-      </c>
-      <c r="D8">
-        <v>31172</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9">
-        <v>31117</v>
-      </c>
-      <c r="D9">
-        <v>31172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10">
-        <v>31117</v>
-      </c>
-      <c r="D10">
-        <v>31172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11">
-        <v>31117</v>
-      </c>
-      <c r="D11">
-        <v>31172</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12">
-        <v>31117</v>
-      </c>
-      <c r="D12">
-        <v>31172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13">
-        <v>31117</v>
-      </c>
-      <c r="D13">
-        <v>31172</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14">
-        <v>31117</v>
-      </c>
-      <c r="D14">
-        <v>31172</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15">
-        <v>31117</v>
-      </c>
-      <c r="D15">
-        <v>31172</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16">
-        <v>31117</v>
-      </c>
-      <c r="D16">
-        <v>31172</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17">
-        <v>31117</v>
-      </c>
-      <c r="D17">
-        <v>31172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18">
-        <v>31117</v>
-      </c>
-      <c r="D18">
-        <v>31172</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19">
-        <v>31117</v>
-      </c>
-      <c r="D19">
-        <v>31172</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20">
-        <v>31117</v>
-      </c>
-      <c r="D20">
-        <v>31172</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21">
-        <v>31117</v>
-      </c>
-      <c r="D21">
-        <v>31172</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22">
-        <v>41111</v>
-      </c>
-      <c r="D22">
-        <v>42212</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23">
-        <v>41111</v>
-      </c>
-      <c r="D23">
-        <v>42212</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24">
-        <v>41111</v>
-      </c>
-      <c r="D24">
-        <v>42212</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25">
-        <v>41111</v>
-      </c>
-      <c r="D25">
-        <v>42212</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26">
-        <v>41111</v>
-      </c>
-      <c r="D26">
-        <v>42212</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27">
-        <v>41111</v>
-      </c>
-      <c r="D27">
-        <v>42212</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28">
-        <v>41111</v>
-      </c>
-      <c r="D28">
-        <v>42212</v>
-      </c>
-      <c r="E28" t="s">
-        <v>284</v>
-      </c>
-      <c r="F28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29">
-        <v>41111</v>
-      </c>
-      <c r="D29">
-        <v>42212</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30">
-        <v>41111</v>
-      </c>
-      <c r="D30">
-        <v>42212</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31">
-        <v>41111</v>
-      </c>
-      <c r="D31">
-        <v>42212</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32">
-        <v>41111</v>
-      </c>
-      <c r="D32">
-        <v>42212</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33">
-        <v>41111</v>
-      </c>
-      <c r="D33">
-        <v>42212</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>293</v>
       </c>
       <c r="C1" t="s">
@@ -7767,7 +6872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>35</v>
       </c>
@@ -7778,7 +6883,7 @@
         <v>5876050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>36</v>
       </c>
@@ -7789,7 +6894,7 @@
         <v>6196716</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>37</v>
       </c>
@@ -7800,7 +6905,7 @@
         <v>6531840</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>38</v>
       </c>
@@ -7811,7 +6916,7 @@
         <v>6881821</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39</v>
       </c>
@@ -7822,7 +6927,7 @@
         <v>7247396.0000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -7833,7 +6938,7 @@
         <v>7628985.0000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>41</v>
       </c>
@@ -7844,7 +6949,7 @@
         <v>8027360.0000000019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42</v>
       </c>
@@ -7855,7 +6960,7 @@
         <v>8443321.0000000037</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>43</v>
       </c>
@@ -7866,7 +6971,7 @@
         <v>8877330.0000000037</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44</v>
       </c>
@@ -7877,7 +6982,7 @@
         <v>9330222.0000000037</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -7888,7 +6993,7 @@
         <v>9799820</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46</v>
       </c>
@@ -7899,7 +7004,7 @@
         <v>10303832</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>47</v>
       </c>
@@ -7910,7 +7015,7 @@
         <v>10827590</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>48</v>
       </c>
@@ -7921,7 +7026,7 @@
         <v>11372800.999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>49</v>
       </c>
@@ -7932,7 +7037,7 @@
         <v>11939199.999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50</v>
       </c>
@@ -7943,7 +7048,7 @@
         <v>12528149.999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51</v>
       </c>
@@ -7954,7 +7059,7 @@
         <v>13140217.999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>52</v>
       </c>
@@ -7965,7 +7070,7 @@
         <v>13775970.999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>53</v>
       </c>
@@ -7976,7 +7081,7 @@
         <v>14436879.999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>54</v>
       </c>
@@ -7987,7 +7092,7 @@
         <v>15123104.999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -7998,7 +7103,7 @@
         <v>15843230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>56</v>
       </c>
@@ -8009,7 +7114,7 @@
         <v>16707879.000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>57</v>
       </c>
@@ -8020,7 +7125,7 @@
         <v>17615664</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>58</v>
       </c>
@@ -8031,7 +7136,7 @@
         <v>18569129.000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>59</v>
       </c>
@@ -8042,7 +7147,7 @@
         <v>19570404.000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>60</v>
       </c>
@@ -8053,7 +7158,7 @@
         <v>20621675.000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>61</v>
       </c>
@@ -8064,7 +7169,7 @@
         <v>21724672.000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>62</v>
       </c>
@@ -8075,7 +7180,7 @@
         <v>22882710.000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>63</v>
       </c>
@@ -8087,7 +7192,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>64</v>
       </c>
@@ -8099,7 +7204,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>65</v>
       </c>
@@ -8111,7 +7216,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66</v>
       </c>
@@ -8123,7 +7228,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>67</v>
       </c>
@@ -8135,7 +7240,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68</v>
       </c>
@@ -8147,7 +7252,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>69</v>
       </c>
@@ -8161,11 +7266,11 @@
         <v>46918</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E61" si="0">C36/D36</f>
+        <f>C36/D36</f>
         <v>659.70467624365926</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70</v>
       </c>
@@ -8179,11 +7284,11 @@
         <v>47249</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f>C37/D37</f>
         <v>679.51226480983735</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71</v>
       </c>
@@ -8197,11 +7302,11 @@
         <v>46102</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f>C38/D38</f>
         <v>715.26085636198025</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -8215,11 +7320,11 @@
         <v>33141</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
+        <f>C39/D39</f>
         <v>1021.7615340514775</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>73</v>
       </c>
@@ -8233,11 +7338,11 @@
         <v>60228</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
+        <f>C40/D40</f>
         <v>577.27727967058536</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>74</v>
       </c>
@@ -8251,11 +7356,11 @@
         <v>100804</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="0"/>
+        <f>C41/D41</f>
         <v>354.08693107416389</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>75</v>
       </c>
@@ -8269,11 +7374,11 @@
         <v>52693</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f>C42/D42</f>
         <v>695.22612111665683</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>76</v>
       </c>
@@ -8287,11 +7392,11 @@
         <v>52096</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>C43/D43</f>
         <v>723.2837453931204</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>77</v>
       </c>
@@ -8305,11 +7410,11 @@
         <v>39130</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f>C44/D44</f>
         <v>990.34684385382059</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>78</v>
       </c>
@@ -8323,11 +7428,11 @@
         <v>60658</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f>C45/D45</f>
         <v>656.94404695176252</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>79</v>
       </c>
@@ -8341,11 +7446,11 @@
         <v>55675</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f>C46/D46</f>
         <v>735.90879209699165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>80</v>
       </c>
@@ -8359,11 +7464,11 @@
         <v>55178</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f>C47/D47</f>
         <v>763.33221573815661</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>81</v>
       </c>
@@ -8377,11 +7482,11 @@
         <v>66708</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f>C48/D48</f>
         <v>648.0122324159023</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>82</v>
       </c>
@@ -8395,11 +7500,11 @@
         <v>48180</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f>C49/D49</f>
         <v>920.72613117476146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>83</v>
       </c>
@@ -8413,11 +7518,11 @@
         <v>49900</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f>C50/D50</f>
         <v>912.17975951903838</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>84</v>
       </c>
@@ -8431,11 +7536,11 @@
         <v>54278</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f>C51/D51</f>
         <v>860.375658646229</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>85</v>
       </c>
@@ -8449,11 +7554,11 @@
         <v>57986</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f>C52/D52</f>
         <v>832.26985824164456</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>86</v>
       </c>
@@ -8467,11 +7572,11 @@
         <v>60662</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f>C53/D53</f>
         <v>812.50206059806794</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>87</v>
       </c>
@@ -8485,11 +7590,11 @@
         <v>77271</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f>C54/D54</f>
         <v>651.47338587568424</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>88</v>
       </c>
@@ -8503,11 +7608,11 @@
         <v>74398</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f>C55/D55</f>
         <v>691.09384660877981</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>89</v>
       </c>
@@ -8521,11 +7626,11 @@
         <v>72441</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f>C56/D56</f>
         <v>724.98999185544096</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>90</v>
       </c>
@@ -8539,11 +7644,11 @@
         <v>71461</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f>C57/D57</f>
         <v>750.71717440282112</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>91</v>
       </c>
@@ -8557,11 +7662,11 @@
         <v>69567</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f>C58/D58</f>
         <v>784.9555105150431</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>92</v>
       </c>
@@ -8575,11 +7680,11 @@
         <v>68058</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f>C59/D59</f>
         <v>815.51030003820267</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>93</v>
       </c>
@@ -8593,11 +7698,11 @@
         <v>67482</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f>C60/D60</f>
         <v>835.89697993539016</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>94</v>
       </c>
@@ -8611,11 +7716,11 @@
         <v>67177</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f>C61/D61</f>
         <v>853.37243401759531</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>95</v>
       </c>
@@ -8626,7 +7731,7 @@
         <v>58220000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>35</v>
       </c>
@@ -8637,7 +7742,7 @@
         <v>13078950</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>36</v>
       </c>
@@ -8648,7 +7753,7 @@
         <v>13351284</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>37</v>
       </c>
@@ -8659,7 +7764,7 @@
         <v>13628160</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>38</v>
       </c>
@@ -8670,7 +7775,7 @@
         <v>13909179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>39</v>
       </c>
@@ -8681,7 +7786,7 @@
         <v>14194603.999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>40</v>
       </c>
@@ -8692,7 +7797,7 @@
         <v>14484014.999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>41</v>
       </c>
@@ -8703,7 +7808,7 @@
         <v>14777639.999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>42</v>
       </c>
@@ -8714,7 +7819,7 @@
         <v>15075678.999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>43</v>
       </c>
@@ -8725,7 +7830,7 @@
         <v>15377669.999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>44</v>
       </c>
@@ -8736,7 +7841,7 @@
         <v>15683777.999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>45</v>
       </c>
@@ -8747,7 +7852,7 @@
         <v>15989180</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>46</v>
       </c>
@@ -8758,7 +7863,7 @@
         <v>16184168</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>47</v>
       </c>
@@ -8769,7 +7874,7 @@
         <v>16377410</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>48</v>
       </c>
@@ -8780,7 +7885,7 @@
         <v>16570199.000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>49</v>
       </c>
@@ -8791,7 +7896,7 @@
         <v>16760800.000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>50</v>
       </c>
@@ -8802,7 +7907,7 @@
         <v>16949850.000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>51</v>
       </c>
@@ -8813,7 +7918,7 @@
         <v>17136782</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>52</v>
       </c>
@@ -8824,7 +7929,7 @@
         <v>17321029.000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>53</v>
       </c>
@@ -8835,7 +7940,7 @@
         <v>17503120.000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>54</v>
       </c>
@@ -8846,7 +7951,7 @@
         <v>17681895.000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>55</v>
       </c>
@@ -8857,7 +7962,7 @@
         <v>17865770</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>56</v>
       </c>
@@ -8868,7 +7973,7 @@
         <v>18319121</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>57</v>
       </c>
@@ -8879,7 +7984,7 @@
         <v>18780336</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>58</v>
       </c>
@@ -8890,7 +7995,7 @@
         <v>19249870.999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>59</v>
       </c>
@@ -8901,7 +8006,7 @@
         <v>19727595.999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>60</v>
       </c>
@@ -8912,7 +8017,7 @@
         <v>20213324.999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>61</v>
       </c>
@@ -8923,7 +8028,7 @@
         <v>20706327.999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>62</v>
       </c>
@@ -8934,7 +8039,7 @@
         <v>21207289.999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>63</v>
       </c>
@@ -8945,7 +8050,7 @@
         <v>21715835.999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>64</v>
       </c>
@@ -8956,7 +8061,7 @@
         <v>22232001.999999989</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>65</v>
       </c>
@@ -8967,7 +8072,7 @@
         <v>22744700</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>66</v>
       </c>
@@ -8978,7 +8083,7 @@
         <v>22949433</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>67</v>
       </c>
@@ -8989,7 +8094,7 @@
         <v>23150968</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>68</v>
       </c>
@@ -9000,7 +8105,7 @@
         <v>23348214.999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -9014,11 +8119,11 @@
         <v>54653</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:E122" si="1">C97/D97</f>
+        <f t="shared" ref="E62:E123" si="0">C97/D97</f>
         <v>430.73529357949229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>70</v>
       </c>
@@ -9032,11 +8137,11 @@
         <v>55664</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>426.32087165852244</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>71</v>
       </c>
@@ -9050,11 +8155,11 @@
         <v>53935</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>439.10343932511336</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>72</v>
       </c>
@@ -9068,11 +8173,11 @@
         <v>33099</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>713.88262485271412</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>73</v>
       </c>
@@ -9086,11 +8191,11 @@
         <v>44146</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>533.85910388257116</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>74</v>
       </c>
@@ -9104,11 +8209,11 @@
         <v>92800</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>253.22867456896535</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>75</v>
       </c>
@@ -9122,11 +8227,11 @@
         <v>61055</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>383.6123167635738</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>76</v>
       </c>
@@ -9140,11 +8245,11 @@
         <v>59639</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>392.18984221734098</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>77</v>
       </c>
@@ -9158,11 +8263,11 @@
         <v>49905</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>467.90357679591222</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>78</v>
       </c>
@@ -9176,11 +8281,11 @@
         <v>79183</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>294.294078274377</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>79</v>
       </c>
@@ -9194,11 +8299,11 @@
         <v>77033</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>301.78336557059953</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>80</v>
       </c>
@@ -9212,11 +8317,11 @@
         <v>75787</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>305.88168155488398</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>81</v>
       </c>
@@ -9230,11 +8335,11 @@
         <v>86406</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>267.02312339420865</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>82</v>
       </c>
@@ -9248,11 +8353,11 @@
         <v>59940</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>382.95653987320628</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>83</v>
       </c>
@@ -9266,11 +8371,11 @@
         <v>62874</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>363.06311034767924</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>84</v>
       </c>
@@ -9284,11 +8389,11 @@
         <v>66361</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>341.92567923931199</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>85</v>
       </c>
@@ -9302,11 +8407,11 @@
         <v>77284</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>287.71802701723516</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>86</v>
       </c>
@@ -9320,11 +8425,11 @@
         <v>72814</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>303.21092097673522</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -9338,11 +8443,11 @@
         <v>83979</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>261.08908179425811</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>88</v>
       </c>
@@ -9356,11 +8461,11 @@
         <v>76072</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>286.30770848669681</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>89</v>
       </c>
@@ -9374,11 +8479,11 @@
         <v>79850</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>270.99561678146523</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>90</v>
       </c>
@@ -9392,11 +8497,11 @@
         <v>79079</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>271.91795546225927</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>91</v>
       </c>
@@ -9410,11 +8515,11 @@
         <v>76496</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>280.14536707801716</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>92</v>
       </c>
@@ -9428,11 +8533,11 @@
         <v>72301</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>296.55191491127368</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>93</v>
       </c>
@@ -9446,11 +8551,11 @@
         <v>71551</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>299.75821442048328</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9464,11 +8569,11 @@
         <v>70439</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>304.46201678047674</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>95</v>
       </c>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -17,17 +17,18 @@
     <sheet name="EduCodes-A" sheetId="6" r:id="rId3"/>
     <sheet name="EduCodes-B" sheetId="4" r:id="rId4"/>
     <sheet name="EduCodes-C" sheetId="5" r:id="rId5"/>
-    <sheet name="FoodTables" sheetId="10" r:id="rId6"/>
-    <sheet name="LoanTables" sheetId="7" r:id="rId7"/>
-    <sheet name="HouseTables" sheetId="8" r:id="rId8"/>
-    <sheet name="RegionWeights" sheetId="9" r:id="rId9"/>
+    <sheet name="IncomeTables" sheetId="11" r:id="rId6"/>
+    <sheet name="FoodTables" sheetId="10" r:id="rId7"/>
+    <sheet name="LoanTables" sheetId="7" r:id="rId8"/>
+    <sheet name="HouseTables" sheetId="8" r:id="rId9"/>
+    <sheet name="RegionWeights" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="316">
   <si>
     <t>Year</t>
   </si>
@@ -960,6 +961,21 @@
   </si>
   <si>
     <t>PriceSystem</t>
+  </si>
+  <si>
+    <t>PubWageTable</t>
+  </si>
+  <si>
+    <t>PrvWageTable</t>
+  </si>
+  <si>
+    <t>AggrIncTable</t>
+  </si>
+  <si>
+    <t>BussIncTable</t>
+  </si>
+  <si>
+    <t>OthrIncTable</t>
   </si>
 </sst>
 </file>
@@ -2068,11 +2084,1763 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30:F61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2">
+        <v>5876050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3">
+        <v>6196716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4">
+        <v>6531840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5">
+        <v>6881821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6">
+        <v>7247396.0000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7">
+        <v>7628985.0000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8">
+        <v>8027360.0000000019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9">
+        <v>8443321.0000000037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10">
+        <v>8877330.0000000037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11">
+        <v>9330222.0000000037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12">
+        <v>9799820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13">
+        <v>10303832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14">
+        <v>10827590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15">
+        <v>11372800.999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16">
+        <v>11939199.999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17">
+        <v>12528149.999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18">
+        <v>13140217.999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19">
+        <v>13775970.999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20">
+        <v>14436879.999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21">
+        <v>15123104.999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22">
+        <v>15843230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23">
+        <v>16707879.000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24">
+        <v>17615664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25">
+        <v>18569129.000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26">
+        <v>19570404.000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27">
+        <v>20621675.000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28">
+        <v>21724672.000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29">
+        <v>22882710.000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30">
+        <v>24098164.000000007</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31">
+        <v>25373998.000000011</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32">
+        <v>26700300</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33">
+        <v>27711567</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34">
+        <v>28757032</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35">
+        <v>29836785.000000004</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36">
+        <v>30952024.000000007</v>
+      </c>
+      <c r="D36">
+        <v>46918</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:E61" si="0">C36/D36</f>
+        <v>659.70467624365926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37">
+        <v>32106275.000000007</v>
+      </c>
+      <c r="D37">
+        <v>47249</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>679.51226480983735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38">
+        <v>32974956.000000011</v>
+      </c>
+      <c r="D38">
+        <v>46102</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>715.26085636198025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39">
+        <v>33862199.000000015</v>
+      </c>
+      <c r="D39">
+        <v>33141</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>1021.7615340514775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40">
+        <v>34768256.000000015</v>
+      </c>
+      <c r="D40">
+        <v>60228</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>577.27727967058536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41">
+        <v>35693379.000000015</v>
+      </c>
+      <c r="D41">
+        <v>100804</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>354.08693107416389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42">
+        <v>36633550</v>
+      </c>
+      <c r="D42">
+        <v>52693</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>695.22612111665683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43">
+        <v>37680190</v>
+      </c>
+      <c r="D43">
+        <v>52096</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>723.2837453931204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44">
+        <v>38752272</v>
+      </c>
+      <c r="D44">
+        <v>39130</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>990.34684385382059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45">
+        <v>39848912.000000007</v>
+      </c>
+      <c r="D45">
+        <v>60658</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>656.94404695176252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46">
+        <v>40971722.000000007</v>
+      </c>
+      <c r="D46">
+        <v>55675</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>735.90879209699165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47">
+        <v>42119145.000000007</v>
+      </c>
+      <c r="D47">
+        <v>55178</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>763.33221573815661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48">
+        <v>43227600.000000007</v>
+      </c>
+      <c r="D48">
+        <v>66708</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>648.0122324159023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49">
+        <v>44360585.000000007</v>
+      </c>
+      <c r="D49">
+        <v>48180</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>920.72613117476146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50">
+        <v>45517770.000000015</v>
+      </c>
+      <c r="D50">
+        <v>49900</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>912.17975951903838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51">
+        <v>46699470.000000015</v>
+      </c>
+      <c r="D51">
+        <v>54278</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>860.375658646229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52">
+        <v>48260000</v>
+      </c>
+      <c r="D52">
+        <v>57986</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>832.26985824164456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53">
+        <v>49288000</v>
+      </c>
+      <c r="D53">
+        <v>60662</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>812.50206059806794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54">
+        <v>50340000</v>
+      </c>
+      <c r="D54">
+        <v>77271</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>651.47338587568424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55">
+        <v>51416000</v>
+      </c>
+      <c r="D55">
+        <v>74398</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>691.09384660877981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56">
+        <v>52519000</v>
+      </c>
+      <c r="D56">
+        <v>72441</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>724.98999185544096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57">
+        <v>53647000</v>
+      </c>
+      <c r="D57">
+        <v>71461</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>750.71717440282112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58">
+        <v>54607000</v>
+      </c>
+      <c r="D58">
+        <v>69567</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>784.9555105150431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59">
+        <v>55502000</v>
+      </c>
+      <c r="D59">
+        <v>68058</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>815.51030003820267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60">
+        <v>56408000</v>
+      </c>
+      <c r="D60">
+        <v>67482</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>835.89697993539016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61">
+        <v>57327000</v>
+      </c>
+      <c r="D61">
+        <v>67177</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>853.37243401759531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62">
+        <v>58220000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63">
+        <v>13078950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64">
+        <v>13351284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65">
+        <v>13628160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66">
+        <v>13909179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67">
+        <v>14194603.999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68">
+        <v>14484014.999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69">
+        <v>14777639.999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70">
+        <v>15075678.999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71">
+        <v>15377669.999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C72">
+        <v>15683777.999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73">
+        <v>15989180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74">
+        <v>16184168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75">
+        <v>16377410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76">
+        <v>16570199.000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>49</v>
+      </c>
+      <c r="B77" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77">
+        <v>16760800.000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78">
+        <v>16949850.000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>51</v>
+      </c>
+      <c r="B79" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79">
+        <v>17136782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80">
+        <v>17321029.000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81">
+        <v>17503120.000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82">
+        <v>17681895.000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83">
+        <v>17865770</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84">
+        <v>18319121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85">
+        <v>18780336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86">
+        <v>19249870.999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87">
+        <v>19727595.999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88">
+        <v>20213324.999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89">
+        <v>20706327.999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>62</v>
+      </c>
+      <c r="B90" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90">
+        <v>21207289.999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91">
+        <v>21715835.999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92">
+        <v>22232001.999999989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>65</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93">
+        <v>22744700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>66</v>
+      </c>
+      <c r="B94" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94">
+        <v>22949433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>67</v>
+      </c>
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95">
+        <v>23150968</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>68</v>
+      </c>
+      <c r="B96" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96">
+        <v>23348214.999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>69</v>
+      </c>
+      <c r="B97" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97">
+        <v>23540975.999999993</v>
+      </c>
+      <c r="D97">
+        <v>54653</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97:E122" si="1">C97/D97</f>
+        <v>430.73529357949229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>70</v>
+      </c>
+      <c r="B98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98">
+        <v>23730724.999999993</v>
+      </c>
+      <c r="D98">
+        <v>55664</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>426.32087165852244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>71</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99">
+        <v>23683043.999999989</v>
+      </c>
+      <c r="D99">
+        <v>53935</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>439.10343932511336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>72</v>
+      </c>
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100">
+        <v>23628800.999999985</v>
+      </c>
+      <c r="D100">
+        <v>33099</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>713.88262485271412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101">
+        <v>23567743.999999985</v>
+      </c>
+      <c r="D101">
+        <v>44146</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>533.85910388257116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>74</v>
+      </c>
+      <c r="B102" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102">
+        <v>23499620.999999985</v>
+      </c>
+      <c r="D102">
+        <v>92800</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>253.22867456896535</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>75</v>
+      </c>
+      <c r="B103" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103">
+        <v>23421450</v>
+      </c>
+      <c r="D103">
+        <v>61055</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>383.6123167635738</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>76</v>
+      </c>
+      <c r="B104" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104">
+        <v>23389810</v>
+      </c>
+      <c r="D104">
+        <v>59639</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>392.18984221734098</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105">
+        <v>23350728</v>
+      </c>
+      <c r="D105">
+        <v>49905</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>467.90357679591222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>78</v>
+      </c>
+      <c r="B106" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106">
+        <v>23303087.999999993</v>
+      </c>
+      <c r="D106">
+        <v>79183</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>294.294078274377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>79</v>
+      </c>
+      <c r="B107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107">
+        <v>23247277.999999993</v>
+      </c>
+      <c r="D107">
+        <v>77033</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>301.78336557059953</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>80</v>
+      </c>
+      <c r="B108" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108">
+        <v>23181854.999999993</v>
+      </c>
+      <c r="D108">
+        <v>75787</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>305.88168155488398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>81</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109">
+        <v>23072399.999999993</v>
+      </c>
+      <c r="D109">
+        <v>86406</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>267.02312339420865</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>82</v>
+      </c>
+      <c r="B110" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110">
+        <v>22954414.999999985</v>
+      </c>
+      <c r="D110">
+        <v>59940</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>382.95653987320628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111">
+        <v>22827229.999999985</v>
+      </c>
+      <c r="D111">
+        <v>62874</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>363.06311034767924</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112">
+        <v>22690529.999999981</v>
+      </c>
+      <c r="D112">
+        <v>66361</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>341.92567923931199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113">
+        <v>22236000</v>
+      </c>
+      <c r="D113">
+        <v>77284</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>287.71802701723516</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>86</v>
+      </c>
+      <c r="B114" t="s">
+        <v>295</v>
+      </c>
+      <c r="C114">
+        <v>22078000</v>
+      </c>
+      <c r="D114">
+        <v>72814</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>303.21092097673522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>87</v>
+      </c>
+      <c r="B115" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115">
+        <v>21926000</v>
+      </c>
+      <c r="D115">
+        <v>83979</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>261.08908179425811</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>88</v>
+      </c>
+      <c r="B116" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116">
+        <v>21780000</v>
+      </c>
+      <c r="D116">
+        <v>76072</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>286.30770848669681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>89</v>
+      </c>
+      <c r="B117" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117">
+        <v>21639000</v>
+      </c>
+      <c r="D117">
+        <v>79850</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>270.99561678146523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>90</v>
+      </c>
+      <c r="B118" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118">
+        <v>21503000</v>
+      </c>
+      <c r="D118">
+        <v>79079</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>271.91795546225927</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>91</v>
+      </c>
+      <c r="B119" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119">
+        <v>21430000</v>
+      </c>
+      <c r="D119">
+        <v>76496</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>280.14536707801716</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>92</v>
+      </c>
+      <c r="B120" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120">
+        <v>21441000</v>
+      </c>
+      <c r="D120">
+        <v>72301</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>296.55191491127368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>93</v>
+      </c>
+      <c r="B121" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121">
+        <v>21448000</v>
+      </c>
+      <c r="D121">
+        <v>71551</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>299.75821442048328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>94</v>
+      </c>
+      <c r="B122" t="s">
+        <v>295</v>
+      </c>
+      <c r="C122">
+        <v>21446000</v>
+      </c>
+      <c r="D122">
+        <v>70439</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>304.46201678047674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>95</v>
+      </c>
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123">
+        <v>21438000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -5371,9 +7139,210 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
@@ -6227,13 +8196,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:I33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6977,7 +8944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -7731,1756 +9698,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2">
-        <v>5876050</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3">
-        <v>6196716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4">
-        <v>6531840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5">
-        <v>6881821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6">
-        <v>7247396.0000000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7">
-        <v>7628985.0000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8">
-        <v>8027360.0000000019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9">
-        <v>8443321.0000000037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10">
-        <v>8877330.0000000037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11">
-        <v>9330222.0000000037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12">
-        <v>9799820</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13">
-        <v>10303832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14">
-        <v>10827590</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15">
-        <v>11372800.999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16">
-        <v>11939199.999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17">
-        <v>12528149.999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18">
-        <v>13140217.999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19">
-        <v>13775970.999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20">
-        <v>14436879.999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21">
-        <v>15123104.999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22">
-        <v>15843230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23">
-        <v>16707879.000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24">
-        <v>17615664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25">
-        <v>18569129.000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26">
-        <v>19570404.000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27">
-        <v>20621675.000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28">
-        <v>21724672.000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29">
-        <v>22882710.000000007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30">
-        <v>24098164.000000007</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31">
-        <v>25373998.000000011</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32">
-        <v>26700300</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>294</v>
-      </c>
-      <c r="C33">
-        <v>27711567</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34">
-        <v>28757032</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35">
-        <v>29836785.000000004</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36">
-        <v>30952024.000000007</v>
-      </c>
-      <c r="D36">
-        <v>46918</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" ref="E36:E61" si="0">C36/D36</f>
-        <v>659.70467624365926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37">
-        <v>32106275.000000007</v>
-      </c>
-      <c r="D37">
-        <v>47249</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>679.51226480983735</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38">
-        <v>32974956.000000011</v>
-      </c>
-      <c r="D38">
-        <v>46102</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>715.26085636198025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39">
-        <v>33862199.000000015</v>
-      </c>
-      <c r="D39">
-        <v>33141</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>1021.7615340514775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40">
-        <v>34768256.000000015</v>
-      </c>
-      <c r="D40">
-        <v>60228</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>577.27727967058536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>294</v>
-      </c>
-      <c r="C41">
-        <v>35693379.000000015</v>
-      </c>
-      <c r="D41">
-        <v>100804</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="0"/>
-        <v>354.08693107416389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>294</v>
-      </c>
-      <c r="C42">
-        <v>36633550</v>
-      </c>
-      <c r="D42">
-        <v>52693</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>695.22612111665683</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43">
-        <v>37680190</v>
-      </c>
-      <c r="D43">
-        <v>52096</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>723.2837453931204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C44">
-        <v>38752272</v>
-      </c>
-      <c r="D44">
-        <v>39130</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>990.34684385382059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>294</v>
-      </c>
-      <c r="C45">
-        <v>39848912.000000007</v>
-      </c>
-      <c r="D45">
-        <v>60658</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>656.94404695176252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46">
-        <v>40971722.000000007</v>
-      </c>
-      <c r="D46">
-        <v>55675</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>735.90879209699165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47">
-        <v>42119145.000000007</v>
-      </c>
-      <c r="D47">
-        <v>55178</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>763.33221573815661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48">
-        <v>43227600.000000007</v>
-      </c>
-      <c r="D48">
-        <v>66708</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>648.0122324159023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>294</v>
-      </c>
-      <c r="C49">
-        <v>44360585.000000007</v>
-      </c>
-      <c r="D49">
-        <v>48180</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>920.72613117476146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>294</v>
-      </c>
-      <c r="C50">
-        <v>45517770.000000015</v>
-      </c>
-      <c r="D50">
-        <v>49900</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>912.17975951903838</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>294</v>
-      </c>
-      <c r="C51">
-        <v>46699470.000000015</v>
-      </c>
-      <c r="D51">
-        <v>54278</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>860.375658646229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52">
-        <v>48260000</v>
-      </c>
-      <c r="D52">
-        <v>57986</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>832.26985824164456</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>86</v>
-      </c>
-      <c r="B53" t="s">
-        <v>294</v>
-      </c>
-      <c r="C53">
-        <v>49288000</v>
-      </c>
-      <c r="D53">
-        <v>60662</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>812.50206059806794</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>294</v>
-      </c>
-      <c r="C54">
-        <v>50340000</v>
-      </c>
-      <c r="D54">
-        <v>77271</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>651.47338587568424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>88</v>
-      </c>
-      <c r="B55" t="s">
-        <v>294</v>
-      </c>
-      <c r="C55">
-        <v>51416000</v>
-      </c>
-      <c r="D55">
-        <v>74398</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>691.09384660877981</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>294</v>
-      </c>
-      <c r="C56">
-        <v>52519000</v>
-      </c>
-      <c r="D56">
-        <v>72441</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>724.98999185544096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>294</v>
-      </c>
-      <c r="C57">
-        <v>53647000</v>
-      </c>
-      <c r="D57">
-        <v>71461</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>750.71717440282112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58">
-        <v>54607000</v>
-      </c>
-      <c r="D58">
-        <v>69567</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>784.9555105150431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>92</v>
-      </c>
-      <c r="B59" t="s">
-        <v>294</v>
-      </c>
-      <c r="C59">
-        <v>55502000</v>
-      </c>
-      <c r="D59">
-        <v>68058</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>815.51030003820267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>93</v>
-      </c>
-      <c r="B60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60">
-        <v>56408000</v>
-      </c>
-      <c r="D60">
-        <v>67482</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>835.89697993539016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>94</v>
-      </c>
-      <c r="B61" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61">
-        <v>57327000</v>
-      </c>
-      <c r="D61">
-        <v>67177</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>853.37243401759531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>95</v>
-      </c>
-      <c r="B62" t="s">
-        <v>294</v>
-      </c>
-      <c r="C62">
-        <v>58220000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63">
-        <v>13078950</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64">
-        <v>13351284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>37</v>
-      </c>
-      <c r="B65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65">
-        <v>13628160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>38</v>
-      </c>
-      <c r="B66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66">
-        <v>13909179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>39</v>
-      </c>
-      <c r="B67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C67">
-        <v>14194603.999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>40</v>
-      </c>
-      <c r="B68" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68">
-        <v>14484014.999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>41</v>
-      </c>
-      <c r="B69" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69">
-        <v>14777639.999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>42</v>
-      </c>
-      <c r="B70" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70">
-        <v>15075678.999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>43</v>
-      </c>
-      <c r="B71" t="s">
-        <v>295</v>
-      </c>
-      <c r="C71">
-        <v>15377669.999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>44</v>
-      </c>
-      <c r="B72" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72">
-        <v>15683777.999999993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>45</v>
-      </c>
-      <c r="B73" t="s">
-        <v>295</v>
-      </c>
-      <c r="C73">
-        <v>15989180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>46</v>
-      </c>
-      <c r="B74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74">
-        <v>16184168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>47</v>
-      </c>
-      <c r="B75" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75">
-        <v>16377410</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>48</v>
-      </c>
-      <c r="B76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76">
-        <v>16570199.000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>49</v>
-      </c>
-      <c r="B77" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77">
-        <v>16760800.000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>50</v>
-      </c>
-      <c r="B78" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78">
-        <v>16949850.000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>51</v>
-      </c>
-      <c r="B79" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79">
-        <v>17136782</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>52</v>
-      </c>
-      <c r="B80" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80">
-        <v>17321029.000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>53</v>
-      </c>
-      <c r="B81" t="s">
-        <v>295</v>
-      </c>
-      <c r="C81">
-        <v>17503120.000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>54</v>
-      </c>
-      <c r="B82" t="s">
-        <v>295</v>
-      </c>
-      <c r="C82">
-        <v>17681895.000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>55</v>
-      </c>
-      <c r="B83" t="s">
-        <v>295</v>
-      </c>
-      <c r="C83">
-        <v>17865770</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>56</v>
-      </c>
-      <c r="B84" t="s">
-        <v>295</v>
-      </c>
-      <c r="C84">
-        <v>18319121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>57</v>
-      </c>
-      <c r="B85" t="s">
-        <v>295</v>
-      </c>
-      <c r="C85">
-        <v>18780336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>58</v>
-      </c>
-      <c r="B86" t="s">
-        <v>295</v>
-      </c>
-      <c r="C86">
-        <v>19249870.999999996</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>59</v>
-      </c>
-      <c r="B87" t="s">
-        <v>295</v>
-      </c>
-      <c r="C87">
-        <v>19727595.999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>60</v>
-      </c>
-      <c r="B88" t="s">
-        <v>295</v>
-      </c>
-      <c r="C88">
-        <v>20213324.999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>61</v>
-      </c>
-      <c r="B89" t="s">
-        <v>295</v>
-      </c>
-      <c r="C89">
-        <v>20706327.999999993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>62</v>
-      </c>
-      <c r="B90" t="s">
-        <v>295</v>
-      </c>
-      <c r="C90">
-        <v>21207289.999999993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>295</v>
-      </c>
-      <c r="C91">
-        <v>21715835.999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>64</v>
-      </c>
-      <c r="B92" t="s">
-        <v>295</v>
-      </c>
-      <c r="C92">
-        <v>22232001.999999989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>65</v>
-      </c>
-      <c r="B93" t="s">
-        <v>295</v>
-      </c>
-      <c r="C93">
-        <v>22744700</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>66</v>
-      </c>
-      <c r="B94" t="s">
-        <v>295</v>
-      </c>
-      <c r="C94">
-        <v>22949433</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>67</v>
-      </c>
-      <c r="B95" t="s">
-        <v>295</v>
-      </c>
-      <c r="C95">
-        <v>23150968</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>68</v>
-      </c>
-      <c r="B96" t="s">
-        <v>295</v>
-      </c>
-      <c r="C96">
-        <v>23348214.999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>69</v>
-      </c>
-      <c r="B97" t="s">
-        <v>295</v>
-      </c>
-      <c r="C97">
-        <v>23540975.999999993</v>
-      </c>
-      <c r="D97">
-        <v>54653</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ref="E97:E122" si="1">C97/D97</f>
-        <v>430.73529357949229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>70</v>
-      </c>
-      <c r="B98" t="s">
-        <v>295</v>
-      </c>
-      <c r="C98">
-        <v>23730724.999999993</v>
-      </c>
-      <c r="D98">
-        <v>55664</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
-        <v>426.32087165852244</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>71</v>
-      </c>
-      <c r="B99" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99">
-        <v>23683043.999999989</v>
-      </c>
-      <c r="D99">
-        <v>53935</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>439.10343932511336</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>72</v>
-      </c>
-      <c r="B100" t="s">
-        <v>295</v>
-      </c>
-      <c r="C100">
-        <v>23628800.999999985</v>
-      </c>
-      <c r="D100">
-        <v>33099</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>713.88262485271412</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>73</v>
-      </c>
-      <c r="B101" t="s">
-        <v>295</v>
-      </c>
-      <c r="C101">
-        <v>23567743.999999985</v>
-      </c>
-      <c r="D101">
-        <v>44146</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>533.85910388257116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>74</v>
-      </c>
-      <c r="B102" t="s">
-        <v>295</v>
-      </c>
-      <c r="C102">
-        <v>23499620.999999985</v>
-      </c>
-      <c r="D102">
-        <v>92800</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>253.22867456896535</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>75</v>
-      </c>
-      <c r="B103" t="s">
-        <v>295</v>
-      </c>
-      <c r="C103">
-        <v>23421450</v>
-      </c>
-      <c r="D103">
-        <v>61055</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
-        <v>383.6123167635738</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>76</v>
-      </c>
-      <c r="B104" t="s">
-        <v>295</v>
-      </c>
-      <c r="C104">
-        <v>23389810</v>
-      </c>
-      <c r="D104">
-        <v>59639</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
-        <v>392.18984221734098</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>77</v>
-      </c>
-      <c r="B105" t="s">
-        <v>295</v>
-      </c>
-      <c r="C105">
-        <v>23350728</v>
-      </c>
-      <c r="D105">
-        <v>49905</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
-        <v>467.90357679591222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>78</v>
-      </c>
-      <c r="B106" t="s">
-        <v>295</v>
-      </c>
-      <c r="C106">
-        <v>23303087.999999993</v>
-      </c>
-      <c r="D106">
-        <v>79183</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>294.294078274377</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>79</v>
-      </c>
-      <c r="B107" t="s">
-        <v>295</v>
-      </c>
-      <c r="C107">
-        <v>23247277.999999993</v>
-      </c>
-      <c r="D107">
-        <v>77033</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
-        <v>301.78336557059953</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>80</v>
-      </c>
-      <c r="B108" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108">
-        <v>23181854.999999993</v>
-      </c>
-      <c r="D108">
-        <v>75787</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
-        <v>305.88168155488398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>81</v>
-      </c>
-      <c r="B109" t="s">
-        <v>295</v>
-      </c>
-      <c r="C109">
-        <v>23072399.999999993</v>
-      </c>
-      <c r="D109">
-        <v>86406</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>267.02312339420865</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>82</v>
-      </c>
-      <c r="B110" t="s">
-        <v>295</v>
-      </c>
-      <c r="C110">
-        <v>22954414.999999985</v>
-      </c>
-      <c r="D110">
-        <v>59940</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
-        <v>382.95653987320628</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>83</v>
-      </c>
-      <c r="B111" t="s">
-        <v>295</v>
-      </c>
-      <c r="C111">
-        <v>22827229.999999985</v>
-      </c>
-      <c r="D111">
-        <v>62874</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
-        <v>363.06311034767924</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>84</v>
-      </c>
-      <c r="B112" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112">
-        <v>22690529.999999981</v>
-      </c>
-      <c r="D112">
-        <v>66361</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
-        <v>341.92567923931199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>85</v>
-      </c>
-      <c r="B113" t="s">
-        <v>295</v>
-      </c>
-      <c r="C113">
-        <v>22236000</v>
-      </c>
-      <c r="D113">
-        <v>77284</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
-        <v>287.71802701723516</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>86</v>
-      </c>
-      <c r="B114" t="s">
-        <v>295</v>
-      </c>
-      <c r="C114">
-        <v>22078000</v>
-      </c>
-      <c r="D114">
-        <v>72814</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
-        <v>303.21092097673522</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>87</v>
-      </c>
-      <c r="B115" t="s">
-        <v>295</v>
-      </c>
-      <c r="C115">
-        <v>21926000</v>
-      </c>
-      <c r="D115">
-        <v>83979</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
-        <v>261.08908179425811</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>88</v>
-      </c>
-      <c r="B116" t="s">
-        <v>295</v>
-      </c>
-      <c r="C116">
-        <v>21780000</v>
-      </c>
-      <c r="D116">
-        <v>76072</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
-        <v>286.30770848669681</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>89</v>
-      </c>
-      <c r="B117" t="s">
-        <v>295</v>
-      </c>
-      <c r="C117">
-        <v>21639000</v>
-      </c>
-      <c r="D117">
-        <v>79850</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
-        <v>270.99561678146523</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>90</v>
-      </c>
-      <c r="B118" t="s">
-        <v>295</v>
-      </c>
-      <c r="C118">
-        <v>21503000</v>
-      </c>
-      <c r="D118">
-        <v>79079</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
-        <v>271.91795546225927</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>91</v>
-      </c>
-      <c r="B119" t="s">
-        <v>295</v>
-      </c>
-      <c r="C119">
-        <v>21430000</v>
-      </c>
-      <c r="D119">
-        <v>76496</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
-        <v>280.14536707801716</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>92</v>
-      </c>
-      <c r="B120" t="s">
-        <v>295</v>
-      </c>
-      <c r="C120">
-        <v>21441000</v>
-      </c>
-      <c r="D120">
-        <v>72301</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
-        <v>296.55191491127368</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>93</v>
-      </c>
-      <c r="B121" t="s">
-        <v>295</v>
-      </c>
-      <c r="C121">
-        <v>21448000</v>
-      </c>
-      <c r="D121">
-        <v>71551</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
-        <v>299.75821442048328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>94</v>
-      </c>
-      <c r="B122" t="s">
-        <v>295</v>
-      </c>
-      <c r="C122">
-        <v>21446000</v>
-      </c>
-      <c r="D122">
-        <v>70439</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
-        <v>304.46201678047674</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>95</v>
-      </c>
-      <c r="B123" t="s">
-        <v>295</v>
-      </c>
-      <c r="C123">
-        <v>21438000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="320">
   <si>
     <t>Year</t>
   </si>
@@ -976,6 +976,18 @@
   </si>
   <si>
     <t>OthrIncTable</t>
+  </si>
+  <si>
+    <t>P4S1</t>
+  </si>
+  <si>
+    <t>P4S2</t>
+  </si>
+  <si>
+    <t>P4S3</t>
+  </si>
+  <si>
+    <t>P4S4</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1485,8 +1496,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2088,11 +2100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30:F61"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2426,7 +2438,7 @@
         <v>22882710.000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>63</v>
       </c>
@@ -2436,9 +2448,15 @@
       <c r="C30">
         <v>24098164.000000007</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>73892</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E61" si="0">C30/D30</f>
+        <v>326.12683375737572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>64</v>
       </c>
@@ -2448,9 +2466,15 @@
       <c r="C31">
         <v>25373998.000000011</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>70684</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>358.97795823665911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>65</v>
       </c>
@@ -2460,9 +2484,15 @@
       <c r="C32">
         <v>26700300</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>13788</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>1936.4882506527415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>66</v>
       </c>
@@ -2472,9 +2502,15 @@
       <c r="C33">
         <v>27711567</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>13984</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>1981.6623998855835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>67</v>
       </c>
@@ -2484,9 +2520,15 @@
       <c r="C34">
         <v>28757032</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>20590</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>1396.6504128217582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>68</v>
       </c>
@@ -2496,9 +2538,15 @@
       <c r="C35">
         <v>29836785.000000004</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>28136</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>1060.4487133920957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>69</v>
       </c>
@@ -2509,14 +2557,14 @@
         <v>30952024.000000007</v>
       </c>
       <c r="D36">
-        <v>46918</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" ref="E36:E61" si="0">C36/D36</f>
-        <v>659.70467624365926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>46930</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>659.53598977200102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>70</v>
       </c>
@@ -2527,14 +2575,14 @@
         <v>32106275.000000007</v>
       </c>
       <c r="D37">
-        <v>47249</v>
-      </c>
-      <c r="E37" s="1">
+        <v>47255</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>679.51226480983735</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>679.4259866680776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>71</v>
       </c>
@@ -2545,14 +2593,14 @@
         <v>32974956.000000011</v>
       </c>
       <c r="D38">
-        <v>46102</v>
-      </c>
-      <c r="E38" s="1">
+        <v>46095</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>715.26085636198025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>715.36947608200478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>72</v>
       </c>
@@ -2565,12 +2613,12 @@
       <c r="D39">
         <v>33141</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>1021.7615340514775</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>73</v>
       </c>
@@ -2583,12 +2631,12 @@
       <c r="D40">
         <v>60228</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>577.27727967058536</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>74</v>
       </c>
@@ -2599,11 +2647,11 @@
         <v>35693379.000000015</v>
       </c>
       <c r="D41">
-        <v>100804</v>
-      </c>
-      <c r="E41" s="1">
+        <v>100785</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>354.08693107416389</v>
+        <v>354.15368358386678</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2619,7 +2667,7 @@
       <c r="D42">
         <v>52693</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>695.22612111665683</v>
       </c>
@@ -2637,7 +2685,7 @@
       <c r="D43">
         <v>52096</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>723.2837453931204</v>
       </c>
@@ -2655,7 +2703,7 @@
       <c r="D44">
         <v>39130</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>990.34684385382059</v>
       </c>
@@ -2673,7 +2721,7 @@
       <c r="D45">
         <v>60658</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>656.94404695176252</v>
       </c>
@@ -2691,7 +2739,7 @@
       <c r="D46">
         <v>55675</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>735.90879209699165</v>
       </c>
@@ -2709,7 +2757,7 @@
       <c r="D47">
         <v>55178</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>763.33221573815661</v>
       </c>
@@ -2727,7 +2775,7 @@
       <c r="D48">
         <v>66708</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>648.0122324159023</v>
       </c>
@@ -2745,7 +2793,7 @@
       <c r="D49">
         <v>48180</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>920.72613117476146</v>
       </c>
@@ -2763,7 +2811,7 @@
       <c r="D50">
         <v>49900</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>912.17975951903838</v>
       </c>
@@ -2781,7 +2829,7 @@
       <c r="D51">
         <v>54278</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>860.375658646229</v>
       </c>
@@ -2799,7 +2847,7 @@
       <c r="D52">
         <v>57986</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>832.26985824164456</v>
       </c>
@@ -2817,7 +2865,7 @@
       <c r="D53">
         <v>60662</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>812.50206059806794</v>
       </c>
@@ -2835,7 +2883,7 @@
       <c r="D54">
         <v>77271</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>651.47338587568424</v>
       </c>
@@ -2853,7 +2901,7 @@
       <c r="D55">
         <v>74398</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>691.09384660877981</v>
       </c>
@@ -2871,7 +2919,7 @@
       <c r="D56">
         <v>72441</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>724.98999185544096</v>
       </c>
@@ -2889,7 +2937,7 @@
       <c r="D57">
         <v>71461</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <f t="shared" si="0"/>
         <v>750.71717440282112</v>
       </c>
@@ -2907,7 +2955,7 @@
       <c r="D58">
         <v>69567</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <f t="shared" si="0"/>
         <v>784.9555105150431</v>
       </c>
@@ -2925,7 +2973,7 @@
       <c r="D59">
         <v>68058</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <f t="shared" si="0"/>
         <v>815.51030003820267</v>
       </c>
@@ -2943,7 +2991,7 @@
       <c r="D60">
         <v>67482</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>835.89697993539016</v>
       </c>
@@ -2961,7 +3009,7 @@
       <c r="D61">
         <v>67177</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>853.37243401759531</v>
       </c>
@@ -3175,7 +3223,7 @@
         <v>17321029.000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>53</v>
       </c>
@@ -3186,7 +3234,7 @@
         <v>17503120.000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>54</v>
       </c>
@@ -3197,7 +3245,7 @@
         <v>17681895.000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>55</v>
       </c>
@@ -3208,7 +3256,7 @@
         <v>17865770</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>56</v>
       </c>
@@ -3219,7 +3267,7 @@
         <v>18319121</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>57</v>
       </c>
@@ -3230,7 +3278,7 @@
         <v>18780336</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>58</v>
       </c>
@@ -3241,7 +3289,7 @@
         <v>19249870.999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>59</v>
       </c>
@@ -3252,7 +3300,7 @@
         <v>19727595.999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>60</v>
       </c>
@@ -3263,7 +3311,7 @@
         <v>20213324.999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>61</v>
       </c>
@@ -3274,7 +3322,7 @@
         <v>20706327.999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>62</v>
       </c>
@@ -3285,7 +3333,7 @@
         <v>21207289.999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>63</v>
       </c>
@@ -3295,8 +3343,15 @@
       <c r="C91">
         <v>21715835.999999993</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>70169</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91:E96" si="1">C91/D91</f>
+        <v>309.47905770354419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>64</v>
       </c>
@@ -3306,8 +3361,15 @@
       <c r="C92">
         <v>22232001.999999989</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>74852</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>297.01279858921589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>65</v>
       </c>
@@ -3317,8 +3379,15 @@
       <c r="C93">
         <v>22744700</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>16758</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>1357.2443012292636</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>66</v>
       </c>
@@ -3328,8 +3397,15 @@
       <c r="C94">
         <v>22949433</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>17347</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>1322.9626448377242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>67</v>
       </c>
@@ -3339,8 +3415,15 @@
       <c r="C95">
         <v>23150968</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>25138</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>920.95504813429864</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>68</v>
       </c>
@@ -3349,6 +3432,13 @@
       </c>
       <c r="C96">
         <v>23348214.999999996</v>
+      </c>
+      <c r="D96">
+        <v>35647</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>654.98400987460366</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3362,11 +3452,11 @@
         <v>23540975.999999993</v>
       </c>
       <c r="D97">
-        <v>54653</v>
+        <v>54789</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:E122" si="1">C97/D97</f>
-        <v>430.73529357949229</v>
+        <f>C97/D97</f>
+        <v>429.66610085966147</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3380,11 +3470,11 @@
         <v>23730724.999999993</v>
       </c>
       <c r="D98">
-        <v>55664</v>
+        <v>55650</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
-        <v>426.32087165852244</v>
+        <f t="shared" ref="E98:E122" si="2">C98/D98</f>
+        <v>426.42812219227301</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3398,11 +3488,11 @@
         <v>23683043.999999989</v>
       </c>
       <c r="D99">
-        <v>53935</v>
+        <v>53936</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
-        <v>439.10343932511336</v>
+        <f t="shared" si="2"/>
+        <v>439.09529813111817</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3416,11 +3506,11 @@
         <v>23628800.999999985</v>
       </c>
       <c r="D100">
-        <v>33099</v>
+        <v>33117</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
-        <v>713.88262485271412</v>
+        <f t="shared" si="2"/>
+        <v>713.49461001902296</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3437,7 +3527,7 @@
         <v>44146</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>533.85910388257116</v>
       </c>
     </row>
@@ -3455,7 +3545,7 @@
         <v>92800</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>253.22867456896535</v>
       </c>
     </row>
@@ -3473,7 +3563,7 @@
         <v>61055</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>383.6123167635738</v>
       </c>
     </row>
@@ -3491,7 +3581,7 @@
         <v>59639</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>392.18984221734098</v>
       </c>
     </row>
@@ -3509,7 +3599,7 @@
         <v>49905</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>467.90357679591222</v>
       </c>
     </row>
@@ -3527,7 +3617,7 @@
         <v>79183</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>294.294078274377</v>
       </c>
     </row>
@@ -3545,7 +3635,7 @@
         <v>77033</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>301.78336557059953</v>
       </c>
     </row>
@@ -3563,7 +3653,7 @@
         <v>75787</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>305.88168155488398</v>
       </c>
     </row>
@@ -3581,7 +3671,7 @@
         <v>86406</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>267.02312339420865</v>
       </c>
     </row>
@@ -3599,7 +3689,7 @@
         <v>59940</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>382.95653987320628</v>
       </c>
     </row>
@@ -3617,7 +3707,7 @@
         <v>62874</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>363.06311034767924</v>
       </c>
     </row>
@@ -3635,7 +3725,7 @@
         <v>66361</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>341.92567923931199</v>
       </c>
     </row>
@@ -3653,7 +3743,7 @@
         <v>77284</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>287.71802701723516</v>
       </c>
     </row>
@@ -3671,7 +3761,7 @@
         <v>72814</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>303.21092097673522</v>
       </c>
     </row>
@@ -3689,7 +3779,7 @@
         <v>83979</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>261.08908179425811</v>
       </c>
     </row>
@@ -3707,7 +3797,7 @@
         <v>76072</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>286.30770848669681</v>
       </c>
     </row>
@@ -3725,7 +3815,7 @@
         <v>79850</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270.99561678146523</v>
       </c>
     </row>
@@ -3743,7 +3833,7 @@
         <v>79079</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>271.91795546225927</v>
       </c>
     </row>
@@ -3761,7 +3851,7 @@
         <v>76496</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>280.14536707801716</v>
       </c>
     </row>
@@ -3779,7 +3869,7 @@
         <v>72301</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>296.55191491127368</v>
       </c>
     </row>
@@ -3797,7 +3887,7 @@
         <v>71551</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>299.75821442048328</v>
       </c>
     </row>
@@ -3815,7 +3905,7 @@
         <v>70439</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304.46201678047674</v>
       </c>
     </row>
@@ -7141,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7177,36 +7267,120 @@
       <c r="A2">
         <v>63</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>66</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>68</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>69</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -7335,6 +7509,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -21,14 +21,15 @@
     <sheet name="FoodTables" sheetId="10" r:id="rId7"/>
     <sheet name="LoanTables" sheetId="7" r:id="rId8"/>
     <sheet name="HouseTables" sheetId="8" r:id="rId9"/>
-    <sheet name="RegionWeights" sheetId="9" r:id="rId10"/>
+    <sheet name="InsuranceTables" sheetId="12" r:id="rId10"/>
+    <sheet name="RegionWeights" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="325">
   <si>
     <t>Year</t>
   </si>
@@ -988,6 +989,21 @@
   </si>
   <si>
     <t>P4S4</t>
+  </si>
+  <si>
+    <t>InsuredCount</t>
+  </si>
+  <si>
+    <t>InsuranceCosts</t>
+  </si>
+  <si>
+    <t>GovPaid</t>
+  </si>
+  <si>
+    <t>SS1</t>
+  </si>
+  <si>
+    <t>SS2</t>
   </si>
 </sst>
 </file>
@@ -2098,13 +2114,379 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29">
+        <v>125311</v>
+      </c>
+      <c r="D29">
+        <v>125317</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>125312</v>
+      </c>
+      <c r="J29">
+        <v>125313</v>
+      </c>
+      <c r="K29">
+        <v>125314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>125311</v>
+      </c>
+      <c r="D30">
+        <v>125317</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>125312</v>
+      </c>
+      <c r="J30">
+        <v>125313</v>
+      </c>
+      <c r="K30">
+        <v>125314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>125311</v>
+      </c>
+      <c r="D31">
+        <v>125317</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>125312</v>
+      </c>
+      <c r="J31">
+        <v>125313</v>
+      </c>
+      <c r="K31">
+        <v>125314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32">
+        <v>125311</v>
+      </c>
+      <c r="D32">
+        <v>125317</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32">
+        <v>125312</v>
+      </c>
+      <c r="J32">
+        <v>125313</v>
+      </c>
+      <c r="K32">
+        <v>125314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33">
+        <v>125311</v>
+      </c>
+      <c r="D33">
+        <v>125317</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>125312</v>
+      </c>
+      <c r="J33">
+        <v>125313</v>
+      </c>
+      <c r="K33">
+        <v>125314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30:E61"/>
+      <selection pane="bottomRight" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRHEIS\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
     <sheet name="HouseTables" sheetId="8" r:id="rId9"/>
     <sheet name="RegionWeights" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -942,9 +937,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
     <t>COL3</t>
   </si>
   <si>
@@ -988,17 +980,20 @@
   </si>
   <si>
     <t>P4S4</t>
+  </si>
+  <si>
+    <t>FoodExpenditure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1006,7 +1001,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1014,7 +1009,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="major"/>
@@ -1023,7 +1018,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1032,7 +1027,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1041,7 +1036,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1049,7 +1044,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1057,7 +1052,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1065,7 +1060,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1073,7 +1068,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1082,7 +1077,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1091,7 +1086,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1099,7 +1094,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1108,7 +1103,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1116,7 +1111,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1125,7 +1120,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1134,7 +1129,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1142,7 +1137,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1150,7 +1145,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1502,48 +1497,48 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="‏20% - تأکید1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - آکسان 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="‏60% - تأکید1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="بد" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="بررسی سلول" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="تأکید1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="تاکید2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="تاکید3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="تاکید4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="تاکید5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="تاکید6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="خروجی" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="خنثی" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="خوب" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="سلول پیوندی" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="عنوان" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="عنوان 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="عنوان 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="عنوان 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="عنوان 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="متن توصیفی" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="متن هشدار" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="مجموع" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="محاسبه" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="معمولی" xfId="0" builtinId="0"/>
-    <cellStyle name="ورودی" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="یادداشت" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1601,7 +1596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1636,7 +1631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1813,7 +1808,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1825,9 +1820,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>63</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>64</v>
       </c>
@@ -1851,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -1859,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>66</v>
       </c>
@@ -1867,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>67</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>68</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>69</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1899,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>71</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>72</v>
       </c>
@@ -1915,7 +1910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>73</v>
       </c>
@@ -1923,7 +1918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>74</v>
       </c>
@@ -1931,7 +1926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>75</v>
       </c>
@@ -1939,7 +1934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>76</v>
       </c>
@@ -1947,7 +1942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>77</v>
       </c>
@@ -1955,7 +1950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>78</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>79</v>
       </c>
@@ -1971,7 +1966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>80</v>
       </c>
@@ -1979,7 +1974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>81</v>
       </c>
@@ -1987,7 +1982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>82</v>
       </c>
@@ -1995,7 +1990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>83</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>84</v>
       </c>
@@ -2011,7 +2006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>85</v>
       </c>
@@ -2019,7 +2014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>86</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>87</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>88</v>
       </c>
@@ -2043,7 +2038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>89</v>
       </c>
@@ -2051,7 +2046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>90</v>
       </c>
@@ -2059,7 +2054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>91</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>92</v>
       </c>
@@ -2075,7 +2070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>93</v>
       </c>
@@ -2083,7 +2078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2100,20 +2095,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30:E61"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>35</v>
       </c>
@@ -2141,7 +2136,7 @@
         <v>5876050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>36</v>
       </c>
@@ -2152,7 +2147,7 @@
         <v>6196716</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>37</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>6531840</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>38</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>6881821</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>39</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>7247396.0000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2196,7 +2191,7 @@
         <v>7628985.0000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>41</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>8027360.0000000019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>42</v>
       </c>
@@ -2218,7 +2213,7 @@
         <v>8443321.0000000037</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>43</v>
       </c>
@@ -2229,7 +2224,7 @@
         <v>8877330.0000000037</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>44</v>
       </c>
@@ -2240,7 +2235,7 @@
         <v>9330222.0000000037</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>45</v>
       </c>
@@ -2251,7 +2246,7 @@
         <v>9799820</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>46</v>
       </c>
@@ -2262,7 +2257,7 @@
         <v>10303832</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>47</v>
       </c>
@@ -2273,7 +2268,7 @@
         <v>10827590</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>48</v>
       </c>
@@ -2284,7 +2279,7 @@
         <v>11372800.999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>49</v>
       </c>
@@ -2295,7 +2290,7 @@
         <v>11939199.999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>50</v>
       </c>
@@ -2306,7 +2301,7 @@
         <v>12528149.999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>51</v>
       </c>
@@ -2317,7 +2312,7 @@
         <v>13140217.999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>52</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>13775970.999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>53</v>
       </c>
@@ -2339,7 +2334,7 @@
         <v>14436879.999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>54</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>15123104.999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>55</v>
       </c>
@@ -2361,7 +2356,7 @@
         <v>15843230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>56</v>
       </c>
@@ -2372,7 +2367,7 @@
         <v>16707879.000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>57</v>
       </c>
@@ -2383,7 +2378,7 @@
         <v>17615664</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>58</v>
       </c>
@@ -2394,7 +2389,7 @@
         <v>18569129.000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>59</v>
       </c>
@@ -2405,7 +2400,7 @@
         <v>19570404.000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>60</v>
       </c>
@@ -2416,7 +2411,7 @@
         <v>20621675.000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>61</v>
       </c>
@@ -2427,7 +2422,7 @@
         <v>21724672.000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>62</v>
       </c>
@@ -2438,7 +2433,7 @@
         <v>22882710.000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>63</v>
       </c>
@@ -2456,7 +2451,7 @@
         <v>326.12683375737572</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>64</v>
       </c>
@@ -2474,7 +2469,7 @@
         <v>358.97795823665911</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>65</v>
       </c>
@@ -2492,7 +2487,7 @@
         <v>1936.4882506527415</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>66</v>
       </c>
@@ -2510,7 +2505,7 @@
         <v>1981.6623998855835</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>67</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>1396.6504128217582</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>68</v>
       </c>
@@ -2546,7 +2541,7 @@
         <v>1060.4487133920957</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>69</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>659.53598977200102</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>70</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>679.4259866680776</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>71</v>
       </c>
@@ -2600,7 +2595,7 @@
         <v>715.36947608200478</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>72</v>
       </c>
@@ -2618,7 +2613,7 @@
         <v>1021.7615340514775</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>73</v>
       </c>
@@ -2636,7 +2631,7 @@
         <v>577.27727967058536</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>74</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>354.15368358386678</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>75</v>
       </c>
@@ -2672,7 +2667,7 @@
         <v>695.22612111665683</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>76</v>
       </c>
@@ -2690,7 +2685,7 @@
         <v>723.2837453931204</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>77</v>
       </c>
@@ -2708,7 +2703,7 @@
         <v>990.34684385382059</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>78</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>656.94404695176252</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>79</v>
       </c>
@@ -2744,7 +2739,7 @@
         <v>735.90879209699165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>80</v>
       </c>
@@ -2762,7 +2757,7 @@
         <v>763.33221573815661</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>81</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>648.0122324159023</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>82</v>
       </c>
@@ -2798,7 +2793,7 @@
         <v>920.72613117476146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>83</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>912.17975951903838</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>84</v>
       </c>
@@ -2834,7 +2829,7 @@
         <v>860.375658646229</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>85</v>
       </c>
@@ -2852,7 +2847,7 @@
         <v>832.26985824164456</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>86</v>
       </c>
@@ -2870,7 +2865,7 @@
         <v>812.50206059806794</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>87</v>
       </c>
@@ -2888,7 +2883,7 @@
         <v>651.47338587568424</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>88</v>
       </c>
@@ -2906,7 +2901,7 @@
         <v>691.09384660877981</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>89</v>
       </c>
@@ -2924,7 +2919,7 @@
         <v>724.98999185544096</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>90</v>
       </c>
@@ -2942,7 +2937,7 @@
         <v>750.71717440282112</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>91</v>
       </c>
@@ -2960,7 +2955,7 @@
         <v>784.9555105150431</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>92</v>
       </c>
@@ -2978,7 +2973,7 @@
         <v>815.51030003820267</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>93</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>835.89697993539016</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>94</v>
       </c>
@@ -3014,7 +3009,7 @@
         <v>853.37243401759531</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>95</v>
       </c>
@@ -3025,7 +3020,7 @@
         <v>58220000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>35</v>
       </c>
@@ -3036,7 +3031,7 @@
         <v>13078950</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>36</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>13351284</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>37</v>
       </c>
@@ -3058,7 +3053,7 @@
         <v>13628160</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>38</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>13909179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>39</v>
       </c>
@@ -3080,7 +3075,7 @@
         <v>14194603.999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>40</v>
       </c>
@@ -3091,7 +3086,7 @@
         <v>14484014.999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>41</v>
       </c>
@@ -3102,7 +3097,7 @@
         <v>14777639.999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>15075678.999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>43</v>
       </c>
@@ -3124,7 +3119,7 @@
         <v>15377669.999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>44</v>
       </c>
@@ -3135,7 +3130,7 @@
         <v>15683777.999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>45</v>
       </c>
@@ -3146,7 +3141,7 @@
         <v>15989180</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>46</v>
       </c>
@@ -3157,7 +3152,7 @@
         <v>16184168</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>47</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>16377410</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>48</v>
       </c>
@@ -3179,7 +3174,7 @@
         <v>16570199.000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>49</v>
       </c>
@@ -3190,7 +3185,7 @@
         <v>16760800.000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>50</v>
       </c>
@@ -3201,7 +3196,7 @@
         <v>16949850.000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>51</v>
       </c>
@@ -3212,7 +3207,7 @@
         <v>17136782</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>52</v>
       </c>
@@ -3223,7 +3218,7 @@
         <v>17321029.000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>53</v>
       </c>
@@ -3234,7 +3229,7 @@
         <v>17503120.000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>54</v>
       </c>
@@ -3245,7 +3240,7 @@
         <v>17681895.000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>55</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>17865770</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>56</v>
       </c>
@@ -3267,7 +3262,7 @@
         <v>18319121</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>57</v>
       </c>
@@ -3278,7 +3273,7 @@
         <v>18780336</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>58</v>
       </c>
@@ -3289,7 +3284,7 @@
         <v>19249870.999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>59</v>
       </c>
@@ -3300,7 +3295,7 @@
         <v>19727595.999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>60</v>
       </c>
@@ -3311,7 +3306,7 @@
         <v>20213324.999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>61</v>
       </c>
@@ -3322,7 +3317,7 @@
         <v>20706327.999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>62</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>21207289.999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>63</v>
       </c>
@@ -3351,7 +3346,7 @@
         <v>309.47905770354419</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>64</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>297.01279858921589</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>65</v>
       </c>
@@ -3387,7 +3382,7 @@
         <v>1357.2443012292636</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>66</v>
       </c>
@@ -3405,7 +3400,7 @@
         <v>1322.9626448377242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>67</v>
       </c>
@@ -3423,7 +3418,7 @@
         <v>920.95504813429864</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>68</v>
       </c>
@@ -3441,7 +3436,7 @@
         <v>654.98400987460366</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>69</v>
       </c>
@@ -3459,7 +3454,7 @@
         <v>429.66610085966147</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>70</v>
       </c>
@@ -3477,7 +3472,7 @@
         <v>426.42812219227301</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>71</v>
       </c>
@@ -3495,7 +3490,7 @@
         <v>439.09529813111817</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>72</v>
       </c>
@@ -3513,7 +3508,7 @@
         <v>713.49461001902296</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>73</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>533.85910388257116</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>74</v>
       </c>
@@ -3549,7 +3544,7 @@
         <v>253.22867456896535</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>75</v>
       </c>
@@ -3567,7 +3562,7 @@
         <v>383.6123167635738</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>76</v>
       </c>
@@ -3585,7 +3580,7 @@
         <v>392.18984221734098</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>77</v>
       </c>
@@ -3603,7 +3598,7 @@
         <v>467.90357679591222</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>78</v>
       </c>
@@ -3621,7 +3616,7 @@
         <v>294.294078274377</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>79</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>301.78336557059953</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>80</v>
       </c>
@@ -3657,7 +3652,7 @@
         <v>305.88168155488398</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>81</v>
       </c>
@@ -3675,7 +3670,7 @@
         <v>267.02312339420865</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>82</v>
       </c>
@@ -3693,7 +3688,7 @@
         <v>382.95653987320628</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>83</v>
       </c>
@@ -3711,7 +3706,7 @@
         <v>363.06311034767924</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>84</v>
       </c>
@@ -3729,7 +3724,7 @@
         <v>341.92567923931199</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>85</v>
       </c>
@@ -3747,7 +3742,7 @@
         <v>287.71802701723516</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>86</v>
       </c>
@@ -3765,7 +3760,7 @@
         <v>303.21092097673522</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>87</v>
       </c>
@@ -3783,7 +3778,7 @@
         <v>261.08908179425811</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>88</v>
       </c>
@@ -3801,7 +3796,7 @@
         <v>286.30770848669681</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>89</v>
       </c>
@@ -3819,7 +3814,7 @@
         <v>270.99561678146523</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>90</v>
       </c>
@@ -3837,7 +3832,7 @@
         <v>271.91795546225927</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>91</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>280.14536707801716</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>92</v>
       </c>
@@ -3873,7 +3868,7 @@
         <v>296.55191491127368</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>93</v>
       </c>
@@ -3891,7 +3886,7 @@
         <v>299.75821442048328</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>94</v>
       </c>
@@ -3909,7 +3904,7 @@
         <v>304.46201678047674</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>95</v>
       </c>
@@ -3934,9 +3929,9 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3992,7 +3987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>63</v>
       </c>
@@ -4042,7 +4037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>64</v>
       </c>
@@ -4092,7 +4087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>65</v>
       </c>
@@ -4142,7 +4137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>66</v>
       </c>
@@ -4186,7 +4181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>67</v>
       </c>
@@ -4230,7 +4225,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>68</v>
       </c>
@@ -4274,7 +4269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>69</v>
       </c>
@@ -4309,7 +4304,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>70</v>
       </c>
@@ -4344,7 +4339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>71</v>
       </c>
@@ -4379,7 +4374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>72</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>73</v>
       </c>
@@ -4449,7 +4444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>74</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>75</v>
       </c>
@@ -4519,7 +4514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>76</v>
       </c>
@@ -4554,7 +4549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>77</v>
       </c>
@@ -4589,7 +4584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>78</v>
       </c>
@@ -4624,7 +4619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>79</v>
       </c>
@@ -4659,7 +4654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>80</v>
       </c>
@@ -4694,7 +4689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>81</v>
       </c>
@@ -4729,7 +4724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>82</v>
       </c>
@@ -4764,7 +4759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>83</v>
       </c>
@@ -4799,7 +4794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>84</v>
       </c>
@@ -4834,7 +4829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>85</v>
       </c>
@@ -4869,7 +4864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>86</v>
       </c>
@@ -4904,7 +4899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>87</v>
       </c>
@@ -4939,7 +4934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>88</v>
       </c>
@@ -4974,7 +4969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>89</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>90</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>91</v>
       </c>
@@ -5079,7 +5074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>92</v>
       </c>
@@ -5114,7 +5109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>93</v>
       </c>
@@ -5149,7 +5144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>94</v>
       </c>
@@ -5197,9 +5192,9 @@
       <selection sqref="A1:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5210,7 +5205,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5221,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5232,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5243,7 +5238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5254,7 +5249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5276,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -5287,7 +5282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -5298,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -5309,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -5320,7 +5315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -5331,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -5342,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -5353,7 +5348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -5364,7 +5359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>22</v>
       </c>
@@ -5375,7 +5370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -5386,7 +5381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -5397,7 +5392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -5408,7 +5403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>26</v>
       </c>
@@ -5419,7 +5414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>27</v>
       </c>
@@ -5430,7 +5425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -5441,7 +5436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -5452,7 +5447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -5463,7 +5458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -5474,7 +5469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -5485,7 +5480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>38</v>
       </c>
@@ -5496,7 +5491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>39</v>
       </c>
@@ -5507,7 +5502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>40</v>
       </c>
@@ -5518,7 +5513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>41</v>
       </c>
@@ -5529,7 +5524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -5551,7 +5546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -5562,7 +5557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>45</v>
       </c>
@@ -5573,7 +5568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>46</v>
       </c>
@@ -5584,7 +5579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>47</v>
       </c>
@@ -5595,7 +5590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>48</v>
       </c>
@@ -5606,7 +5601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>49</v>
       </c>
@@ -5617,7 +5612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>51</v>
       </c>
@@ -5628,7 +5623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>52</v>
       </c>
@@ -5639,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>61</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>62</v>
       </c>
@@ -5661,7 +5656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>71</v>
       </c>
@@ -5672,7 +5667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>72</v>
       </c>
@@ -5683,7 +5678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>73</v>
       </c>
@@ -5694,7 +5689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>75</v>
       </c>
@@ -5705,7 +5700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>76</v>
       </c>
@@ -5716,7 +5711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>77</v>
       </c>
@@ -5727,7 +5722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>78</v>
       </c>
@@ -5738,7 +5733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>81</v>
       </c>
@@ -5749,7 +5744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>82</v>
       </c>
@@ -5760,7 +5755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>83</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>85</v>
       </c>
@@ -5782,7 +5777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>86</v>
       </c>
@@ -5793,7 +5788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>87</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>89</v>
       </c>
@@ -5815,7 +5810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>91</v>
       </c>
@@ -5826,7 +5821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>92</v>
       </c>
@@ -5837,7 +5832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>93</v>
       </c>
@@ -5848,7 +5843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5872,9 +5867,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5888,7 +5883,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>100</v>
       </c>
@@ -5930,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>101</v>
       </c>
@@ -5944,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>102</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>103</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>104</v>
       </c>
@@ -5986,7 +5981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>105</v>
       </c>
@@ -6000,7 +5995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>106</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>107</v>
       </c>
@@ -6028,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>108</v>
       </c>
@@ -6042,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>109</v>
       </c>
@@ -6056,7 +6051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>210</v>
       </c>
@@ -6070,7 +6065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>211</v>
       </c>
@@ -6084,7 +6079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>212</v>
       </c>
@@ -6098,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>213</v>
       </c>
@@ -6112,7 +6107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>215</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>216</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>217</v>
       </c>
@@ -6168,7 +6163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>220</v>
       </c>
@@ -6182,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>221</v>
       </c>
@@ -6196,7 +6191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>222</v>
       </c>
@@ -6210,7 +6205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>230</v>
       </c>
@@ -6221,7 +6216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>231</v>
       </c>
@@ -6232,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>232</v>
       </c>
@@ -6243,7 +6238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>233</v>
       </c>
@@ -6254,7 +6249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>234</v>
       </c>
@@ -6265,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>300</v>
       </c>
@@ -6279,7 +6274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>301</v>
       </c>
@@ -6293,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>302</v>
       </c>
@@ -6307,7 +6302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>303</v>
       </c>
@@ -6321,7 +6316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>310</v>
       </c>
@@ -6335,7 +6330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>311</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>312</v>
       </c>
@@ -6363,7 +6358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>313</v>
       </c>
@@ -6377,7 +6372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>314</v>
       </c>
@@ -6391,7 +6386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>315</v>
       </c>
@@ -6405,7 +6400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>316</v>
       </c>
@@ -6419,7 +6414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>317</v>
       </c>
@@ -6433,7 +6428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>318</v>
       </c>
@@ -6447,7 +6442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>319</v>
       </c>
@@ -6461,7 +6456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -6475,7 +6470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -6489,7 +6484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -6503,7 +6498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -6517,7 +6512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>321</v>
       </c>
@@ -6531,7 +6526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>322</v>
       </c>
@@ -6545,7 +6540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>323</v>
       </c>
@@ -6559,7 +6554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>324</v>
       </c>
@@ -6573,7 +6568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>325</v>
       </c>
@@ -6587,7 +6582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>326</v>
       </c>
@@ -6601,7 +6596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>327</v>
       </c>
@@ -6615,7 +6610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>328</v>
       </c>
@@ -6629,7 +6624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>216</v>
       </c>
@@ -6640,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -6651,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>219</v>
       </c>
@@ -6662,7 +6657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -6673,7 +6668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>340</v>
       </c>
@@ -6687,7 +6682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>341</v>
       </c>
@@ -6701,7 +6696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>342</v>
       </c>
@@ -6715,7 +6710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>343</v>
       </c>
@@ -6729,7 +6724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>344</v>
       </c>
@@ -6743,7 +6738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>345</v>
       </c>
@@ -6757,7 +6752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>346</v>
       </c>
@@ -6771,7 +6766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>352</v>
       </c>
@@ -6779,7 +6774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>353</v>
       </c>
@@ -6787,7 +6782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>354</v>
       </c>
@@ -6795,7 +6790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>362</v>
       </c>
@@ -6803,7 +6798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>363</v>
       </c>
@@ -6811,7 +6806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>364</v>
       </c>
@@ -6819,7 +6814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>510</v>
       </c>
@@ -6830,7 +6825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>511</v>
       </c>
@@ -6841,7 +6836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>512</v>
       </c>
@@ -6852,7 +6847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>513</v>
       </c>
@@ -6863,7 +6858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>514</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>515</v>
       </c>
@@ -6885,7 +6880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>516</v>
       </c>
@@ -6896,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>517</v>
       </c>
@@ -6907,7 +6902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>520</v>
       </c>
@@ -6918,7 +6913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>521</v>
       </c>
@@ -6929,7 +6924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>522</v>
       </c>
@@ -6940,7 +6935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>601</v>
       </c>
@@ -6951,7 +6946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>602</v>
       </c>
@@ -6962,7 +6957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>603</v>
       </c>
@@ -6973,7 +6968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>604</v>
       </c>
@@ -6984,7 +6979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>605</v>
       </c>
@@ -6995,7 +6990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>606</v>
       </c>
@@ -7006,7 +7001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>901</v>
       </c>
@@ -7017,7 +7012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>902</v>
       </c>
@@ -7028,7 +7023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>903</v>
       </c>
@@ -7039,7 +7034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>904</v>
       </c>
@@ -7050,7 +7045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>905</v>
       </c>
@@ -7061,7 +7056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>906</v>
       </c>
@@ -7072,7 +7067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>907</v>
       </c>
@@ -7083,7 +7078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>908</v>
       </c>
@@ -7107,9 +7102,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -7123,7 +7118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>11</v>
       </c>
@@ -7134,7 +7129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>21</v>
       </c>
@@ -7145,7 +7140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>31</v>
       </c>
@@ -7156,7 +7151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>41</v>
       </c>
@@ -7167,7 +7162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>51</v>
       </c>
@@ -7178,7 +7173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>52</v>
       </c>
@@ -7189,7 +7184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>53</v>
       </c>
@@ -7200,7 +7195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>61</v>
       </c>
@@ -7211,7 +7206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>71</v>
       </c>
@@ -7235,274 +7230,274 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>312</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>313</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>94</v>
       </c>
@@ -7517,13 +7512,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I1" t="s">
         <v>301</v>
@@ -7558,16 +7563,22 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>299</v>
       </c>
+      <c r="C2">
+        <v>11110</v>
+      </c>
+      <c r="D2">
+        <v>19654</v>
+      </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
@@ -7575,13 +7586,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>299</v>
       </c>
+      <c r="C3">
+        <v>11110</v>
+      </c>
+      <c r="D3">
+        <v>19654</v>
+      </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
@@ -7589,13 +7606,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>299</v>
       </c>
+      <c r="C4">
+        <v>11110</v>
+      </c>
+      <c r="D4">
+        <v>19654</v>
+      </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
@@ -7603,13 +7626,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>299</v>
       </c>
+      <c r="C5">
+        <v>11110</v>
+      </c>
+      <c r="D5">
+        <v>19654</v>
+      </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
@@ -7617,13 +7646,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>299</v>
       </c>
+      <c r="C6">
+        <v>11110</v>
+      </c>
+      <c r="D6">
+        <v>19654</v>
+      </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
@@ -7631,13 +7666,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>299</v>
       </c>
+      <c r="C7">
+        <v>11110</v>
+      </c>
+      <c r="D7">
+        <v>19654</v>
+      </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
@@ -7645,13 +7686,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>299</v>
       </c>
+      <c r="C8">
+        <v>11110</v>
+      </c>
+      <c r="D8">
+        <v>19654</v>
+      </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
@@ -7659,28 +7706,34 @@
         <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
         <v>275</v>
       </c>
       <c r="J8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>299</v>
       </c>
+      <c r="C9">
+        <v>11110</v>
+      </c>
+      <c r="D9">
+        <v>19461</v>
+      </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
@@ -7688,25 +7741,31 @@
         <v>274</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
         <v>275</v>
       </c>
       <c r="J9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>299</v>
       </c>
+      <c r="C10">
+        <v>11110</v>
+      </c>
+      <c r="D10">
+        <v>19461</v>
+      </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
@@ -7714,25 +7773,31 @@
         <v>274</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>275</v>
       </c>
       <c r="J10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>299</v>
       </c>
+      <c r="C11">
+        <v>11110</v>
+      </c>
+      <c r="D11">
+        <v>19461</v>
+      </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
@@ -7740,28 +7805,34 @@
         <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H11" t="s">
         <v>275</v>
       </c>
       <c r="J11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>299</v>
       </c>
+      <c r="C12">
+        <v>11110</v>
+      </c>
+      <c r="D12">
+        <v>19461</v>
+      </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
@@ -7769,28 +7840,34 @@
         <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H12" t="s">
         <v>275</v>
       </c>
       <c r="J12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>299</v>
       </c>
+      <c r="C13">
+        <v>11110</v>
+      </c>
+      <c r="D13">
+        <v>19461</v>
+      </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
@@ -7798,25 +7875,31 @@
         <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K13" t="s">
         <v>289</v>
       </c>
       <c r="L13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>299</v>
       </c>
+      <c r="C14">
+        <v>11110</v>
+      </c>
+      <c r="D14">
+        <v>19461</v>
+      </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
@@ -7824,25 +7907,31 @@
         <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K14" t="s">
         <v>289</v>
       </c>
       <c r="L14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>299</v>
       </c>
+      <c r="C15">
+        <v>11110</v>
+      </c>
+      <c r="D15">
+        <v>19461</v>
+      </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
@@ -7850,25 +7939,31 @@
         <v>274</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K15" t="s">
         <v>289</v>
       </c>
       <c r="L15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>299</v>
       </c>
+      <c r="C16">
+        <v>11110</v>
+      </c>
+      <c r="D16">
+        <v>19461</v>
+      </c>
       <c r="E16" t="s">
         <v>51</v>
       </c>
@@ -7876,25 +7971,31 @@
         <v>274</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K16" t="s">
         <v>289</v>
       </c>
       <c r="L16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>299</v>
       </c>
+      <c r="C17">
+        <v>11110</v>
+      </c>
+      <c r="D17">
+        <v>19461</v>
+      </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
@@ -7902,25 +8003,31 @@
         <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K17" t="s">
         <v>289</v>
       </c>
       <c r="L17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>299</v>
       </c>
+      <c r="C18">
+        <v>11110</v>
+      </c>
+      <c r="D18">
+        <v>19461</v>
+      </c>
       <c r="E18" t="s">
         <v>51</v>
       </c>
@@ -7928,25 +8035,31 @@
         <v>274</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K18" t="s">
         <v>289</v>
       </c>
       <c r="L18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>299</v>
       </c>
+      <c r="C19">
+        <v>11110</v>
+      </c>
+      <c r="D19">
+        <v>19461</v>
+      </c>
       <c r="E19" t="s">
         <v>51</v>
       </c>
@@ -7954,25 +8067,31 @@
         <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K19" t="s">
         <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>299</v>
       </c>
+      <c r="C20">
+        <v>11110</v>
+      </c>
+      <c r="D20">
+        <v>19461</v>
+      </c>
       <c r="E20" t="s">
         <v>51</v>
       </c>
@@ -7980,25 +8099,31 @@
         <v>274</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K20" t="s">
         <v>289</v>
       </c>
       <c r="L20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>299</v>
       </c>
+      <c r="C21">
+        <v>11110</v>
+      </c>
+      <c r="D21">
+        <v>19461</v>
+      </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
@@ -8006,25 +8131,31 @@
         <v>274</v>
       </c>
       <c r="G21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K21" t="s">
         <v>289</v>
       </c>
       <c r="L21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>299</v>
       </c>
+      <c r="C22">
+        <v>11111</v>
+      </c>
+      <c r="D22">
+        <v>12218</v>
+      </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
@@ -8032,7 +8163,7 @@
         <v>274</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I22" t="s">
         <v>275</v>
@@ -8044,16 +8175,22 @@
         <v>289</v>
       </c>
       <c r="L22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>299</v>
       </c>
+      <c r="C23">
+        <v>11111</v>
+      </c>
+      <c r="D23">
+        <v>12218</v>
+      </c>
       <c r="E23" t="s">
         <v>66</v>
       </c>
@@ -8076,15 +8213,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>299</v>
       </c>
+      <c r="C24">
+        <v>11111</v>
+      </c>
+      <c r="D24">
+        <v>12218</v>
+      </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>67</v>
@@ -8105,13 +8248,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>299</v>
       </c>
+      <c r="C25">
+        <v>11111</v>
+      </c>
+      <c r="D25">
+        <v>12218</v>
+      </c>
       <c r="E25" t="s">
         <v>66</v>
       </c>
@@ -8134,13 +8283,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>299</v>
       </c>
+      <c r="C26">
+        <v>11111</v>
+      </c>
+      <c r="D26">
+        <v>12218</v>
+      </c>
       <c r="E26" t="s">
         <v>66</v>
       </c>
@@ -8163,13 +8318,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>88</v>
       </c>
       <c r="B27" t="s">
         <v>299</v>
       </c>
+      <c r="C27">
+        <v>11111</v>
+      </c>
+      <c r="D27">
+        <v>12218</v>
+      </c>
       <c r="E27" t="s">
         <v>66</v>
       </c>
@@ -8192,13 +8353,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>299</v>
       </c>
+      <c r="C28">
+        <v>11111</v>
+      </c>
+      <c r="D28">
+        <v>11762</v>
+      </c>
       <c r="E28" t="s">
         <v>66</v>
       </c>
@@ -8221,13 +8388,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>299</v>
       </c>
+      <c r="C29">
+        <v>11111</v>
+      </c>
+      <c r="D29">
+        <v>12218</v>
+      </c>
       <c r="E29" t="s">
         <v>66</v>
       </c>
@@ -8250,13 +8423,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>299</v>
       </c>
+      <c r="C30">
+        <v>11111</v>
+      </c>
+      <c r="D30">
+        <v>12218</v>
+      </c>
       <c r="E30" t="s">
         <v>66</v>
       </c>
@@ -8279,13 +8458,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>92</v>
       </c>
       <c r="B31" t="s">
         <v>299</v>
       </c>
+      <c r="C31">
+        <v>11111</v>
+      </c>
+      <c r="D31">
+        <v>12218</v>
+      </c>
       <c r="E31" t="s">
         <v>66</v>
       </c>
@@ -8308,13 +8493,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>299</v>
       </c>
+      <c r="C32">
+        <v>11111</v>
+      </c>
+      <c r="D32">
+        <v>12218</v>
+      </c>
       <c r="E32" t="s">
         <v>66</v>
       </c>
@@ -8337,12 +8528,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11111</v>
+      </c>
+      <c r="D33">
+        <v>12218</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -8375,11 +8572,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8408,12 +8614,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>64</v>
       </c>
@@ -8433,7 +8639,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>65</v>
       </c>
@@ -8453,7 +8659,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>66</v>
       </c>
@@ -8473,7 +8679,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>67</v>
       </c>
@@ -8493,7 +8699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>68</v>
       </c>
@@ -8513,7 +8719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>69</v>
       </c>
@@ -8533,7 +8739,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>70</v>
       </c>
@@ -8553,7 +8759,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>71</v>
       </c>
@@ -8573,7 +8779,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>72</v>
       </c>
@@ -8593,7 +8799,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>73</v>
       </c>
@@ -8613,7 +8819,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>74</v>
       </c>
@@ -8633,7 +8839,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>75</v>
       </c>
@@ -8653,7 +8859,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>76</v>
       </c>
@@ -8673,7 +8879,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>77</v>
       </c>
@@ -8693,7 +8899,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>78</v>
       </c>
@@ -8713,7 +8919,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>79</v>
       </c>
@@ -8733,7 +8939,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>80</v>
       </c>
@@ -8753,7 +8959,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>81</v>
       </c>
@@ -8773,7 +8979,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>82</v>
       </c>
@@ -8793,7 +8999,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>83</v>
       </c>
@@ -8816,7 +9022,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>84</v>
       </c>
@@ -8839,7 +9045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>85</v>
       </c>
@@ -8862,7 +9068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>86</v>
       </c>
@@ -8885,7 +9091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>87</v>
       </c>
@@ -8911,7 +9117,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>88</v>
       </c>
@@ -8940,7 +9146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>89</v>
       </c>
@@ -8969,7 +9175,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>90</v>
       </c>
@@ -8998,7 +9204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>91</v>
       </c>
@@ -9027,7 +9233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>92</v>
       </c>
@@ -9056,7 +9262,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>93</v>
       </c>
@@ -9085,7 +9291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>94</v>
       </c>
@@ -9124,12 +9330,17 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:G33"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9152,7 +9363,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>63</v>
       </c>
@@ -9172,7 +9383,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>64</v>
       </c>
@@ -9192,7 +9403,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>65</v>
       </c>
@@ -9212,7 +9423,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>66</v>
       </c>
@@ -9232,7 +9443,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>67</v>
       </c>
@@ -9252,7 +9463,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>68</v>
       </c>
@@ -9272,7 +9483,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>69</v>
       </c>
@@ -9295,7 +9506,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>70</v>
       </c>
@@ -9318,7 +9529,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>71</v>
       </c>
@@ -9341,7 +9552,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>72</v>
       </c>
@@ -9364,7 +9575,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>73</v>
       </c>
@@ -9387,7 +9598,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>74</v>
       </c>
@@ -9410,7 +9621,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>75</v>
       </c>
@@ -9433,7 +9644,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>76</v>
       </c>
@@ -9456,7 +9667,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>77</v>
       </c>
@@ -9479,7 +9690,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>78</v>
       </c>
@@ -9502,7 +9713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>79</v>
       </c>
@@ -9525,7 +9736,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>80</v>
       </c>
@@ -9548,7 +9759,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>81</v>
       </c>
@@ -9571,7 +9782,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>82</v>
       </c>
@@ -9594,7 +9805,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>83</v>
       </c>
@@ -9617,7 +9828,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>84</v>
       </c>
@@ -9640,7 +9851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>85</v>
       </c>
@@ -9663,7 +9874,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>86</v>
       </c>
@@ -9686,7 +9897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>87</v>
       </c>
@@ -9709,7 +9920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>88</v>
       </c>
@@ -9732,7 +9943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>89</v>
       </c>
@@ -9755,7 +9966,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>90</v>
       </c>
@@ -9778,7 +9989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>91</v>
       </c>
@@ -9801,7 +10012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>92</v>
       </c>
@@ -9824,7 +10035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>93</v>
       </c>
@@ -9847,7 +10058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>94</v>
       </c>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,19 @@
     <sheet name="EduCodes-B" sheetId="4" r:id="rId4"/>
     <sheet name="EduCodes-C" sheetId="5" r:id="rId5"/>
     <sheet name="IncomeTables" sheetId="11" r:id="rId6"/>
-    <sheet name="FoodTables" sheetId="10" r:id="rId7"/>
-    <sheet name="LoanTables" sheetId="7" r:id="rId8"/>
-    <sheet name="HouseTables" sheetId="8" r:id="rId9"/>
-    <sheet name="RegionWeights" sheetId="9" r:id="rId10"/>
+    <sheet name="PubWageTable" sheetId="12" r:id="rId7"/>
+    <sheet name="FoodTables" sheetId="10" r:id="rId8"/>
+    <sheet name="LoanTables" sheetId="7" r:id="rId9"/>
+    <sheet name="HouseTables" sheetId="8" r:id="rId10"/>
+    <sheet name="RegionWeights" sheetId="9" r:id="rId11"/>
+    <sheet name="MedicalTables" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="351">
   <si>
     <t>Year</t>
   </si>
@@ -983,13 +985,106 @@
   </si>
   <si>
     <t>FoodExpenditure</t>
+  </si>
+  <si>
+    <t>P4S5</t>
+  </si>
+  <si>
+    <t>P4S01</t>
+  </si>
+  <si>
+    <t>P4S02</t>
+  </si>
+  <si>
+    <t>P4S03</t>
+  </si>
+  <si>
+    <t>P4S04</t>
+  </si>
+  <si>
+    <t>DYCOL11</t>
+  </si>
+  <si>
+    <t>DYCOL12</t>
+  </si>
+  <si>
+    <t>DYCOL13</t>
+  </si>
+  <si>
+    <t>DYCOL14</t>
+  </si>
+  <si>
+    <t>DYCOL15</t>
+  </si>
+  <si>
+    <t>COL02</t>
+  </si>
+  <si>
+    <t>indiv</t>
+  </si>
+  <si>
+    <t>shoghl</t>
+  </si>
+  <si>
+    <t>faaliat</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>hour_in_day</t>
+  </si>
+  <si>
+    <t>day_in_week</t>
+  </si>
+  <si>
+    <t>gross_income_m</t>
+  </si>
+  <si>
+    <t>gross_income_y</t>
+  </si>
+  <si>
+    <t>net_income_y</t>
+  </si>
+  <si>
+    <t>net_income_m</t>
+  </si>
+  <si>
+    <t>mostameri_m</t>
+  </si>
+  <si>
+    <t>mostameri_y</t>
+  </si>
+  <si>
+    <t>gheyremostameri_m</t>
+  </si>
+  <si>
+    <t>gheyremostameri_y</t>
+  </si>
+  <si>
+    <t>shaghel</t>
+  </si>
+  <si>
+    <t>P3S06</t>
+  </si>
+  <si>
+    <t>P3S05</t>
+  </si>
+  <si>
+    <t>Medical_Exp</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>measure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,6 +1242,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1493,8 +1595,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2093,6 +2195,767 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2">
+        <v>31117</v>
+      </c>
+      <c r="D2">
+        <v>31172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3">
+        <v>31117</v>
+      </c>
+      <c r="D3">
+        <v>31172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4">
+        <v>31117</v>
+      </c>
+      <c r="D4">
+        <v>31172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5">
+        <v>31117</v>
+      </c>
+      <c r="D5">
+        <v>31172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6">
+        <v>31117</v>
+      </c>
+      <c r="D6">
+        <v>31172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7">
+        <v>31117</v>
+      </c>
+      <c r="D7">
+        <v>31172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8">
+        <v>31117</v>
+      </c>
+      <c r="D8">
+        <v>31172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9">
+        <v>31117</v>
+      </c>
+      <c r="D9">
+        <v>31172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10">
+        <v>31117</v>
+      </c>
+      <c r="D10">
+        <v>31172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11">
+        <v>31117</v>
+      </c>
+      <c r="D11">
+        <v>31172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>31117</v>
+      </c>
+      <c r="D12">
+        <v>31172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13">
+        <v>31117</v>
+      </c>
+      <c r="D13">
+        <v>31172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>31117</v>
+      </c>
+      <c r="D14">
+        <v>31172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15">
+        <v>31117</v>
+      </c>
+      <c r="D15">
+        <v>31172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16">
+        <v>31117</v>
+      </c>
+      <c r="D16">
+        <v>31172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17">
+        <v>31117</v>
+      </c>
+      <c r="D17">
+        <v>31172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18">
+        <v>31117</v>
+      </c>
+      <c r="D18">
+        <v>31172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19">
+        <v>31117</v>
+      </c>
+      <c r="D19">
+        <v>31172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20">
+        <v>31117</v>
+      </c>
+      <c r="D20">
+        <v>31172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21">
+        <v>31117</v>
+      </c>
+      <c r="D21">
+        <v>31172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22">
+        <v>41111</v>
+      </c>
+      <c r="D22">
+        <v>42212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23">
+        <v>41111</v>
+      </c>
+      <c r="D23">
+        <v>42212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24">
+        <v>41111</v>
+      </c>
+      <c r="D24">
+        <v>42212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25">
+        <v>41111</v>
+      </c>
+      <c r="D25">
+        <v>42212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26">
+        <v>41111</v>
+      </c>
+      <c r="D26">
+        <v>42212</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27">
+        <v>41111</v>
+      </c>
+      <c r="D27">
+        <v>42212</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28">
+        <v>41111</v>
+      </c>
+      <c r="D28">
+        <v>42212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29">
+        <v>41111</v>
+      </c>
+      <c r="D29">
+        <v>42212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30">
+        <v>41111</v>
+      </c>
+      <c r="D30">
+        <v>42212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31">
+        <v>41111</v>
+      </c>
+      <c r="D31">
+        <v>42212</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32">
+        <v>41111</v>
+      </c>
+      <c r="D32">
+        <v>42212</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33">
+        <v>41111</v>
+      </c>
+      <c r="D33">
+        <v>42212</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2446,7 +3309,7 @@
       <c r="D30">
         <v>73892</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <f t="shared" ref="E30:E61" si="0">C30/D30</f>
         <v>326.12683375737572</v>
       </c>
@@ -2464,7 +3327,7 @@
       <c r="D31">
         <v>70684</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>358.97795823665911</v>
       </c>
@@ -2482,7 +3345,7 @@
       <c r="D32">
         <v>13788</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>1936.4882506527415</v>
       </c>
@@ -2500,7 +3363,7 @@
       <c r="D33">
         <v>13984</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>1981.6623998855835</v>
       </c>
@@ -2518,7 +3381,7 @@
       <c r="D34">
         <v>20590</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>1396.6504128217582</v>
       </c>
@@ -2536,7 +3399,7 @@
       <c r="D35">
         <v>28136</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>1060.4487133920957</v>
       </c>
@@ -2554,7 +3417,7 @@
       <c r="D36">
         <v>46930</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>659.53598977200102</v>
       </c>
@@ -2572,7 +3435,7 @@
       <c r="D37">
         <v>47255</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>679.4259866680776</v>
       </c>
@@ -2590,7 +3453,7 @@
       <c r="D38">
         <v>46095</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>715.36947608200478</v>
       </c>
@@ -2608,7 +3471,7 @@
       <c r="D39">
         <v>33141</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>1021.7615340514775</v>
       </c>
@@ -2626,7 +3489,7 @@
       <c r="D40">
         <v>60228</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>577.27727967058536</v>
       </c>
@@ -2644,7 +3507,7 @@
       <c r="D41">
         <v>100785</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>354.15368358386678</v>
       </c>
@@ -2662,7 +3525,7 @@
       <c r="D42">
         <v>52693</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>695.22612111665683</v>
       </c>
@@ -2680,7 +3543,7 @@
       <c r="D43">
         <v>52096</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>723.2837453931204</v>
       </c>
@@ -2698,7 +3561,7 @@
       <c r="D44">
         <v>39130</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>990.34684385382059</v>
       </c>
@@ -2716,7 +3579,7 @@
       <c r="D45">
         <v>60658</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>656.94404695176252</v>
       </c>
@@ -2734,7 +3597,7 @@
       <c r="D46">
         <v>55675</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>735.90879209699165</v>
       </c>
@@ -2752,7 +3615,7 @@
       <c r="D47">
         <v>55178</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>763.33221573815661</v>
       </c>
@@ -2770,7 +3633,7 @@
       <c r="D48">
         <v>66708</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>648.0122324159023</v>
       </c>
@@ -2788,7 +3651,7 @@
       <c r="D49">
         <v>48180</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>920.72613117476146</v>
       </c>
@@ -2806,7 +3669,7 @@
       <c r="D50">
         <v>49900</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>912.17975951903838</v>
       </c>
@@ -2824,7 +3687,7 @@
       <c r="D51">
         <v>54278</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>860.375658646229</v>
       </c>
@@ -2842,7 +3705,7 @@
       <c r="D52">
         <v>57986</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>832.26985824164456</v>
       </c>
@@ -2860,7 +3723,7 @@
       <c r="D53">
         <v>60662</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>812.50206059806794</v>
       </c>
@@ -2878,7 +3741,7 @@
       <c r="D54">
         <v>77271</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>651.47338587568424</v>
       </c>
@@ -2896,7 +3759,7 @@
       <c r="D55">
         <v>74398</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>691.09384660877981</v>
       </c>
@@ -2914,7 +3777,7 @@
       <c r="D56">
         <v>72441</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <f t="shared" si="0"/>
         <v>724.98999185544096</v>
       </c>
@@ -2932,7 +3795,7 @@
       <c r="D57">
         <v>71461</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <f t="shared" si="0"/>
         <v>750.71717440282112</v>
       </c>
@@ -2950,7 +3813,7 @@
       <c r="D58">
         <v>69567</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <f t="shared" si="0"/>
         <v>784.9555105150431</v>
       </c>
@@ -2968,7 +3831,7 @@
       <c r="D59">
         <v>68058</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <f t="shared" si="0"/>
         <v>815.51030003820267</v>
       </c>
@@ -2986,7 +3849,7 @@
       <c r="D60">
         <v>67482</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <f t="shared" si="0"/>
         <v>835.89697993539016</v>
       </c>
@@ -3004,7 +3867,7 @@
       <c r="D61">
         <v>67177</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <f t="shared" si="0"/>
         <v>853.37243401759531</v>
       </c>
@@ -3918,6 +4781,716 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="H21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3925,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -7224,21 +8797,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7257,249 +8830,608 @@
       <c r="F1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>63</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7510,10 +9442,1623 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" t="s">
+        <v>325</v>
+      </c>
+      <c r="O23" t="s">
+        <v>326</v>
+      </c>
+      <c r="P23" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>328</v>
+      </c>
+      <c r="R23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>325</v>
+      </c>
+      <c r="O24" t="s">
+        <v>326</v>
+      </c>
+      <c r="P24" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>328</v>
+      </c>
+      <c r="R24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
+        <v>325</v>
+      </c>
+      <c r="O25" t="s">
+        <v>326</v>
+      </c>
+      <c r="P25" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>328</v>
+      </c>
+      <c r="R25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>325</v>
+      </c>
+      <c r="O26" t="s">
+        <v>326</v>
+      </c>
+      <c r="P26" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>328</v>
+      </c>
+      <c r="R26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N27" t="s">
+        <v>325</v>
+      </c>
+      <c r="O27" t="s">
+        <v>326</v>
+      </c>
+      <c r="P27" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>328</v>
+      </c>
+      <c r="R27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" t="s">
+        <v>325</v>
+      </c>
+      <c r="O28" t="s">
+        <v>326</v>
+      </c>
+      <c r="P28" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>328</v>
+      </c>
+      <c r="R28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" t="s">
+        <v>325</v>
+      </c>
+      <c r="O29" t="s">
+        <v>326</v>
+      </c>
+      <c r="P29" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>328</v>
+      </c>
+      <c r="R29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>277</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" t="s">
+        <v>325</v>
+      </c>
+      <c r="O30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P30" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>328</v>
+      </c>
+      <c r="R30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" t="s">
+        <v>325</v>
+      </c>
+      <c r="O31" t="s">
+        <v>326</v>
+      </c>
+      <c r="P31" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>328</v>
+      </c>
+      <c r="R31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>325</v>
+      </c>
+      <c r="O32" t="s">
+        <v>326</v>
+      </c>
+      <c r="P32" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>328</v>
+      </c>
+      <c r="R32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N33" t="s">
+        <v>325</v>
+      </c>
+      <c r="O33" t="s">
+        <v>326</v>
+      </c>
+      <c r="P33" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>328</v>
+      </c>
+      <c r="R33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8568,7 +12113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -9323,765 +12868,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2">
-        <v>31117</v>
-      </c>
-      <c r="D2">
-        <v>31172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3">
-        <v>31117</v>
-      </c>
-      <c r="D3">
-        <v>31172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4">
-        <v>31117</v>
-      </c>
-      <c r="D4">
-        <v>31172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5">
-        <v>31117</v>
-      </c>
-      <c r="D5">
-        <v>31172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6">
-        <v>31117</v>
-      </c>
-      <c r="D6">
-        <v>31172</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7">
-        <v>31117</v>
-      </c>
-      <c r="D7">
-        <v>31172</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8">
-        <v>31117</v>
-      </c>
-      <c r="D8">
-        <v>31172</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9">
-        <v>31117</v>
-      </c>
-      <c r="D9">
-        <v>31172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10">
-        <v>31117</v>
-      </c>
-      <c r="D10">
-        <v>31172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11">
-        <v>31117</v>
-      </c>
-      <c r="D11">
-        <v>31172</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12">
-        <v>31117</v>
-      </c>
-      <c r="D12">
-        <v>31172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13">
-        <v>31117</v>
-      </c>
-      <c r="D13">
-        <v>31172</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14">
-        <v>31117</v>
-      </c>
-      <c r="D14">
-        <v>31172</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15">
-        <v>31117</v>
-      </c>
-      <c r="D15">
-        <v>31172</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16">
-        <v>31117</v>
-      </c>
-      <c r="D16">
-        <v>31172</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17">
-        <v>31117</v>
-      </c>
-      <c r="D17">
-        <v>31172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18">
-        <v>31117</v>
-      </c>
-      <c r="D18">
-        <v>31172</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19">
-        <v>31117</v>
-      </c>
-      <c r="D19">
-        <v>31172</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20">
-        <v>31117</v>
-      </c>
-      <c r="D20">
-        <v>31172</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21">
-        <v>31117</v>
-      </c>
-      <c r="D21">
-        <v>31172</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22">
-        <v>41111</v>
-      </c>
-      <c r="D22">
-        <v>42212</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23">
-        <v>41111</v>
-      </c>
-      <c r="D23">
-        <v>42212</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24">
-        <v>41111</v>
-      </c>
-      <c r="D24">
-        <v>42212</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25">
-        <v>41111</v>
-      </c>
-      <c r="D25">
-        <v>42212</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26">
-        <v>41111</v>
-      </c>
-      <c r="D26">
-        <v>42212</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27">
-        <v>41111</v>
-      </c>
-      <c r="D27">
-        <v>42212</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28">
-        <v>41111</v>
-      </c>
-      <c r="D28">
-        <v>42212</v>
-      </c>
-      <c r="E28" t="s">
-        <v>284</v>
-      </c>
-      <c r="F28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29">
-        <v>41111</v>
-      </c>
-      <c r="D29">
-        <v>42212</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30">
-        <v>41111</v>
-      </c>
-      <c r="D30">
-        <v>42212</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31">
-        <v>41111</v>
-      </c>
-      <c r="D31">
-        <v>42212</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32">
-        <v>41111</v>
-      </c>
-      <c r="D32">
-        <v>42212</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33">
-        <v>41111</v>
-      </c>
-      <c r="D33">
-        <v>42212</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="HouseTables" sheetId="8" r:id="rId10"/>
     <sheet name="RegionWeights" sheetId="9" r:id="rId11"/>
     <sheet name="MedicalTables" sheetId="13" r:id="rId12"/>
+    <sheet name="EducationTables" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="354">
   <si>
     <t>Year</t>
   </si>
@@ -1078,6 +1079,15 @@
   </si>
   <si>
     <t>measure</t>
+  </si>
+  <si>
+    <t>P3S07</t>
+  </si>
+  <si>
+    <t>P3S08</t>
+  </si>
+  <si>
+    <t>EduExpenditure</t>
   </si>
 </sst>
 </file>
@@ -4788,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5487,6 +5497,699 @@
       </c>
       <c r="H33" t="s">
         <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9">
+        <v>72114</v>
+      </c>
+      <c r="D9">
+        <v>72191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10">
+        <v>72114</v>
+      </c>
+      <c r="D10">
+        <v>72191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11">
+        <v>72114</v>
+      </c>
+      <c r="D11">
+        <v>72191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12">
+        <v>72114</v>
+      </c>
+      <c r="D12">
+        <v>72191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13">
+        <v>72114</v>
+      </c>
+      <c r="D13">
+        <v>72191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14">
+        <v>72114</v>
+      </c>
+      <c r="D14">
+        <v>72191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15">
+        <v>72114</v>
+      </c>
+      <c r="D15">
+        <v>72191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16">
+        <v>72114</v>
+      </c>
+      <c r="D16">
+        <v>72191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17">
+        <v>72114</v>
+      </c>
+      <c r="D17">
+        <v>72191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18">
+        <v>72114</v>
+      </c>
+      <c r="D18">
+        <v>72191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19">
+        <v>72114</v>
+      </c>
+      <c r="D19">
+        <v>72191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20">
+        <v>72114</v>
+      </c>
+      <c r="D20">
+        <v>72191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21">
+        <v>72114</v>
+      </c>
+      <c r="D21">
+        <v>72191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22">
+        <v>72114</v>
+      </c>
+      <c r="D22">
+        <v>72191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23">
+        <v>101111</v>
+      </c>
+      <c r="D23">
+        <v>105115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24">
+        <v>101111</v>
+      </c>
+      <c r="D24">
+        <v>105115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25">
+        <v>101111</v>
+      </c>
+      <c r="D25">
+        <v>105115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26">
+        <v>101111</v>
+      </c>
+      <c r="D26">
+        <v>105115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27">
+        <v>101111</v>
+      </c>
+      <c r="D27">
+        <v>105115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28">
+        <v>101111</v>
+      </c>
+      <c r="D28">
+        <v>105115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29">
+        <v>101111</v>
+      </c>
+      <c r="D29">
+        <v>105115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>101111</v>
+      </c>
+      <c r="D30">
+        <v>105115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>101111</v>
+      </c>
+      <c r="D31">
+        <v>105115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32">
+        <v>101111</v>
+      </c>
+      <c r="D32">
+        <v>105115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33">
+        <v>101111</v>
+      </c>
+      <c r="D33">
+        <v>105115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8800,7 +9503,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9327,7 +10030,7 @@
       <c r="D28" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G28" t="s">
@@ -9347,7 +10050,7 @@
       <c r="D29" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G29" t="s">
@@ -9367,7 +10070,7 @@
       <c r="D30" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G30" t="s">
@@ -9387,7 +10090,7 @@
       <c r="D31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G31" t="s">
@@ -9407,7 +10110,7 @@
       <c r="D32" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G32" t="s">
@@ -9427,7 +10130,7 @@
       <c r="D33" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G33" t="s">
@@ -9445,7 +10148,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11058,7 +11761,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:L33"/>
+      <selection activeCell="G19" sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="352">
   <si>
     <t>Year</t>
   </si>
@@ -1079,12 +1079,6 @@
   </si>
   <si>
     <t>measure</t>
-  </si>
-  <si>
-    <t>P3S07</t>
-  </si>
-  <si>
-    <t>P3S08</t>
   </si>
   <si>
     <t>EduExpenditure</t>
@@ -1920,7 +1914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2207,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2260,6 +2254,9 @@
       <c r="F2" t="s">
         <v>274</v>
       </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -2280,6 +2277,9 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -2300,6 +2300,9 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -2320,6 +2323,9 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -2340,6 +2346,9 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -2359,6 +2368,9 @@
       </c>
       <c r="F7" t="s">
         <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5509,7 +5521,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5537,7 +5549,7 @@
         <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5545,10 +5557,22 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C2">
+        <v>72114</v>
+      </c>
+      <c r="D2">
+        <v>72170</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5556,10 +5580,22 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>72114</v>
+      </c>
+      <c r="D3">
+        <v>72170</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5567,10 +5603,22 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C4">
+        <v>72114</v>
+      </c>
+      <c r="D4">
+        <v>72170</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5578,10 +5626,22 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C5">
+        <v>72114</v>
+      </c>
+      <c r="D5">
+        <v>72170</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5589,10 +5649,22 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C6">
+        <v>72114</v>
+      </c>
+      <c r="D6">
+        <v>72170</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5600,10 +5672,22 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C7">
+        <v>72114</v>
+      </c>
+      <c r="D7">
+        <v>72170</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5611,10 +5695,22 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C8">
+        <v>72114</v>
+      </c>
+      <c r="D8">
+        <v>72170</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5622,7 +5718,7 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C9">
         <v>72114</v>
@@ -5645,7 +5741,7 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C10">
         <v>72114</v>
@@ -5668,7 +5764,7 @@
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="C11">
         <v>72114</v>
@@ -5691,7 +5787,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="C12">
         <v>72114</v>
@@ -5714,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="C13">
         <v>72114</v>
@@ -5737,7 +5833,7 @@
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="C14">
         <v>72114</v>
@@ -10148,7 +10244,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11761,7 +11857,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="A1:L33"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11833,6 +11929,15 @@
       <c r="F2" t="s">
         <v>274</v>
       </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
@@ -11853,6 +11958,15 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
@@ -11873,6 +11987,15 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
@@ -11893,6 +12016,15 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
@@ -11913,6 +12045,15 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
@@ -11932,6 +12073,15 @@
       </c>
       <c r="F7" t="s">
         <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:12">

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="379">
   <si>
     <t>Year</t>
   </si>
@@ -1129,6 +1129,45 @@
   </si>
   <si>
     <t>SubsidyTable</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>month_number</t>
+  </si>
+  <si>
+    <t>Subsidy</t>
+  </si>
+  <si>
+    <t>Dycol01</t>
+  </si>
+  <si>
+    <t>Dycol02</t>
+  </si>
+  <si>
+    <t>Dycol03</t>
+  </si>
+  <si>
+    <t>Dycol04</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>homemade</t>
+  </si>
+  <si>
+    <t>intra</t>
+  </si>
+  <si>
+    <t>retirement</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,11 +1689,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1968,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2253,15 +2303,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2313,254 +2366,257 @@
       <c r="Q1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="O2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="O4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="O5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="O6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="P6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="P7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>69</v>
       </c>
@@ -2603,8 +2659,11 @@
       <c r="Q8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>70</v>
       </c>
@@ -2647,8 +2706,11 @@
       <c r="Q9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>71</v>
       </c>
@@ -2691,8 +2753,11 @@
       <c r="Q10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>72</v>
       </c>
@@ -2735,8 +2800,11 @@
       <c r="Q11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>73</v>
       </c>
@@ -2779,8 +2847,11 @@
       <c r="Q12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>74</v>
       </c>
@@ -2826,8 +2897,11 @@
       <c r="Q13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>75</v>
       </c>
@@ -2873,8 +2947,11 @@
       <c r="Q14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>76</v>
       </c>
@@ -2920,8 +2997,11 @@
       <c r="Q15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>77</v>
       </c>
@@ -2967,8 +3047,11 @@
       <c r="Q16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>78</v>
       </c>
@@ -3014,8 +3097,11 @@
       <c r="Q17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>79</v>
       </c>
@@ -3061,8 +3147,11 @@
       <c r="Q18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>80</v>
       </c>
@@ -3108,8 +3197,11 @@
       <c r="Q19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>81</v>
       </c>
@@ -3155,8 +3247,11 @@
       <c r="Q20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>82</v>
       </c>
@@ -3202,8 +3297,11 @@
       <c r="Q21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>83</v>
       </c>
@@ -3249,8 +3347,11 @@
       <c r="Q22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>84</v>
       </c>
@@ -3302,8 +3403,11 @@
       <c r="Q23" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>85</v>
       </c>
@@ -3355,8 +3459,11 @@
       <c r="Q24" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>86</v>
       </c>
@@ -3408,8 +3515,11 @@
       <c r="Q25" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>87</v>
       </c>
@@ -3461,8 +3571,11 @@
       <c r="Q26" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>88</v>
       </c>
@@ -3514,8 +3627,11 @@
       <c r="Q27" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3567,8 +3683,11 @@
       <c r="Q28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>90</v>
       </c>
@@ -3620,8 +3739,11 @@
       <c r="Q29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>91</v>
       </c>
@@ -3673,8 +3795,11 @@
       <c r="Q30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>92</v>
       </c>
@@ -3726,8 +3851,11 @@
       <c r="Q31" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>93</v>
       </c>
@@ -3779,8 +3907,11 @@
       <c r="Q32" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>94</v>
       </c>
@@ -3831,6 +3962,9 @@
       </c>
       <c r="Q33" t="s">
         <v>329</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3840,276 +3974,1030 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="C1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6">
         <v>64</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6">
         <v>65</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6">
         <v>66</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
         <v>67</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6">
         <v>68</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
         <v>69</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
         <v>72</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
         <v>75</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
         <v>76</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
         <v>77</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
         <v>78</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
         <v>81</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
         <v>82</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
         <v>83</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
         <v>84</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
         <v>85</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
         <v>86</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
         <v>87</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
         <v>88</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
         <v>89</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
         <v>90</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
         <v>91</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
         <v>92</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
         <v>93</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
         <v>94</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>323</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4119,224 +5007,154 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>324</v>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +5167,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13904,8 +14722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14731,10 +15549,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14750,7 +15568,7 @@
     <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14805,8 +15623,11 @@
       <c r="R1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>63</v>
       </c>
@@ -14825,20 +15646,11 @@
       <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>64</v>
       </c>
@@ -14857,20 +15669,11 @@
       <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>65</v>
       </c>
@@ -14889,20 +15692,11 @@
       <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>66</v>
       </c>
@@ -14921,20 +15715,11 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>67</v>
       </c>
@@ -14953,20 +15738,11 @@
       <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>68</v>
       </c>
@@ -14985,20 +15761,11 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>69</v>
       </c>
@@ -15032,8 +15799,11 @@
       <c r="R8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>70</v>
       </c>
@@ -15079,8 +15849,11 @@
       <c r="R9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>71</v>
       </c>
@@ -15126,8 +15899,11 @@
       <c r="R10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>72</v>
       </c>
@@ -15173,8 +15949,11 @@
       <c r="R11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>73</v>
       </c>
@@ -15220,8 +15999,11 @@
       <c r="R12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>74</v>
       </c>
@@ -15270,8 +16052,11 @@
       <c r="R13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>75</v>
       </c>
@@ -15320,8 +16105,11 @@
       <c r="R14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>76</v>
       </c>
@@ -15370,8 +16158,11 @@
       <c r="R15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>77</v>
       </c>
@@ -15420,8 +16211,11 @@
       <c r="R16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>78</v>
       </c>
@@ -15470,8 +16264,11 @@
       <c r="R17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>79</v>
       </c>
@@ -15520,8 +16317,11 @@
       <c r="R18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>80</v>
       </c>
@@ -15570,8 +16370,11 @@
       <c r="R19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>81</v>
       </c>
@@ -15620,8 +16423,11 @@
       <c r="R20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>82</v>
       </c>
@@ -15670,8 +16476,11 @@
       <c r="R21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>83</v>
       </c>
@@ -15720,8 +16529,11 @@
       <c r="R22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>84</v>
       </c>
@@ -15776,8 +16588,11 @@
       <c r="R23" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>85</v>
       </c>
@@ -15832,8 +16647,11 @@
       <c r="R24" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>86</v>
       </c>
@@ -15888,8 +16706,11 @@
       <c r="R25" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>87</v>
       </c>
@@ -15944,8 +16765,11 @@
       <c r="R26" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>88</v>
       </c>
@@ -16000,8 +16824,11 @@
       <c r="R27" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>89</v>
       </c>
@@ -16056,8 +16883,11 @@
       <c r="R28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>90</v>
       </c>
@@ -16112,8 +16942,11 @@
       <c r="R29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>91</v>
       </c>
@@ -16168,8 +17001,11 @@
       <c r="R30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>92</v>
       </c>
@@ -16224,8 +17060,11 @@
       <c r="R31" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>93</v>
       </c>
@@ -16280,8 +17119,11 @@
       <c r="R32" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>94</v>
       </c>
@@ -16335,6 +17177,9 @@
       </c>
       <c r="R33" t="s">
         <v>329</v>
+      </c>
+      <c r="S33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -16344,10 +17189,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="S1" sqref="S1:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16363,7 +17208,7 @@
     <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16418,248 +17263,203 @@
       <c r="R1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="N2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="R2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>330</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="R4" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="R5" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="P6" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="R6" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>330</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="P7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="R7" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>69</v>
       </c>
@@ -16693,8 +17493,11 @@
       <c r="R8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>70</v>
       </c>
@@ -16740,8 +17543,11 @@
       <c r="R9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>71</v>
       </c>
@@ -16787,8 +17593,11 @@
       <c r="R10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>72</v>
       </c>
@@ -16834,8 +17643,11 @@
       <c r="R11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>73</v>
       </c>
@@ -16881,8 +17693,11 @@
       <c r="R12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>74</v>
       </c>
@@ -16931,8 +17746,11 @@
       <c r="R13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>75</v>
       </c>
@@ -16981,8 +17799,11 @@
       <c r="R14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>76</v>
       </c>
@@ -17031,8 +17852,11 @@
       <c r="R15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>77</v>
       </c>
@@ -17081,8 +17905,11 @@
       <c r="R16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>78</v>
       </c>
@@ -17131,8 +17958,11 @@
       <c r="R17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>79</v>
       </c>
@@ -17181,8 +18011,11 @@
       <c r="R18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>80</v>
       </c>
@@ -17231,8 +18064,11 @@
       <c r="R19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>81</v>
       </c>
@@ -17281,8 +18117,11 @@
       <c r="R20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>82</v>
       </c>
@@ -17331,8 +18170,11 @@
       <c r="R21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>83</v>
       </c>
@@ -17381,8 +18223,11 @@
       <c r="R22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>84</v>
       </c>
@@ -17437,8 +18282,11 @@
       <c r="R23" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>85</v>
       </c>
@@ -17493,8 +18341,11 @@
       <c r="R24" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>86</v>
       </c>
@@ -17549,8 +18400,11 @@
       <c r="R25" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>87</v>
       </c>
@@ -17605,8 +18459,11 @@
       <c r="R26" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>88</v>
       </c>
@@ -17661,8 +18518,11 @@
       <c r="R27" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>89</v>
       </c>
@@ -17717,8 +18577,11 @@
       <c r="R28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>90</v>
       </c>
@@ -17773,8 +18636,11 @@
       <c r="R29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>91</v>
       </c>
@@ -17829,8 +18695,11 @@
       <c r="R30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>92</v>
       </c>
@@ -17885,8 +18754,11 @@
       <c r="R31" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>93</v>
       </c>
@@ -17941,8 +18813,11 @@
       <c r="R32" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>94</v>
       </c>
@@ -17996,6 +18871,9 @@
       </c>
       <c r="R33" t="s">
         <v>329</v>
+      </c>
+      <c r="S33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -18005,15 +18883,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18065,8 +18947,11 @@
       <c r="Q1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>63</v>
       </c>
@@ -18100,8 +18985,11 @@
       <c r="Q2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>64</v>
       </c>
@@ -18135,8 +19023,11 @@
       <c r="Q3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>65</v>
       </c>
@@ -18170,8 +19061,11 @@
       <c r="Q4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>66</v>
       </c>
@@ -18205,8 +19099,11 @@
       <c r="Q5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>67</v>
       </c>
@@ -18240,8 +19137,11 @@
       <c r="Q6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>68</v>
       </c>
@@ -18275,8 +19175,11 @@
       <c r="Q7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>69</v>
       </c>
@@ -18319,8 +19222,11 @@
       <c r="Q8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>70</v>
       </c>
@@ -18363,8 +19269,11 @@
       <c r="Q9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>71</v>
       </c>
@@ -18407,8 +19316,11 @@
       <c r="Q10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>72</v>
       </c>
@@ -18451,8 +19363,11 @@
       <c r="Q11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>73</v>
       </c>
@@ -18495,8 +19410,11 @@
       <c r="Q12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>74</v>
       </c>
@@ -18542,8 +19460,11 @@
       <c r="Q13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>75</v>
       </c>
@@ -18589,8 +19510,11 @@
       <c r="Q14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>76</v>
       </c>
@@ -18636,8 +19560,11 @@
       <c r="Q15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>77</v>
       </c>
@@ -18683,8 +19610,11 @@
       <c r="Q16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>78</v>
       </c>
@@ -18730,8 +19660,11 @@
       <c r="Q17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>79</v>
       </c>
@@ -18777,8 +19710,11 @@
       <c r="Q18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>80</v>
       </c>
@@ -18824,8 +19760,11 @@
       <c r="Q19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>81</v>
       </c>
@@ -18871,8 +19810,11 @@
       <c r="Q20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>82</v>
       </c>
@@ -18918,8 +19860,11 @@
       <c r="Q21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>83</v>
       </c>
@@ -18965,8 +19910,11 @@
       <c r="Q22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>84</v>
       </c>
@@ -19018,8 +19966,11 @@
       <c r="Q23" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>85</v>
       </c>
@@ -19071,8 +20022,11 @@
       <c r="Q24" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>86</v>
       </c>
@@ -19124,8 +20078,11 @@
       <c r="Q25" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>87</v>
       </c>
@@ -19177,8 +20134,11 @@
       <c r="Q26" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>88</v>
       </c>
@@ -19230,8 +20190,11 @@
       <c r="Q27" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>89</v>
       </c>
@@ -19283,8 +20246,11 @@
       <c r="Q28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>90</v>
       </c>
@@ -19336,8 +20302,11 @@
       <c r="Q29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>91</v>
       </c>
@@ -19389,8 +20358,11 @@
       <c r="Q30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>92</v>
       </c>
@@ -19442,8 +20414,11 @@
       <c r="Q31" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>93</v>
       </c>
@@ -19495,8 +20470,11 @@
       <c r="Q32" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>94</v>
       </c>
@@ -19547,6 +20525,9 @@
       </c>
       <c r="Q33" t="s">
         <v>329</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
     <sheet name="RegionWeights" sheetId="9" r:id="rId16"/>
     <sheet name="MedicalTables" sheetId="13" r:id="rId17"/>
     <sheet name="EducationTables" sheetId="14" r:id="rId18"/>
+    <sheet name="Expenditure Tables" sheetId="20" r:id="rId19"/>
+    <sheet name="ClothTables" sheetId="21" r:id="rId20"/>
+    <sheet name="EnergyTables" sheetId="22" r:id="rId21"/>
+    <sheet name="FurnitureTables" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5140" uniqueCount="404">
   <si>
     <t>Year</t>
   </si>
@@ -1171,6 +1175,78 @@
   </si>
   <si>
     <t>Dycol05</t>
+  </si>
+  <si>
+    <t>P3S02</t>
+  </si>
+  <si>
+    <t>P3S07</t>
+  </si>
+  <si>
+    <t>P3S08</t>
+  </si>
+  <si>
+    <t>P3S10</t>
+  </si>
+  <si>
+    <t>P3S11</t>
+  </si>
+  <si>
+    <t>P3S12</t>
+  </si>
+  <si>
+    <t>P3S14</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>cigar</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>communiccation</t>
+  </si>
+  <si>
+    <t>amusement</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>badavam</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>Cloth_Exp</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Energy_Exp</t>
+  </si>
+  <si>
+    <t>Furniture_Exp</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3979,8 +4055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7062,7 +7138,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F2" sqref="F2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9671,7 +9747,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11438,6 +11514,1542 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M4" t="s">
+        <v>382</v>
+      </c>
+      <c r="N4" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M5" t="s">
+        <v>382</v>
+      </c>
+      <c r="N5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5" t="s">
+        <v>383</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" t="s">
+        <v>381</v>
+      </c>
+      <c r="M6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6" t="s">
+        <v>383</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M7" t="s">
+        <v>382</v>
+      </c>
+      <c r="N7" t="s">
+        <v>273</v>
+      </c>
+      <c r="O7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" t="s">
+        <v>383</v>
+      </c>
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" t="s">
+        <v>381</v>
+      </c>
+      <c r="M9" t="s">
+        <v>382</v>
+      </c>
+      <c r="N9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O9" t="s">
+        <v>383</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" t="s">
+        <v>381</v>
+      </c>
+      <c r="M10" t="s">
+        <v>382</v>
+      </c>
+      <c r="N10" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" t="s">
+        <v>383</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" t="s">
+        <v>381</v>
+      </c>
+      <c r="M11" t="s">
+        <v>382</v>
+      </c>
+      <c r="N11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O11" t="s">
+        <v>383</v>
+      </c>
+      <c r="P11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I12" t="s">
+        <v>346</v>
+      </c>
+      <c r="J12" t="s">
+        <v>381</v>
+      </c>
+      <c r="M12" t="s">
+        <v>382</v>
+      </c>
+      <c r="N12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O12" t="s">
+        <v>383</v>
+      </c>
+      <c r="P12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M13" t="s">
+        <v>382</v>
+      </c>
+      <c r="N13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O13" t="s">
+        <v>383</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" t="s">
+        <v>381</v>
+      </c>
+      <c r="M14" t="s">
+        <v>382</v>
+      </c>
+      <c r="N14" t="s">
+        <v>273</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H15" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" t="s">
+        <v>381</v>
+      </c>
+      <c r="M15" t="s">
+        <v>382</v>
+      </c>
+      <c r="N15" t="s">
+        <v>273</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" t="s">
+        <v>346</v>
+      </c>
+      <c r="J16" t="s">
+        <v>381</v>
+      </c>
+      <c r="M16" t="s">
+        <v>382</v>
+      </c>
+      <c r="N16" t="s">
+        <v>273</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" t="s">
+        <v>381</v>
+      </c>
+      <c r="M17" t="s">
+        <v>382</v>
+      </c>
+      <c r="N17" t="s">
+        <v>273</v>
+      </c>
+      <c r="O17" t="s">
+        <v>383</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" t="s">
+        <v>346</v>
+      </c>
+      <c r="I18" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="M18" t="s">
+        <v>382</v>
+      </c>
+      <c r="N18" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" t="s">
+        <v>383</v>
+      </c>
+      <c r="P18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H19" t="s">
+        <v>346</v>
+      </c>
+      <c r="I19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J19" t="s">
+        <v>381</v>
+      </c>
+      <c r="M19" t="s">
+        <v>382</v>
+      </c>
+      <c r="N19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O19" t="s">
+        <v>383</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" t="s">
+        <v>346</v>
+      </c>
+      <c r="J20" t="s">
+        <v>381</v>
+      </c>
+      <c r="M20" t="s">
+        <v>382</v>
+      </c>
+      <c r="N20" t="s">
+        <v>273</v>
+      </c>
+      <c r="O20" t="s">
+        <v>383</v>
+      </c>
+      <c r="P20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" t="s">
+        <v>347</v>
+      </c>
+      <c r="H21" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" t="s">
+        <v>346</v>
+      </c>
+      <c r="J21" t="s">
+        <v>381</v>
+      </c>
+      <c r="M21" t="s">
+        <v>382</v>
+      </c>
+      <c r="N21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O21" t="s">
+        <v>383</v>
+      </c>
+      <c r="P21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" t="s">
+        <v>347</v>
+      </c>
+      <c r="G22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" t="s">
+        <v>382</v>
+      </c>
+      <c r="J22" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" t="s">
+        <v>383</v>
+      </c>
+      <c r="L22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N22" t="s">
+        <v>276</v>
+      </c>
+      <c r="O22" t="s">
+        <v>386</v>
+      </c>
+      <c r="P22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I23" t="s">
+        <v>382</v>
+      </c>
+      <c r="J23" t="s">
+        <v>273</v>
+      </c>
+      <c r="K23" t="s">
+        <v>383</v>
+      </c>
+      <c r="L23" t="s">
+        <v>384</v>
+      </c>
+      <c r="M23" t="s">
+        <v>385</v>
+      </c>
+      <c r="N23" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" t="s">
+        <v>347</v>
+      </c>
+      <c r="G24" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J24" t="s">
+        <v>273</v>
+      </c>
+      <c r="K24" t="s">
+        <v>383</v>
+      </c>
+      <c r="L24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M24" t="s">
+        <v>385</v>
+      </c>
+      <c r="N24" t="s">
+        <v>276</v>
+      </c>
+      <c r="O24" t="s">
+        <v>386</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25" t="s">
+        <v>382</v>
+      </c>
+      <c r="J25" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" t="s">
+        <v>384</v>
+      </c>
+      <c r="M25" t="s">
+        <v>385</v>
+      </c>
+      <c r="N25" t="s">
+        <v>276</v>
+      </c>
+      <c r="O25" t="s">
+        <v>386</v>
+      </c>
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" t="s">
+        <v>346</v>
+      </c>
+      <c r="H26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J26" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" t="s">
+        <v>383</v>
+      </c>
+      <c r="L26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M26" t="s">
+        <v>385</v>
+      </c>
+      <c r="N26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O26" t="s">
+        <v>386</v>
+      </c>
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" t="s">
+        <v>287</v>
+      </c>
+      <c r="F27" t="s">
+        <v>347</v>
+      </c>
+      <c r="G27" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" t="s">
+        <v>381</v>
+      </c>
+      <c r="I27" t="s">
+        <v>382</v>
+      </c>
+      <c r="J27" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" t="s">
+        <v>383</v>
+      </c>
+      <c r="L27" t="s">
+        <v>384</v>
+      </c>
+      <c r="M27" t="s">
+        <v>385</v>
+      </c>
+      <c r="N27" t="s">
+        <v>276</v>
+      </c>
+      <c r="O27" t="s">
+        <v>386</v>
+      </c>
+      <c r="P27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" t="s">
+        <v>382</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>383</v>
+      </c>
+      <c r="L28" t="s">
+        <v>384</v>
+      </c>
+      <c r="M28" t="s">
+        <v>385</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O28" t="s">
+        <v>386</v>
+      </c>
+      <c r="P28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" t="s">
+        <v>347</v>
+      </c>
+      <c r="G29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H29" t="s">
+        <v>381</v>
+      </c>
+      <c r="I29" t="s">
+        <v>382</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>383</v>
+      </c>
+      <c r="L29" t="s">
+        <v>384</v>
+      </c>
+      <c r="M29" t="s">
+        <v>385</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>386</v>
+      </c>
+      <c r="P29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" t="s">
+        <v>346</v>
+      </c>
+      <c r="H30" t="s">
+        <v>381</v>
+      </c>
+      <c r="I30" t="s">
+        <v>382</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" t="s">
+        <v>385</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>386</v>
+      </c>
+      <c r="P30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" t="s">
+        <v>287</v>
+      </c>
+      <c r="F31" t="s">
+        <v>347</v>
+      </c>
+      <c r="G31" t="s">
+        <v>346</v>
+      </c>
+      <c r="H31" t="s">
+        <v>381</v>
+      </c>
+      <c r="I31" t="s">
+        <v>382</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L31" t="s">
+        <v>384</v>
+      </c>
+      <c r="M31" t="s">
+        <v>385</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>386</v>
+      </c>
+      <c r="P31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G32" t="s">
+        <v>346</v>
+      </c>
+      <c r="H32" t="s">
+        <v>381</v>
+      </c>
+      <c r="I32" t="s">
+        <v>382</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>383</v>
+      </c>
+      <c r="L32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" t="s">
+        <v>347</v>
+      </c>
+      <c r="G33" t="s">
+        <v>346</v>
+      </c>
+      <c r="H33" t="s">
+        <v>381</v>
+      </c>
+      <c r="I33" t="s">
+        <v>382</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>383</v>
+      </c>
+      <c r="L33" t="s">
+        <v>384</v>
+      </c>
+      <c r="M33" t="s">
+        <v>385</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>386</v>
+      </c>
+      <c r="P33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
@@ -12694,6 +14306,2361 @@
       </c>
       <c r="N33" t="s">
         <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2">
+        <v>32110</v>
+      </c>
+      <c r="D2">
+        <v>32244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3">
+        <v>32110</v>
+      </c>
+      <c r="D3">
+        <v>32244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4">
+        <v>32110</v>
+      </c>
+      <c r="D4">
+        <v>32244</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5">
+        <v>32110</v>
+      </c>
+      <c r="D5">
+        <v>32244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6">
+        <v>32110</v>
+      </c>
+      <c r="D6">
+        <v>32244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7">
+        <v>32110</v>
+      </c>
+      <c r="D7">
+        <v>32244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8">
+        <v>32110</v>
+      </c>
+      <c r="D8">
+        <v>32244</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9">
+        <v>32110</v>
+      </c>
+      <c r="D9">
+        <v>32244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10">
+        <v>32110</v>
+      </c>
+      <c r="D10">
+        <v>32244</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11">
+        <v>32110</v>
+      </c>
+      <c r="D11">
+        <v>32244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>32110</v>
+      </c>
+      <c r="D12">
+        <v>32244</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13">
+        <v>32110</v>
+      </c>
+      <c r="D13">
+        <v>32244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>32110</v>
+      </c>
+      <c r="D14">
+        <v>32244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15">
+        <v>32110</v>
+      </c>
+      <c r="D15">
+        <v>32244</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16">
+        <v>32110</v>
+      </c>
+      <c r="D16">
+        <v>32244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17">
+        <v>32110</v>
+      </c>
+      <c r="D17">
+        <v>32244</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18">
+        <v>32110</v>
+      </c>
+      <c r="D18">
+        <v>32244</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19">
+        <v>32110</v>
+      </c>
+      <c r="D19">
+        <v>32244</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20">
+        <v>32110</v>
+      </c>
+      <c r="D20">
+        <v>32244</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21">
+        <v>32110</v>
+      </c>
+      <c r="D21">
+        <v>32244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22">
+        <v>44111</v>
+      </c>
+      <c r="D22">
+        <v>45414</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23">
+        <v>44111</v>
+      </c>
+      <c r="D23">
+        <v>45414</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24">
+        <v>44111</v>
+      </c>
+      <c r="D24">
+        <v>45414</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25">
+        <v>44111</v>
+      </c>
+      <c r="D25">
+        <v>45414</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26">
+        <v>44111</v>
+      </c>
+      <c r="D26">
+        <v>45414</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27">
+        <v>44111</v>
+      </c>
+      <c r="D27">
+        <v>45414</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28">
+        <v>44111</v>
+      </c>
+      <c r="D28">
+        <v>45414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29">
+        <v>44111</v>
+      </c>
+      <c r="D29">
+        <v>45414</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30">
+        <v>44111</v>
+      </c>
+      <c r="D30">
+        <v>45414</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31">
+        <v>44111</v>
+      </c>
+      <c r="D31">
+        <v>45414</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32">
+        <v>44111</v>
+      </c>
+      <c r="D32">
+        <v>45414</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33">
+        <v>44111</v>
+      </c>
+      <c r="D33">
+        <v>45414</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -14747,7 +18714,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F8" sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,8 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" firstSheet="8" activeTab="8"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" firstSheet="8" activeTab="9"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="PubWageTable" sheetId="12" r:id="rId8"/>
     <sheet name="PrvWageTable" sheetId="15" r:id="rId9"/>
     <sheet name="BussIncTable" sheetId="17" r:id="rId10"/>
-    <sheet name="AggrIncTable" sheetId="16" r:id="rId11"/>
+    <sheet name="AgriIncTable" sheetId="16" r:id="rId11"/>
     <sheet name="OthrIncTable" sheetId="18" r:id="rId12"/>
     <sheet name="SubsidyTable" sheetId="19" r:id="rId13"/>
     <sheet name="FoodTables" sheetId="10" r:id="rId14"/>
@@ -71,13 +71,12 @@
     <sheet name="Biscuit" sheetId="1026" r:id="rId56"/>
     <sheet name="Khoshkbar" sheetId="1027" r:id="rId57"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13186" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13188" uniqueCount="467">
   <si>
     <t>Year</t>
   </si>
@@ -1384,9 +1383,6 @@
     <t>WorkType</t>
   </si>
   <si>
-    <t>NonWageSector</t>
-  </si>
-  <si>
     <t>PubWageGrossIncomeM</t>
   </si>
   <si>
@@ -1435,9 +1431,6 @@
     <t>PrvWageNetIncomeY</t>
   </si>
   <si>
-    <t>AggrNetIncomeY</t>
-  </si>
-  <si>
     <t>Retirment</t>
   </si>
   <si>
@@ -1476,11 +1469,20 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>BussNetIncomeY</t>
+  </si>
+  <si>
+    <t>JobType</t>
+  </si>
+  <si>
+    <t>AgriNetIncomeY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2014,48 +2016,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="‏20% - تأکید1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="‏20% - تاکید6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - آکسان 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="‏40% - تاکید6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="‏60% - تأکید1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="‏60% - تاکید6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="بد" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="بررسی سلول" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="تأکید1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="تاکید2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="تاکید3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="تاکید4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="تاکید5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="تاکید6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="خروجی" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="خنثی" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="خوب" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="سلول پیوندی" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="عنوان" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="عنوان 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="عنوان 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="عنوان 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="عنوان 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="متن توصیفی" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="متن هشدار" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="مجموع" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="محاسبه" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="معمولی" xfId="0" builtinId="0"/>
-    <cellStyle name="ورودی" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="یادداشت" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2622,19 +2624,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="1">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2657,40 +2662,43 @@
         <v>433</v>
       </c>
       <c r="H1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" t="s">
         <v>434</v>
       </c>
-      <c r="I1" t="s">
-        <v>435</v>
-      </c>
       <c r="J1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K1" t="s">
         <v>428</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>429</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>343</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>344</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>345</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>346</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>348</v>
       </c>
-      <c r="R1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>63</v>
       </c>
@@ -2706,32 +2714,32 @@
       <c r="F2" t="s">
         <v>330</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>59</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -2747,32 +2755,32 @@
       <c r="F3" t="s">
         <v>330</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
@@ -2788,32 +2796,32 @@
       <c r="F4" t="s">
         <v>330</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>59</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
@@ -2829,32 +2837,32 @@
       <c r="F5" t="s">
         <v>330</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>59</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
@@ -2870,32 +2878,32 @@
       <c r="F6" t="s">
         <v>330</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>58</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>56</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>59</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68</v>
       </c>
@@ -2911,32 +2919,32 @@
       <c r="F7" t="s">
         <v>330</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>59</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>69</v>
       </c>
@@ -2955,35 +2963,35 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>56</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>61</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -3002,35 +3010,35 @@
       <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>56</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>57</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>59</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>61</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -3049,35 +3057,35 @@
       <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>58</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>59</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>61</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
@@ -3096,35 +3104,35 @@
       <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>58</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>56</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>57</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>59</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>61</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
@@ -3143,35 +3151,35 @@
       <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>54</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>56</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>57</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>59</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>61</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>74</v>
       </c>
@@ -3193,35 +3201,35 @@
       <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>56</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>57</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>59</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>60</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>62</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75</v>
       </c>
@@ -3243,35 +3251,35 @@
       <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>56</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>57</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>59</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>60</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>62</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76</v>
       </c>
@@ -3293,35 +3301,35 @@
       <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>55</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>58</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>57</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>59</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>60</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>62</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77</v>
       </c>
@@ -3343,35 +3351,35 @@
       <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>58</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>57</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>60</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>62</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>78</v>
       </c>
@@ -3393,35 +3401,35 @@
       <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>58</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>57</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>59</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>60</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>62</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
@@ -3443,35 +3451,35 @@
       <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>58</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>56</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>57</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>59</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>60</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>62</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -3493,35 +3501,35 @@
       <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>57</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>59</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>62</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
@@ -3543,35 +3551,35 @@
       <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>56</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>60</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>62</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
@@ -3593,35 +3601,35 @@
       <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>55</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>56</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>57</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>59</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>62</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
@@ -3643,35 +3651,35 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>55</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>58</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>56</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>57</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>59</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>60</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>62</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
@@ -3693,41 +3701,41 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>73</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>74</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>75</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>71</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>325</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>326</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>327</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>328</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
@@ -3749,41 +3757,41 @@
       <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>70</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>72</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>73</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>74</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>75</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>71</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>325</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>326</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>327</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>328</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
@@ -3805,41 +3813,41 @@
       <c r="G25" t="s">
         <v>69</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>70</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>72</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>73</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>74</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>75</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>71</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>325</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>326</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>327</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>328</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -3861,41 +3869,41 @@
       <c r="G26" t="s">
         <v>69</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>70</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>72</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>73</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>74</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>71</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>325</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>326</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>327</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>328</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
@@ -3917,41 +3925,41 @@
       <c r="G27" t="s">
         <v>69</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>70</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>73</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>74</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>75</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>71</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>325</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>326</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>327</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>328</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3973,41 +3981,41 @@
       <c r="G28" t="s">
         <v>69</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>70</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>72</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>73</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>75</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>71</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>325</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>326</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>327</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>328</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
@@ -4029,41 +4037,41 @@
       <c r="G29" t="s">
         <v>69</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>70</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>72</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>73</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>74</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>75</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>71</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>325</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>326</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>327</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>328</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91</v>
       </c>
@@ -4085,41 +4093,41 @@
       <c r="G30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>70</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>72</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>73</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>74</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>75</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>71</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>325</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>326</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>327</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>328</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92</v>
       </c>
@@ -4141,41 +4149,41 @@
       <c r="G31" t="s">
         <v>69</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>70</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>72</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>73</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>74</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>75</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>71</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>325</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>326</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>327</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>328</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>93</v>
       </c>
@@ -4197,41 +4205,41 @@
       <c r="G32" t="s">
         <v>69</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>70</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>72</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>73</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>74</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>75</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>71</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>325</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>326</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>327</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>328</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
@@ -4253,41 +4261,41 @@
       <c r="G33" t="s">
         <v>69</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>72</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>73</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>74</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>75</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>71</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>325</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>326</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>327</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>328</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>95</v>
       </c>
@@ -4309,37 +4317,37 @@
       <c r="G34" t="s">
         <v>69</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>70</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>72</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>73</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>74</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>75</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>71</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>325</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>326</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>327</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>328</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4350,18 +4358,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4384,40 +4394,43 @@
         <v>433</v>
       </c>
       <c r="H1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" t="s">
         <v>434</v>
       </c>
-      <c r="I1" t="s">
-        <v>435</v>
-      </c>
       <c r="J1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K1" t="s">
         <v>428</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>429</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>343</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>344</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>345</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>346</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>348</v>
       </c>
-      <c r="R1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>63</v>
       </c>
@@ -4433,29 +4446,29 @@
       <c r="F2" t="s">
         <v>330</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>57</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -4471,29 +4484,29 @@
       <c r="F3" t="s">
         <v>330</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
@@ -4509,29 +4522,29 @@
       <c r="F4" t="s">
         <v>330</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
@@ -4547,29 +4560,29 @@
       <c r="F5" t="s">
         <v>330</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>57</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
@@ -4585,29 +4598,29 @@
       <c r="F6" t="s">
         <v>330</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>58</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>57</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68</v>
       </c>
@@ -4623,29 +4636,29 @@
       <c r="F7" t="s">
         <v>330</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>57</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>69</v>
       </c>
@@ -4664,35 +4677,35 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>56</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>61</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -4711,35 +4724,35 @@
       <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>56</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>57</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>59</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>61</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -4758,35 +4771,35 @@
       <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>58</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>59</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>61</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
@@ -4805,35 +4818,35 @@
       <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>58</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>56</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>57</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>59</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>61</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
@@ -4852,35 +4865,35 @@
       <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>54</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>56</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>57</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>59</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>61</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>74</v>
       </c>
@@ -4902,35 +4915,35 @@
       <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>56</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>57</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>59</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>60</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>62</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75</v>
       </c>
@@ -4952,35 +4965,35 @@
       <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>56</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>57</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>59</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>60</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>62</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76</v>
       </c>
@@ -5002,35 +5015,35 @@
       <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>55</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>58</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>57</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>59</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>60</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>62</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77</v>
       </c>
@@ -5052,35 +5065,35 @@
       <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>58</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>57</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>60</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>62</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>78</v>
       </c>
@@ -5102,35 +5115,35 @@
       <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>58</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>57</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>59</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>60</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>62</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
@@ -5152,35 +5165,35 @@
       <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>58</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>56</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>57</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>59</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>60</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>62</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -5202,35 +5215,35 @@
       <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>57</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>59</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>62</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
@@ -5252,35 +5265,35 @@
       <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>56</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>60</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>62</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
@@ -5302,35 +5315,35 @@
       <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>55</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>56</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>57</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>59</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>62</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
@@ -5352,35 +5365,35 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>55</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>58</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>56</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>57</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>59</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>60</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>62</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
@@ -5402,41 +5415,41 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>73</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>74</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>75</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>71</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>325</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>326</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>327</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>328</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
@@ -5458,41 +5471,41 @@
       <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>70</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>72</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>73</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>74</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>75</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>71</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>325</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>326</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>327</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>328</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
@@ -5514,41 +5527,41 @@
       <c r="G25" t="s">
         <v>69</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>70</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>72</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>73</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>74</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>75</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>71</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>325</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>326</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>327</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>328</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -5570,41 +5583,41 @@
       <c r="G26" t="s">
         <v>69</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>70</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>72</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>73</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>74</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>71</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>325</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>326</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>327</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>328</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
@@ -5626,41 +5639,41 @@
       <c r="G27" t="s">
         <v>69</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>70</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>73</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>74</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>75</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>71</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>325</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>326</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>327</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>328</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
@@ -5682,41 +5695,41 @@
       <c r="G28" t="s">
         <v>69</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>70</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>72</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>73</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>75</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>71</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>325</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>326</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>327</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>328</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
@@ -5738,41 +5751,41 @@
       <c r="G29" t="s">
         <v>69</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>70</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>72</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>73</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>74</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>75</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>71</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>325</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>326</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>327</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>328</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91</v>
       </c>
@@ -5794,41 +5807,41 @@
       <c r="G30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>70</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>72</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>73</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>74</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>75</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>71</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>325</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>326</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>327</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>328</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92</v>
       </c>
@@ -5850,41 +5863,41 @@
       <c r="G31" t="s">
         <v>69</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>70</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>72</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>73</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>74</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>75</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>71</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>325</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>326</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>327</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>328</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>93</v>
       </c>
@@ -5906,41 +5919,41 @@
       <c r="G32" t="s">
         <v>69</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>70</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>72</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>73</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>74</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>75</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>71</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>325</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>326</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>327</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>328</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
@@ -5962,41 +5975,41 @@
       <c r="G33" t="s">
         <v>69</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>72</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>73</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>74</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>75</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>71</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>325</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>326</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>327</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>328</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>95</v>
       </c>
@@ -6018,37 +6031,37 @@
       <c r="G34" t="s">
         <v>69</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>70</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>72</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>73</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>74</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>75</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>71</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>325</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>326</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>327</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>328</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6090,22 +6103,22 @@
         <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6126,13 +6139,13 @@
         <v>511</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="J2" s="6">
         <v>521</v>
@@ -7132,10 +7145,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7157,10 +7172,10 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G1" t="s">
         <v>350</v>
@@ -7168,139 +7183,274 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" t="s">
-        <v>360</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G3" t="s">
-        <v>360</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" t="s">
-        <v>360</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" t="s">
-        <v>360</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" t="s">
+        <v>353</v>
+      </c>
+      <c r="G33" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>95</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
         <v>351</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E34" t="s">
         <v>352</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F34" t="s">
         <v>353</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G34" t="s">
         <v>360</v>
       </c>
     </row>
@@ -57043,28 +57193,28 @@
         <v>429</v>
       </c>
       <c r="M1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N1" t="s">
         <v>436</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>437</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>438</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>439</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>440</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>441</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>442</v>
-      </c>
-      <c r="T1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -57282,7 +57432,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>315</v>
@@ -57314,7 +57464,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>315</v>
@@ -57346,7 +57496,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>315</v>
@@ -57378,7 +57528,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>315</v>
@@ -57410,7 +57560,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>315</v>
@@ -57442,7 +57592,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>315</v>
@@ -57474,7 +57624,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>315</v>
@@ -57512,7 +57662,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>315</v>
@@ -57562,7 +57712,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>315</v>
@@ -57612,7 +57762,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>315</v>
@@ -57662,7 +57812,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>315</v>
@@ -57712,7 +57862,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>315</v>
@@ -57765,7 +57915,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>315</v>
@@ -57818,7 +57968,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>315</v>
@@ -57871,7 +58021,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>315</v>
@@ -57924,7 +58074,7 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>315</v>
@@ -57977,7 +58127,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>315</v>
@@ -58030,7 +58180,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>315</v>
@@ -58083,7 +58233,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>315</v>
@@ -58136,7 +58286,7 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>315</v>
@@ -58189,7 +58339,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>315</v>
@@ -58242,7 +58392,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>321</v>
@@ -58301,7 +58451,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>321</v>
@@ -58360,7 +58510,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>321</v>
@@ -58419,7 +58569,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>321</v>
@@ -58478,7 +58628,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>321</v>
@@ -58537,7 +58687,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>321</v>
@@ -58596,7 +58746,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>321</v>
@@ -58655,7 +58805,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>321</v>
@@ -58714,7 +58864,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -58773,7 +58923,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>321</v>
@@ -58832,7 +58982,7 @@
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>321</v>
@@ -58891,7 +59041,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>321</v>
@@ -58954,8 +59104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -59011,28 +59161,28 @@
         <v>429</v>
       </c>
       <c r="M1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" t="s">
         <v>444</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>445</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>446</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>447</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>448</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>449</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>450</v>
-      </c>
-      <c r="T1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -59250,7 +59400,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>316</v>
@@ -59282,7 +59432,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>316</v>
@@ -59314,7 +59464,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>316</v>
@@ -59346,7 +59496,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>316</v>
@@ -59378,7 +59528,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>316</v>
@@ -59410,7 +59560,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>316</v>
@@ -59442,7 +59592,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>315</v>
@@ -59492,7 +59642,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>315</v>
@@ -59542,7 +59692,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>315</v>
@@ -59592,7 +59742,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>315</v>
@@ -59642,7 +59792,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>315</v>
@@ -59692,7 +59842,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>315</v>
@@ -59745,7 +59895,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>315</v>
@@ -59798,7 +59948,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>315</v>
@@ -59851,7 +60001,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>315</v>
@@ -59904,7 +60054,7 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>315</v>
@@ -59957,7 +60107,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>315</v>
@@ -60010,7 +60160,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>315</v>
@@ -60063,7 +60213,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>315</v>
@@ -60116,7 +60266,7 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>315</v>
@@ -60169,7 +60319,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>315</v>
@@ -60222,7 +60372,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>321</v>
@@ -60281,7 +60431,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>321</v>
@@ -60340,7 +60490,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>321</v>
@@ -60399,7 +60549,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>321</v>
@@ -60458,7 +60608,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>321</v>
@@ -60517,7 +60667,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>321</v>
@@ -60576,7 +60726,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>321</v>
@@ -60635,7 +60785,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>321</v>
@@ -60694,7 +60844,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -60753,7 +60903,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>321</v>
@@ -60812,7 +60962,7 @@
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>321</v>
@@ -60871,7 +61021,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>321</v>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" firstSheet="8" activeTab="9"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -1473,17 +1472,17 @@
     <t>BussNetIncomeY</t>
   </si>
   <si>
-    <t>JobType</t>
+    <t>AgriNetIncomeY</t>
   </si>
   <si>
-    <t>AgriNetIncomeY</t>
+    <t>BSector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1647,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1998,7 +2005,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2014,6 +2021,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2338,7 +2346,6 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2626,11 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2672,7 @@
         <v>434</v>
       </c>
       <c r="J1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K1" t="s">
         <v>428</v>
@@ -3704,14 +3708,14 @@
       <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L23" t="s">
-        <v>74</v>
       </c>
       <c r="M23" t="s">
         <v>75</v>
@@ -4360,9 +4364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,7 +4403,7 @@
         <v>434</v>
       </c>
       <c r="J1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K1" t="s">
         <v>428</v>
@@ -4427,7 +4430,7 @@
         <v>348</v>
       </c>
       <c r="S1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5418,14 +5421,14 @@
       <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L23" t="s">
-        <v>74</v>
       </c>
       <c r="M23" t="s">
         <v>75</v>
@@ -6075,7 +6078,6 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7147,8 +7149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -7464,7 +7465,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8612,7 +8612,6 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9397,7 +9396,6 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10606,7 +10604,6 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12474,7 +12471,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13401,7 +13397,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14328,7 +14323,6 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15625,7 +15619,6 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16721,7 +16714,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17450,7 +17442,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18414,7 +18405,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19142,7 +19132,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19990,7 +19979,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20838,7 +20826,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21566,7 +21553,6 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23211,7 +23197,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24058,7 +24043,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24905,7 +24889,6 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25582,7 +25565,6 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26469,7 +26451,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27260,7 +27241,6 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28350,7 +28330,6 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29077,7 +29056,6 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -29801,7 +29779,6 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -30525,7 +30502,6 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -31249,7 +31225,6 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31992,7 +31967,6 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32696,7 +32670,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33837,7 +33810,6 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -35071,7 +35043,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -36209,7 +36180,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37347,7 +37317,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -38485,7 +38454,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -39623,7 +39591,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -40761,7 +40728,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -41899,7 +41865,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -43037,7 +43002,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -44175,7 +44139,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -45313,7 +45276,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -46451,7 +46413,6 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -46578,7 +46539,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47719,7 +47679,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -48857,7 +48816,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -49995,7 +49953,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -51133,7 +51090,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -52271,7 +52227,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -53409,7 +53364,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -54547,7 +54501,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -55685,7 +55638,6 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56539,7 +56491,6 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -57134,10 +57085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -59104,10 +59052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,12 @@
     <sheet name="Biscuit" sheetId="1026" r:id="rId56"/>
     <sheet name="Khoshkbar" sheetId="1027" r:id="rId57"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13188" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13185" uniqueCount="468">
   <si>
     <t>Year</t>
   </si>
@@ -1430,9 +1430,6 @@
     <t>PrvWageNetIncomeY</t>
   </si>
   <si>
-    <t>Retirment</t>
-  </si>
-  <si>
     <t>512:514</t>
   </si>
   <si>
@@ -1477,11 +1474,17 @@
   <si>
     <t>BSector</t>
   </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2024,48 +2027,48 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="‏20% - تأکید1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - آکسان 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="‏60% - تأکید1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="بد" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="بررسی سلول" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="تأکید1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="تاکید2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="تاکید3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="تاکید4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="تاکید5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="تاکید6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="خروجی" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="خنثی" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="خوب" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="سلول پیوندی" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="عنوان" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="عنوان 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="عنوان 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="عنوان 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="عنوان 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="متن توصیفی" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="متن هشدار" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="مجموع" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="محاسبه" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="معمولی" xfId="0" builtinId="0"/>
+    <cellStyle name="ورودی" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="یادداشت" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2672,7 +2675,7 @@
         <v>434</v>
       </c>
       <c r="J1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K1" t="s">
         <v>428</v>
@@ -2699,7 +2702,7 @@
         <v>348</v>
       </c>
       <c r="S1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4364,7 +4367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4403,7 +4406,7 @@
         <v>434</v>
       </c>
       <c r="J1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K1" t="s">
         <v>428</v>
@@ -4430,7 +4433,7 @@
         <v>348</v>
       </c>
       <c r="S1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6075,20 +6078,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="3" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="9.140625" style="3" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="4" width="9.140625" style="3" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="3" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.140625" style="3" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6102,28 +6109,31 @@
         <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>451</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>63</v>
       </c>
@@ -6136,24 +6146,27 @@
       <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>511</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -6166,24 +6179,27 @@
       <c r="D3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>511</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="K3" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>65</v>
       </c>
@@ -6196,24 +6212,27 @@
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>511</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="K4" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>66</v>
       </c>
@@ -6226,24 +6245,27 @@
       <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>54</v>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>511</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="K5" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>67</v>
       </c>
@@ -6256,24 +6278,27 @@
       <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>54</v>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>511</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="K6" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>68</v>
       </c>
@@ -6286,24 +6311,27 @@
       <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>54</v>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>511</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="K7" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>69</v>
       </c>
@@ -6313,26 +6341,26 @@
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>70</v>
       </c>
@@ -6342,26 +6370,26 @@
       <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>71</v>
       </c>
@@ -6371,26 +6399,26 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>72</v>
       </c>
@@ -6400,26 +6428,26 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>73</v>
       </c>
@@ -6429,26 +6457,26 @@
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>74</v>
       </c>
@@ -6458,26 +6486,26 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>75</v>
       </c>
@@ -6487,26 +6515,26 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>76</v>
       </c>
@@ -6516,26 +6544,26 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>77</v>
       </c>
@@ -6545,26 +6573,26 @@
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>78</v>
       </c>
@@ -6574,29 +6602,29 @@
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>79</v>
       </c>
@@ -6606,29 +6634,29 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>80</v>
       </c>
@@ -6638,29 +6666,29 @@
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>81</v>
       </c>
@@ -6670,29 +6698,29 @@
       <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>82</v>
       </c>
@@ -6702,29 +6730,29 @@
       <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>83</v>
       </c>
@@ -6734,29 +6762,29 @@
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>84</v>
       </c>
@@ -6766,29 +6794,29 @@
       <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>85</v>
       </c>
@@ -6798,29 +6826,29 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>86</v>
       </c>
@@ -6830,29 +6858,29 @@
       <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>87</v>
       </c>
@@ -6862,29 +6890,29 @@
       <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>88</v>
       </c>
@@ -6894,29 +6922,29 @@
       <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>89</v>
       </c>
@@ -6926,29 +6954,29 @@
       <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>90</v>
       </c>
@@ -6958,29 +6986,29 @@
       <c r="C29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>91</v>
       </c>
@@ -6990,29 +7018,29 @@
       <c r="C30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>92</v>
       </c>
@@ -7022,29 +7050,29 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>93</v>
       </c>
@@ -7054,29 +7082,29 @@
       <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>94</v>
       </c>
@@ -7086,29 +7114,29 @@
       <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>95</v>
       </c>
@@ -7118,25 +7146,25 @@
       <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7173,10 +7201,10 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1" t="s">
         <v>460</v>
-      </c>
-      <c r="F1" t="s">
-        <v>461</v>
       </c>
       <c r="G1" t="s">
         <v>350</v>
@@ -57086,7 +57114,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57380,7 +57408,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>315</v>
@@ -57412,7 +57440,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>315</v>
@@ -57444,7 +57472,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>315</v>
@@ -57476,7 +57504,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>315</v>
@@ -57508,7 +57536,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>315</v>
@@ -57540,7 +57568,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>315</v>
@@ -57572,7 +57600,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>315</v>
@@ -57610,7 +57638,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>315</v>
@@ -57660,7 +57688,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>315</v>
@@ -57710,7 +57738,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>315</v>
@@ -57760,7 +57788,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>315</v>
@@ -57810,7 +57838,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>315</v>
@@ -57863,7 +57891,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>315</v>
@@ -57916,7 +57944,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>315</v>
@@ -57969,7 +57997,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>315</v>
@@ -58022,7 +58050,7 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>315</v>
@@ -58075,7 +58103,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>315</v>
@@ -58128,7 +58156,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>315</v>
@@ -58181,7 +58209,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>315</v>
@@ -58234,7 +58262,7 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>315</v>
@@ -58287,7 +58315,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>315</v>
@@ -58340,7 +58368,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>321</v>
@@ -58399,7 +58427,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>321</v>
@@ -58458,7 +58486,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>321</v>
@@ -58517,7 +58545,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>321</v>
@@ -58576,7 +58604,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>321</v>
@@ -58635,7 +58663,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>321</v>
@@ -58694,7 +58722,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>321</v>
@@ -58753,7 +58781,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>321</v>
@@ -58812,7 +58840,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -58871,7 +58899,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>321</v>
@@ -58930,7 +58958,7 @@
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>321</v>
@@ -58989,7 +59017,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>321</v>
@@ -59052,7 +59080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -59345,7 +59375,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>316</v>
@@ -59377,7 +59407,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>316</v>
@@ -59409,7 +59439,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>316</v>
@@ -59441,7 +59471,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>316</v>
@@ -59473,7 +59503,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>316</v>
@@ -59505,7 +59535,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>316</v>
@@ -59537,7 +59567,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>315</v>
@@ -59587,7 +59617,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>315</v>
@@ -59637,7 +59667,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>315</v>
@@ -59687,7 +59717,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>315</v>
@@ -59737,7 +59767,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>315</v>
@@ -59787,7 +59817,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>315</v>
@@ -59840,7 +59870,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>315</v>
@@ -59893,7 +59923,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>315</v>
@@ -59946,7 +59976,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>315</v>
@@ -59999,7 +60029,7 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>315</v>
@@ -60052,7 +60082,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>315</v>
@@ -60105,7 +60135,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>315</v>
@@ -60158,7 +60188,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>315</v>
@@ -60211,7 +60241,7 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>315</v>
@@ -60264,7 +60294,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>315</v>
@@ -60317,7 +60347,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>321</v>
@@ -60376,7 +60406,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>321</v>
@@ -60435,7 +60465,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>321</v>
@@ -60494,7 +60524,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>321</v>
@@ -60553,7 +60583,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>321</v>
@@ -60612,7 +60642,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>321</v>
@@ -60671,7 +60701,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>321</v>
@@ -60730,7 +60760,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>321</v>
@@ -60789,7 +60819,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -60848,7 +60878,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>321</v>
@@ -60907,7 +60937,7 @@
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>321</v>
@@ -60966,7 +60996,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>321</v>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -6081,7 +6081,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,19 +6345,19 @@
         <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6374,19 +6374,19 @@
         <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6403,19 +6403,19 @@
         <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6432,19 +6432,19 @@
         <v>52</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6461,19 +6461,19 @@
         <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6490,19 +6490,19 @@
         <v>52</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6519,19 +6519,19 @@
         <v>52</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -6548,19 +6548,19 @@
         <v>52</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6606,22 +6606,22 @@
         <v>52</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -6638,22 +6638,22 @@
         <v>52</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -6670,22 +6670,22 @@
         <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -6702,22 +6702,22 @@
         <v>52</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6734,22 +6734,22 @@
         <v>52</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6766,22 +6766,22 @@
         <v>52</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="35" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="48" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13226" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13226" uniqueCount="472">
   <si>
     <t>Year</t>
   </si>
@@ -1258,64 +1258,7 @@
     <t>Cigar_Exp</t>
   </si>
   <si>
-    <t>GhandExpenditure</t>
-  </si>
-  <si>
-    <t>HoboobatExpenditure</t>
-  </si>
-  <si>
-    <t>RoghanExpenditure</t>
-  </si>
-  <si>
-    <t>BerenjExpenditure</t>
-  </si>
-  <si>
-    <t>NanExpenditure</t>
-  </si>
-  <si>
-    <t>GooshtExpenditure</t>
-  </si>
-  <si>
-    <t>MorghExpenditure</t>
-  </si>
-  <si>
-    <t>MahiExpenditure</t>
-  </si>
-  <si>
-    <t>ShirExpenditure</t>
-  </si>
-  <si>
-    <t>MastExpenditure</t>
-  </si>
-  <si>
-    <t>PanirExpenditure</t>
-  </si>
-  <si>
-    <t>TokhmemorghExpenditure</t>
-  </si>
-  <si>
-    <t>MiveExpenditure</t>
-  </si>
-  <si>
-    <t>SabziExpenditure</t>
-  </si>
-  <si>
     <t>95.rar</t>
-  </si>
-  <si>
-    <t>MakarooniExpenditure</t>
-  </si>
-  <si>
-    <t>SibzaminiExpenditure</t>
-  </si>
-  <si>
-    <t>ShiriniExpenditure</t>
-  </si>
-  <si>
-    <t>BiscuitExpenditure</t>
-  </si>
-  <si>
-    <t>KhoshkbarExpenditure</t>
   </si>
   <si>
     <t>Behdasht_Exp</t>
@@ -1541,6 +1484,9 @@
   </si>
   <si>
     <t>KCalories</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2633,7 @@
         <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2729,22 +2675,22 @@
         <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="H1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="I1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="M1" t="s">
         <v>343</v>
@@ -2765,7 +2711,7 @@
         <v>348</v>
       </c>
       <c r="S1" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4460,22 +4406,22 @@
         <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="H1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="I1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="M1" t="s">
         <v>343</v>
@@ -4496,7 +4442,7 @@
         <v>348</v>
       </c>
       <c r="S1" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -6172,28 +6118,28 @@
         <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6217,13 +6163,13 @@
         <v>511</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="K2" s="6">
         <v>521</v>
@@ -6250,13 +6196,13 @@
         <v>511</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="K3" s="6">
         <v>521</v>
@@ -6283,13 +6229,13 @@
         <v>511</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="K4" s="6">
         <v>521</v>
@@ -6316,13 +6262,13 @@
         <v>511</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="K5" s="6">
         <v>521</v>
@@ -6349,13 +6295,13 @@
         <v>511</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="K6" s="6">
         <v>521</v>
@@ -6382,13 +6328,13 @@
         <v>511</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="K7" s="6">
         <v>521</v>
@@ -7264,10 +7210,10 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="F1" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G1" t="s">
         <v>350</v>
@@ -9518,16 +9464,16 @@
         <v>286</v>
       </c>
       <c r="H1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="I1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="J1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="K1" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -9553,16 +9499,16 @@
         <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
         <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9588,16 +9534,16 @@
         <v>275</v>
       </c>
       <c r="H3" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I3" t="s">
         <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9623,16 +9569,16 @@
         <v>275</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I4" t="s">
         <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="K4" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9658,16 +9604,16 @@
         <v>275</v>
       </c>
       <c r="H5" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="K5" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9693,16 +9639,16 @@
         <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I6" t="s">
         <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="K6" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9728,16 +9674,16 @@
         <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I7" t="s">
         <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="K7" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9763,16 +9709,16 @@
         <v>289</v>
       </c>
       <c r="H8" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I8" t="s">
         <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9798,16 +9744,16 @@
         <v>285</v>
       </c>
       <c r="H9" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I9" t="s">
         <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K9" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9833,16 +9779,16 @@
         <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I10" t="s">
         <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K10" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9868,16 +9814,16 @@
         <v>285</v>
       </c>
       <c r="H11" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I11" t="s">
         <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9903,16 +9849,16 @@
         <v>285</v>
       </c>
       <c r="H12" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I12" t="s">
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K12" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9938,16 +9884,16 @@
         <v>275</v>
       </c>
       <c r="H13" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9973,16 +9919,16 @@
         <v>275</v>
       </c>
       <c r="H14" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I14" t="s">
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K14" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -10008,16 +9954,16 @@
         <v>275</v>
       </c>
       <c r="H15" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I15" t="s">
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10043,16 +9989,16 @@
         <v>275</v>
       </c>
       <c r="H16" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I16" t="s">
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K16" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -10078,16 +10024,16 @@
         <v>275</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I17" t="s">
         <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10113,16 +10059,16 @@
         <v>275</v>
       </c>
       <c r="H18" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I18" t="s">
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K18" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -10148,16 +10094,16 @@
         <v>275</v>
       </c>
       <c r="H19" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I19" t="s">
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K19" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10183,16 +10129,16 @@
         <v>275</v>
       </c>
       <c r="H20" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I20" t="s">
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K20" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10218,16 +10164,16 @@
         <v>275</v>
       </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I21" t="s">
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="K21" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10253,7 +10199,7 @@
         <v>275</v>
       </c>
       <c r="H22" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
@@ -10288,7 +10234,7 @@
         <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -10323,7 +10269,7 @@
         <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I24" t="s">
         <v>51</v>
@@ -10358,7 +10304,7 @@
         <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I25" t="s">
         <v>66</v>
@@ -10393,7 +10339,7 @@
         <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I26" t="s">
         <v>66</v>
@@ -10428,7 +10374,7 @@
         <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I27" t="s">
         <v>66</v>
@@ -10463,7 +10409,7 @@
         <v>290</v>
       </c>
       <c r="H28" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I28" t="s">
         <v>66</v>
@@ -10498,7 +10444,7 @@
         <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I29" t="s">
         <v>66</v>
@@ -10533,7 +10479,7 @@
         <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I30" t="s">
         <v>66</v>
@@ -10568,7 +10514,7 @@
         <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I31" t="s">
         <v>66</v>
@@ -10603,7 +10549,7 @@
         <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I32" t="s">
         <v>66</v>
@@ -10638,7 +10584,7 @@
         <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I33" t="s">
         <v>66</v>
@@ -10673,7 +10619,7 @@
         <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="I34" t="s">
         <v>66</v>
@@ -13519,7 +13465,7 @@
         <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>335</v>
@@ -32760,8 +32706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32773,21 +32719,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -32795,10 +32741,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -32806,10 +32752,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -32817,10 +32763,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C5">
         <v>2.5</v>
@@ -32828,10 +32774,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -32839,10 +32785,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -32850,10 +32796,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -32861,10 +32807,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="C9">
         <v>3.6</v>
@@ -32872,10 +32818,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C10">
         <v>1.5</v>
@@ -32883,10 +32829,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -32894,10 +32840,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -32905,10 +32851,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C13">
         <v>2.5</v>
@@ -32916,10 +32862,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="C14">
         <v>2.5</v>
@@ -32927,10 +32873,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -32938,10 +32884,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -32949,10 +32895,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="C17">
         <v>2.5</v>
@@ -32960,10 +32906,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C18">
         <v>3.5</v>
@@ -32971,10 +32917,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="C19">
         <v>0.9</v>
@@ -32982,10 +32928,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C20">
         <v>1.4</v>
@@ -34236,7 +34182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -34278,7 +34226,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -35376,7 +35324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -35415,7 +35365,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -36513,7 +36463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -36552,7 +36504,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -37650,7 +37602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -37689,7 +37643,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -38787,7 +38741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -38826,7 +38782,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -39924,7 +39880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -39963,7 +39921,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -41061,7 +41019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -41100,7 +41060,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -42198,7 +42158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -42237,7 +42199,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -43335,7 +43297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -43374,7 +43338,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -44472,7 +44436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -44511,7 +44477,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -45735,7 +45701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -45774,7 +45742,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -46872,7 +46840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -46914,7 +46884,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -48012,8 +47982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48053,7 +48023,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -49151,7 +49121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -49190,7 +49162,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -50288,7 +50260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -50327,7 +50301,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -51425,7 +51399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -51464,7 +51440,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -52562,7 +52538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -52601,7 +52579,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -53699,7 +53677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -53738,7 +53718,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -54836,7 +54816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -54875,7 +54857,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -56852,7 +56834,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -56869,7 +56851,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -56886,7 +56868,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -56903,7 +56885,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -56920,7 +56902,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
@@ -56937,7 +56919,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -56954,7 +56936,7 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -56971,7 +56953,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -56988,7 +56970,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -57005,7 +56987,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -57022,7 +57004,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -57034,7 +57016,7 @@
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -57462,43 +57444,43 @@
         <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="J1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="M1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="N1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="O1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="P1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="Q1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="R1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="S1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="T1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -57716,7 +57698,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>315</v>
@@ -57748,7 +57730,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>315</v>
@@ -57780,7 +57762,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>315</v>
@@ -57812,7 +57794,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>315</v>
@@ -57844,7 +57826,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>315</v>
@@ -57876,7 +57858,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>315</v>
@@ -57908,7 +57890,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>315</v>
@@ -57946,7 +57928,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>315</v>
@@ -57996,7 +57978,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>315</v>
@@ -58046,7 +58028,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>315</v>
@@ -58096,7 +58078,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>315</v>
@@ -58146,7 +58128,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>315</v>
@@ -58199,7 +58181,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>315</v>
@@ -58252,7 +58234,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>315</v>
@@ -58305,7 +58287,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>315</v>
@@ -58358,7 +58340,7 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>315</v>
@@ -58411,7 +58393,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>315</v>
@@ -58464,7 +58446,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>315</v>
@@ -58517,7 +58499,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>315</v>
@@ -58570,7 +58552,7 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>315</v>
@@ -58623,7 +58605,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>315</v>
@@ -58676,7 +58658,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>321</v>
@@ -58735,7 +58717,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>321</v>
@@ -58794,7 +58776,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>321</v>
@@ -58853,7 +58835,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>321</v>
@@ -58912,7 +58894,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>321</v>
@@ -58971,7 +58953,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>321</v>
@@ -59030,7 +59012,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>321</v>
@@ -59089,7 +59071,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>321</v>
@@ -59148,7 +59130,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -59207,7 +59189,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>321</v>
@@ -59266,7 +59248,7 @@
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>321</v>
@@ -59325,7 +59307,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>321</v>
@@ -59429,43 +59411,43 @@
         <v>47</v>
       </c>
       <c r="H1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P1" t="s">
         <v>427</v>
       </c>
-      <c r="I1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>428</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>429</v>
       </c>
-      <c r="M1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O1" t="s">
-        <v>445</v>
-      </c>
-      <c r="P1" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>447</v>
-      </c>
-      <c r="R1" t="s">
-        <v>448</v>
-      </c>
       <c r="S1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="T1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -59683,7 +59665,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>316</v>
@@ -59715,7 +59697,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>316</v>
@@ -59747,7 +59729,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>316</v>
@@ -59779,7 +59761,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>316</v>
@@ -59811,7 +59793,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>316</v>
@@ -59843,7 +59825,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>316</v>
@@ -59875,7 +59857,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>315</v>
@@ -59925,7 +59907,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>315</v>
@@ -59975,7 +59957,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>315</v>
@@ -60025,7 +60007,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>315</v>
@@ -60075,7 +60057,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>315</v>
@@ -60125,7 +60107,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>315</v>
@@ -60178,7 +60160,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>315</v>
@@ -60231,7 +60213,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>315</v>
@@ -60284,7 +60266,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>315</v>
@@ -60337,7 +60319,7 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>315</v>
@@ -60390,7 +60372,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>315</v>
@@ -60443,7 +60425,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>315</v>
@@ -60496,7 +60478,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>315</v>
@@ -60549,7 +60531,7 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>315</v>
@@ -60602,7 +60584,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>315</v>
@@ -60655,7 +60637,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>321</v>
@@ -60714,7 +60696,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>321</v>
@@ -60773,7 +60755,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>321</v>
@@ -60832,7 +60814,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>321</v>
@@ -60891,7 +60873,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>321</v>
@@ -60950,7 +60932,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>321</v>
@@ -61009,7 +60991,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>321</v>
@@ -61068,7 +61050,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>321</v>
@@ -61127,7 +61109,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -61186,7 +61168,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>321</v>
@@ -61245,7 +61227,7 @@
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>321</v>
@@ -61304,7 +61286,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>321</v>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="48" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="37" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13226" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13220" uniqueCount="469">
   <si>
     <t>Year</t>
   </si>
@@ -1474,15 +1474,6 @@
     <t>Sibzamini</t>
   </si>
   <si>
-    <t>Shirini</t>
-  </si>
-  <si>
-    <t>Biscuit</t>
-  </si>
-  <si>
-    <t>Khoshkbar</t>
-  </si>
-  <si>
     <t>KCalories</t>
   </si>
   <si>
@@ -2347,7 +2338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -32704,10 +32695,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32725,7 +32716,7 @@
         <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -32741,199 +32732,166 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C13">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C14">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>466</v>
-      </c>
-      <c r="B19" t="s">
-        <v>466</v>
-      </c>
-      <c r="C19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C20">
         <v>1.4</v>
       </c>
     </row>
@@ -34226,7 +34184,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -35365,7 +35323,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -36504,7 +36462,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -37643,7 +37601,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -38782,7 +38740,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -39921,7 +39879,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -41060,7 +41018,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -42199,7 +42157,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -43338,7 +43296,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -44477,7 +44435,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -45742,7 +45700,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -46884,7 +46842,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -47982,7 +47940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -48023,7 +47981,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -49162,7 +49120,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -50301,7 +50259,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -51440,7 +51398,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -52579,7 +52537,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -53718,7 +53676,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -54857,7 +54815,7 @@
         <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12">

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="37" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="26" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13220" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13336" uniqueCount="471">
   <si>
     <t>Year</t>
   </si>
@@ -1479,6 +1479,12 @@
   <si>
     <t>Expenditure</t>
   </si>
+  <si>
+    <t>96.rar</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
 </sst>
 </file>
 
@@ -2338,7 +2344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2346,9 +2352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2625,6 +2633,14 @@
       </c>
       <c r="B34" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -7178,7 +7194,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7490,9 +7506,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8630,6 +8648,38 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>11111</v>
+      </c>
+      <c r="D35">
+        <v>12218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8639,7 +8689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9421,9 +9473,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10622,6 +10676,41 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35">
+        <v>41111</v>
+      </c>
+      <c r="D35">
+        <v>42215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>470</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10629,9 +10718,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11560,932 +11651,949 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63">
-        <v>13078950</v>
+        <v>294</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>295</v>
       </c>
       <c r="C64">
-        <v>13351284</v>
+        <v>13078950</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
         <v>295</v>
       </c>
       <c r="C65">
-        <v>13628160</v>
+        <v>13351284</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>295</v>
       </c>
       <c r="C66">
-        <v>13909179</v>
+        <v>13628160</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>295</v>
       </c>
       <c r="C67">
-        <v>14194603.999999996</v>
+        <v>13909179</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
         <v>295</v>
       </c>
       <c r="C68">
-        <v>14484014.999999998</v>
+        <v>14194603.999999996</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
         <v>295</v>
       </c>
       <c r="C69">
-        <v>14777639.999999996</v>
+        <v>14484014.999999998</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>295</v>
       </c>
       <c r="C70">
-        <v>15075678.999999994</v>
+        <v>14777639.999999996</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
         <v>295</v>
       </c>
       <c r="C71">
-        <v>15377669.999999996</v>
+        <v>15075678.999999994</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
         <v>295</v>
       </c>
       <c r="C72">
-        <v>15683777.999999993</v>
+        <v>15377669.999999996</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
         <v>295</v>
       </c>
       <c r="C73">
-        <v>15989180</v>
+        <v>15683777.999999993</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
         <v>295</v>
       </c>
       <c r="C74">
-        <v>16184168</v>
+        <v>15989180</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>295</v>
       </c>
       <c r="C75">
-        <v>16377410</v>
+        <v>16184168</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
         <v>295</v>
       </c>
       <c r="C76">
-        <v>16570199.000000002</v>
+        <v>16377410</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
         <v>295</v>
       </c>
       <c r="C77">
-        <v>16760800.000000002</v>
+        <v>16570199.000000002</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
         <v>295</v>
       </c>
       <c r="C78">
-        <v>16949850.000000004</v>
+        <v>16760800.000000002</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
         <v>295</v>
       </c>
       <c r="C79">
-        <v>17136782</v>
+        <v>16949850.000000004</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
         <v>295</v>
       </c>
       <c r="C80">
-        <v>17321029.000000004</v>
+        <v>17136782</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
         <v>295</v>
       </c>
       <c r="C81">
-        <v>17503120.000000004</v>
+        <v>17321029.000000004</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
         <v>295</v>
       </c>
       <c r="C82">
-        <v>17681895.000000004</v>
+        <v>17503120.000000004</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
         <v>295</v>
       </c>
       <c r="C83">
-        <v>17865770</v>
+        <v>17681895.000000004</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
         <v>295</v>
       </c>
       <c r="C84">
-        <v>18319121</v>
+        <v>17865770</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>295</v>
       </c>
       <c r="C85">
-        <v>18780336</v>
+        <v>18319121</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
         <v>295</v>
       </c>
       <c r="C86">
-        <v>19249870.999999996</v>
+        <v>18780336</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
         <v>295</v>
       </c>
       <c r="C87">
-        <v>19727595.999999996</v>
+        <v>19249870.999999996</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
         <v>295</v>
       </c>
       <c r="C88">
-        <v>20213324.999999996</v>
+        <v>19727595.999999996</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
         <v>295</v>
       </c>
       <c r="C89">
-        <v>20706327.999999993</v>
+        <v>20213324.999999996</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
         <v>295</v>
       </c>
       <c r="C90">
-        <v>21207289.999999993</v>
+        <v>20706327.999999993</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
         <v>295</v>
       </c>
       <c r="C91">
-        <v>21715835.999999993</v>
-      </c>
-      <c r="D91">
-        <v>70169</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ref="E91:E96" si="1">C91/D91</f>
-        <v>309.47905770354419</v>
-      </c>
+        <v>21207289.999999993</v>
+      </c>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
         <v>295</v>
       </c>
       <c r="C92">
+        <v>21715835.999999993</v>
+      </c>
+      <c r="D92">
+        <v>70169</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92:E97" si="1">C92/D92</f>
+        <v>309.47905770354419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93">
         <v>22232001.999999989</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>74852</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <f t="shared" si="1"/>
         <v>297.01279858921589</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
+    <row r="94" spans="1:5">
+      <c r="A94">
         <v>65</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>295</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>22744700</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>16758</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <f t="shared" si="1"/>
         <v>1357.2443012292636</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>66</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
         <v>295</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>22949433</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>17347</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <f t="shared" si="1"/>
         <v>1322.9626448377242</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>67</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
         <v>295</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>23150968</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>25138</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <f t="shared" si="1"/>
         <v>920.95504813429864</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
+    <row r="97" spans="1:5">
+      <c r="A97">
         <v>68</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>295</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>23348214.999999996</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>35647</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <f t="shared" si="1"/>
         <v>654.98400987460366</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>69</v>
-      </c>
-      <c r="B97" t="s">
-        <v>295</v>
-      </c>
-      <c r="C97">
-        <v>23540975.999999993</v>
-      </c>
-      <c r="D97">
-        <v>54789</v>
-      </c>
-      <c r="E97">
-        <f>C97/D97</f>
-        <v>429.66610085966147</v>
-      </c>
-    </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" t="s">
         <v>295</v>
       </c>
       <c r="C98">
-        <v>23730724.999999993</v>
+        <v>23540975.999999993</v>
       </c>
       <c r="D98">
-        <v>55650</v>
+        <v>54789</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E123" si="2">C98/D98</f>
-        <v>426.42812219227301</v>
+        <f>C98/D98</f>
+        <v>429.66610085966147</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
         <v>295</v>
       </c>
       <c r="C99">
+        <v>23730724.999999993</v>
+      </c>
+      <c r="D99">
+        <v>55650</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99:E124" si="2">C99/D99</f>
+        <v>426.42812219227301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100">
         <v>23683043.999999989</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>53936</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <f t="shared" si="2"/>
         <v>439.09529813111817</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
+    <row r="101" spans="1:5">
+      <c r="A101">
         <v>72</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>295</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>23628800.999999985</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>33117</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <f t="shared" si="2"/>
         <v>713.49461001902296</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
+    <row r="102" spans="1:5">
+      <c r="A102">
         <v>73</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>295</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>23567743.999999985</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>44146</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <f t="shared" si="2"/>
         <v>533.85910388257116</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
+    <row r="103" spans="1:5">
+      <c r="A103">
         <v>74</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>295</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>23499620.999999985</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>92800</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <f t="shared" si="2"/>
         <v>253.22867456896535</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
+    <row r="104" spans="1:5">
+      <c r="A104">
         <v>75</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>295</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>23421450</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>61055</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <f t="shared" si="2"/>
         <v>383.6123167635738</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>76</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>295</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>23389810</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>59639</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <f t="shared" si="2"/>
         <v>392.18984221734098</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>77</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>295</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>23350728</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>49905</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <f t="shared" si="2"/>
         <v>467.90357679591222</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
+    <row r="107" spans="1:5">
+      <c r="A107">
         <v>78</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>295</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>23303087.999999993</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>79183</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <f t="shared" si="2"/>
         <v>294.294078274377</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
+    <row r="108" spans="1:5">
+      <c r="A108">
         <v>79</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>295</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>23247277.999999993</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>77033</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <f t="shared" si="2"/>
         <v>301.78336557059953</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
+    <row r="109" spans="1:5">
+      <c r="A109">
         <v>80</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>295</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>23181854.999999993</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>75787</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <f t="shared" si="2"/>
         <v>305.88168155488398</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
+    <row r="110" spans="1:5">
+      <c r="A110">
         <v>81</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>295</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>23072399.999999993</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>86406</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <f t="shared" si="2"/>
         <v>267.02312339420865</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
+    <row r="111" spans="1:5">
+      <c r="A111">
         <v>82</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>295</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>22954414.999999985</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>59940</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <f t="shared" si="2"/>
         <v>382.95653987320628</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
+    <row r="112" spans="1:5">
+      <c r="A112">
         <v>83</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>295</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>22827229.999999985</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>62874</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <f t="shared" si="2"/>
         <v>363.06311034767924</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
+    <row r="113" spans="1:5">
+      <c r="A113">
         <v>84</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>295</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>22690529.999999981</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>66361</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <f t="shared" si="2"/>
         <v>341.92567923931199</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
+    <row r="114" spans="1:5">
+      <c r="A114">
         <v>85</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>295</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>22236000</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>77284</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <f t="shared" si="2"/>
         <v>287.71802701723516</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
+    <row r="115" spans="1:5">
+      <c r="A115">
         <v>86</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>295</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>22078000</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>72814</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <f t="shared" si="2"/>
         <v>303.21092097673522</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>87</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>295</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>21926000</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>83979</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <f t="shared" si="2"/>
         <v>261.08908179425811</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
+    <row r="117" spans="1:5">
+      <c r="A117">
         <v>88</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>295</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>21780000</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <v>76072</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <f t="shared" si="2"/>
         <v>286.30770848669681</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
+    <row r="118" spans="1:5">
+      <c r="A118">
         <v>89</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>295</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>21639000</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>79850</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <f t="shared" si="2"/>
         <v>270.99561678146523</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
+    <row r="119" spans="1:5">
+      <c r="A119">
         <v>90</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>295</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>21503000</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>79079</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <f t="shared" si="2"/>
         <v>271.91795546225927</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
+    <row r="120" spans="1:5">
+      <c r="A120">
         <v>91</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>295</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>21430000</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>76496</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <f t="shared" si="2"/>
         <v>280.14536707801716</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
+    <row r="121" spans="1:5">
+      <c r="A121">
         <v>92</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>295</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>21441000</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>72301</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <f t="shared" si="2"/>
         <v>296.55191491127368</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
+    <row r="122" spans="1:5">
+      <c r="A122">
         <v>93</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>295</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>21448000</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>71551</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <f t="shared" si="2"/>
         <v>299.75821442048328</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
+    <row r="123" spans="1:5">
+      <c r="A123">
         <v>94</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>295</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>21446000</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>70439</v>
       </c>
-      <c r="E122">
+      <c r="E123">
         <f t="shared" si="2"/>
         <v>304.46201678047674</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
+    <row r="124" spans="1:5">
+      <c r="A124">
         <v>95</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>295</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>21438000</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>69514</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <f t="shared" si="2"/>
         <v>308.39830825445233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>96</v>
+      </c>
+      <c r="B125" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -12496,9 +12604,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13415,6 +13525,32 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35">
+        <v>61116</v>
+      </c>
+      <c r="D35">
+        <v>61338</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13422,9 +13558,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14341,6 +14479,32 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35">
+        <v>62117</v>
+      </c>
+      <c r="D35">
+        <v>64114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14348,9 +14512,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -15634,6 +15800,41 @@
         <v>74</v>
       </c>
       <c r="N34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" t="s">
         <v>75</v>
       </c>
     </row>
@@ -16739,9 +16940,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17460,6 +17663,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17467,9 +17690,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18423,6 +18648,35 @@
         <v>69</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35">
+        <v>44111</v>
+      </c>
+      <c r="D35">
+        <v>45414</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18430,9 +18684,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19150,6 +19406,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19157,9 +19433,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19997,6 +20275,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>362</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20004,9 +20302,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20844,6 +21144,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20851,9 +21171,11 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21571,6 +21893,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21578,9 +21920,11 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23215,6 +23559,56 @@
         <v>66</v>
       </c>
     </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>332</v>
+      </c>
+      <c r="H35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I35" t="s">
+        <v>363</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>364</v>
+      </c>
+      <c r="L35" t="s">
+        <v>365</v>
+      </c>
+      <c r="M35" t="s">
+        <v>366</v>
+      </c>
+      <c r="N35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" t="s">
+        <v>367</v>
+      </c>
+      <c r="P35" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23222,9 +23616,11 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24061,6 +24457,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24068,9 +24484,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B33:J35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24907,6 +25325,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24916,7 +25354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25590,9 +26028,11 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26469,6 +26909,35 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26476,9 +26945,11 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -27259,6 +27730,29 @@
         <v>69</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27266,9 +27760,11 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -28345,6 +28841,35 @@
         <v>70</v>
       </c>
       <c r="K34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -32697,8 +33222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32907,7 +33432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -55911,9 +56436,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -56756,6 +57283,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -56766,7 +57298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="26" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="50" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13336" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13496" uniqueCount="471">
   <si>
     <t>Year</t>
   </si>
@@ -2344,7 +2344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15845,9 +15845,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16930,6 +16932,41 @@
         <v>70</v>
       </c>
       <c r="K34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35">
+        <v>101111</v>
+      </c>
+      <c r="D35">
+        <v>105115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" t="s">
         <v>72</v>
       </c>
     </row>
@@ -21173,8 +21210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21898,7 +21935,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -26030,8 +26067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27762,7 +27799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -34663,10 +34700,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35798,6 +35835,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11811</v>
+      </c>
+      <c r="D35">
+        <v>11845</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35805,10 +35877,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36937,6 +37009,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11761</v>
+      </c>
+      <c r="D35">
+        <v>11769</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36944,10 +37051,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38076,6 +38183,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11511</v>
+      </c>
+      <c r="D35">
+        <v>11533</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38083,10 +38225,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39215,6 +39357,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11111</v>
+      </c>
+      <c r="D35">
+        <v>11118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39222,10 +39399,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40354,6 +40531,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11141</v>
+      </c>
+      <c r="D35">
+        <v>11153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40361,10 +40573,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41493,6 +41705,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11211</v>
+      </c>
+      <c r="D35">
+        <v>11221</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41500,10 +41747,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42632,6 +42879,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11231</v>
+      </c>
+      <c r="D35">
+        <v>11239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42639,10 +42921,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43771,6 +44053,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11311</v>
+      </c>
+      <c r="D35">
+        <v>11321</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43778,10 +44095,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44910,6 +45227,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11411</v>
+      </c>
+      <c r="D35">
+        <v>11414</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44917,10 +45269,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46046,6 +46398,41 @@
         <v>70</v>
       </c>
       <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11424</v>
+      </c>
+      <c r="D35">
+        <v>11426</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
         <v>72</v>
       </c>
     </row>
@@ -46182,10 +46569,10 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47314,6 +47701,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11428</v>
+      </c>
+      <c r="D35">
+        <v>11432</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47321,10 +47743,10 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48456,6 +48878,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11441</v>
+      </c>
+      <c r="D35">
+        <v>11443</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48463,10 +48920,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49595,6 +50052,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11611</v>
+      </c>
+      <c r="D35">
+        <v>11643</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49602,10 +50094,10 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50734,6 +51226,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11711</v>
+      </c>
+      <c r="D35">
+        <v>11754</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50741,10 +51268,10 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51873,6 +52400,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11161</v>
+      </c>
+      <c r="D35">
+        <v>11166</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51880,10 +52442,10 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53012,6 +53574,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11731</v>
+      </c>
+      <c r="D35">
+        <v>11731</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53019,10 +53616,10 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54151,6 +54748,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11821</v>
+      </c>
+      <c r="D35">
+        <v>11845</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54158,10 +54790,10 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55290,6 +55922,41 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11171</v>
+      </c>
+      <c r="D35">
+        <v>11175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55297,10 +55964,10 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56426,6 +57093,41 @@
         <v>70</v>
       </c>
       <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11651</v>
+      </c>
+      <c r="D35">
+        <v>11662</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="50" activeTab="57"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -17930,8 +17930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18891,7 +18891,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="C35">
         <v>44111</v>
@@ -56299,7 +56299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="544" firstSheet="49"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="LoanTables" sheetId="7" r:id="rId15"/>
     <sheet name="HouseTables" sheetId="8" r:id="rId16"/>
     <sheet name="RegionWeights" sheetId="9" r:id="rId17"/>
-    <sheet name="MedicalTables" sheetId="13" r:id="rId18"/>
-    <sheet name="BehdashtTables" sheetId="1028" r:id="rId19"/>
+    <sheet name="BehdashtTables" sheetId="13" r:id="rId18"/>
+    <sheet name="MedicalTables" sheetId="1028" r:id="rId19"/>
     <sheet name="EducationTables" sheetId="14" r:id="rId20"/>
     <sheet name="ClothTables" sheetId="21" r:id="rId21"/>
     <sheet name="EnergyTables" sheetId="22" r:id="rId22"/>
@@ -2341,7 +2341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2351,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12802,8 +12802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12836,7 +12836,7 @@
         <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>335</v>
@@ -13756,14 +13756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -13790,7 +13790,7 @@
         <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="I1" t="s">
         <v>335</v>
@@ -21406,8 +21406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23852,7 +23852,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27995,7 +27995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -33588,7 +33588,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57469,7 +57469,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:H35"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14188" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14187" uniqueCount="592">
   <si>
     <t>Year</t>
   </si>
@@ -2711,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16164,8 +16164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BF42" sqref="BF42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19445,9 +19445,7 @@
       <c r="C35" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>591</v>
-      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
         <v>471</v>
       </c>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="3" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -2711,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16165,7 +16165,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="3" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="22" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14187" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14189" uniqueCount="592">
   <si>
     <t>Year</t>
   </si>
@@ -2711,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15211,13 +15211,13 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -15744,13 +15744,13 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C20">
-        <v>61116</v>
+        <v>51318</v>
       </c>
       <c r="D20">
-        <v>61338</v>
+        <v>51624</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -15770,13 +15770,13 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21">
-        <v>61116</v>
+        <v>51318</v>
       </c>
       <c r="D21">
-        <v>61338</v>
+        <v>51624</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -16164,7 +16164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -19602,7 +19602,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20135,13 +20135,13 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C20">
-        <v>62117</v>
+        <v>51114</v>
       </c>
       <c r="D20">
-        <v>64114</v>
+        <v>51191</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -20161,13 +20161,13 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21">
-        <v>62117</v>
+        <v>51114</v>
       </c>
       <c r="D21">
-        <v>64114</v>
+        <v>51191</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -20555,8 +20555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21248,14 +21248,11 @@
       <c r="H23" t="s">
         <v>68</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>70</v>
-      </c>
-      <c r="K23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -21283,14 +21280,11 @@
       <c r="H24" t="s">
         <v>68</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>69</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>70</v>
-      </c>
-      <c r="K24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -21318,14 +21312,11 @@
       <c r="H25" t="s">
         <v>68</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>69</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -21353,14 +21344,11 @@
       <c r="H26" t="s">
         <v>68</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>69</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>70</v>
-      </c>
-      <c r="K26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -21688,7 +21676,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22437,8 +22425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A12" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B21" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23431,7 +23419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -25050,7 +25038,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25918,7 +25906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -26667,8 +26655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27405,6 +27393,9 @@
       <c r="J16" t="s">
         <v>362</v>
       </c>
+      <c r="K16" t="s">
+        <v>273</v>
+      </c>
       <c r="L16" t="s">
         <v>363</v>
       </c>
@@ -27450,6 +27441,9 @@
       <c r="J17" t="s">
         <v>362</v>
       </c>
+      <c r="K17" t="s">
+        <v>273</v>
+      </c>
       <c r="L17" t="s">
         <v>363</v>
       </c>
@@ -27497,6 +27491,9 @@
       <c r="J18" t="s">
         <v>362</v>
       </c>
+      <c r="K18" t="s">
+        <v>273</v>
+      </c>
       <c r="L18" t="s">
         <v>363</v>
       </c>
@@ -27544,6 +27541,9 @@
       <c r="J19" t="s">
         <v>362</v>
       </c>
+      <c r="K19" t="s">
+        <v>273</v>
+      </c>
       <c r="L19" t="s">
         <v>363</v>
       </c>
@@ -27591,6 +27591,9 @@
       <c r="J20" t="s">
         <v>362</v>
       </c>
+      <c r="K20" t="s">
+        <v>273</v>
+      </c>
       <c r="L20" t="s">
         <v>363</v>
       </c>
@@ -27637,6 +27640,9 @@
       </c>
       <c r="J21" t="s">
         <v>362</v>
+      </c>
+      <c r="K21" t="s">
+        <v>273</v>
       </c>
       <c r="L21" t="s">
         <v>363</v>
@@ -28363,8 +28369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30564,7 +30570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B34" sqref="B33:J35"/>
     </sheetView>
   </sheetViews>
@@ -31432,8 +31438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32349,7 +32355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -33164,7 +33170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="22" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="32" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -2711,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16165,7 +16165,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26655,7 +26655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -39438,14 +39438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="8"/>
   </cols>
   <sheetData>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IRHEIS\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="32" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -47,32 +52,33 @@
     <sheet name="HomemadeTables" sheetId="1006" r:id="rId38"/>
     <sheet name="IntraTables" sheetId="1007" r:id="rId39"/>
     <sheet name="FoodGroupTables" sheetId="1030" r:id="rId40"/>
-    <sheet name="Ghand" sheetId="1009" r:id="rId41"/>
-    <sheet name="Hoboobat" sheetId="1010" r:id="rId42"/>
-    <sheet name="Roghan" sheetId="1011" r:id="rId43"/>
-    <sheet name="Berenj" sheetId="1012" r:id="rId44"/>
-    <sheet name="Nan" sheetId="1013" r:id="rId45"/>
-    <sheet name="Goosht" sheetId="1014" r:id="rId46"/>
-    <sheet name="Morgh" sheetId="1015" r:id="rId47"/>
-    <sheet name="Mahi" sheetId="1016" r:id="rId48"/>
-    <sheet name="Shir" sheetId="1017" r:id="rId49"/>
-    <sheet name="Mast" sheetId="1018" r:id="rId50"/>
-    <sheet name="Panir" sheetId="1019" r:id="rId51"/>
-    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId52"/>
-    <sheet name="Mive" sheetId="1021" r:id="rId53"/>
-    <sheet name="Sabzi" sheetId="1022" r:id="rId54"/>
-    <sheet name="Makarooni" sheetId="1023" r:id="rId55"/>
-    <sheet name="Sibzamini" sheetId="1024" r:id="rId56"/>
-    <sheet name="Shirini" sheetId="1025" r:id="rId57"/>
-    <sheet name="Biscuit" sheetId="1026" r:id="rId58"/>
-    <sheet name="Khoshkbar" sheetId="1027" r:id="rId59"/>
+    <sheet name="Sheet1" sheetId="1033" r:id="rId41"/>
+    <sheet name="Ghand" sheetId="1009" r:id="rId42"/>
+    <sheet name="Hoboobat" sheetId="1010" r:id="rId43"/>
+    <sheet name="Roghan" sheetId="1011" r:id="rId44"/>
+    <sheet name="Berenj" sheetId="1012" r:id="rId45"/>
+    <sheet name="Nan" sheetId="1013" r:id="rId46"/>
+    <sheet name="Goosht" sheetId="1014" r:id="rId47"/>
+    <sheet name="Morgh" sheetId="1015" r:id="rId48"/>
+    <sheet name="Mahi" sheetId="1016" r:id="rId49"/>
+    <sheet name="Shir" sheetId="1017" r:id="rId50"/>
+    <sheet name="Mast" sheetId="1018" r:id="rId51"/>
+    <sheet name="Panir" sheetId="1019" r:id="rId52"/>
+    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId53"/>
+    <sheet name="Mive" sheetId="1021" r:id="rId54"/>
+    <sheet name="Sabzi" sheetId="1022" r:id="rId55"/>
+    <sheet name="Makarooni" sheetId="1023" r:id="rId56"/>
+    <sheet name="Sibzamini" sheetId="1024" r:id="rId57"/>
+    <sheet name="Shirini" sheetId="1025" r:id="rId58"/>
+    <sheet name="Biscuit" sheetId="1026" r:id="rId59"/>
+    <sheet name="Khoshkbar" sheetId="1027" r:id="rId60"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14189" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14195" uniqueCount="595">
   <si>
     <t>Year</t>
   </si>
@@ -1849,6 +1855,15 @@
   <si>
     <t>DyCol02</t>
   </si>
+  <si>
+    <t>Biscuit</t>
+  </si>
+  <si>
+    <t>Khoshkbar</t>
+  </si>
+  <si>
+    <t>Shirini</t>
+  </si>
 </sst>
 </file>
 
@@ -2711,7 +2726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -39439,13 +39454,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -39645,6 +39659,54 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -40821,7 +40883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -41995,7 +42057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -43141,1180 +43203,6 @@
       </c>
       <c r="D35">
         <v>11533</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>11211</v>
-      </c>
-      <c r="D2">
-        <v>11277</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>11211</v>
-      </c>
-      <c r="D3">
-        <v>11277</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>11211</v>
-      </c>
-      <c r="D4">
-        <v>11277</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>11211</v>
-      </c>
-      <c r="D5">
-        <v>11277</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>11211</v>
-      </c>
-      <c r="D6">
-        <v>11277</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>11211</v>
-      </c>
-      <c r="D7">
-        <v>11277</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>11211</v>
-      </c>
-      <c r="D8">
-        <v>11277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>11211</v>
-      </c>
-      <c r="D9">
-        <v>11277</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>11211</v>
-      </c>
-      <c r="D10">
-        <v>11277</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>11211</v>
-      </c>
-      <c r="D11">
-        <v>11277</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>11211</v>
-      </c>
-      <c r="D12">
-        <v>11277</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>11211</v>
-      </c>
-      <c r="D13">
-        <v>11277</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>11211</v>
-      </c>
-      <c r="D14">
-        <v>11277</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>11211</v>
-      </c>
-      <c r="D15">
-        <v>11277</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>11211</v>
-      </c>
-      <c r="D16">
-        <v>11277</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>11211</v>
-      </c>
-      <c r="D17">
-        <v>11277</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>11211</v>
-      </c>
-      <c r="D18">
-        <v>11277</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>11211</v>
-      </c>
-      <c r="D19">
-        <v>11277</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>11211</v>
-      </c>
-      <c r="D20">
-        <v>11277</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>11211</v>
-      </c>
-      <c r="D21">
-        <v>11277</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11111</v>
-      </c>
-      <c r="D22">
-        <v>11118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11111</v>
-      </c>
-      <c r="D23">
-        <v>11118</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11111</v>
-      </c>
-      <c r="D24">
-        <v>11118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11111</v>
-      </c>
-      <c r="D25">
-        <v>11118</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11111</v>
-      </c>
-      <c r="D26">
-        <v>11118</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11111</v>
-      </c>
-      <c r="D27">
-        <v>11118</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11111</v>
-      </c>
-      <c r="D28">
-        <v>11118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11111</v>
-      </c>
-      <c r="D29">
-        <v>11118</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11111</v>
-      </c>
-      <c r="D30">
-        <v>11118</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11111</v>
-      </c>
-      <c r="D31">
-        <v>11118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11111</v>
-      </c>
-      <c r="D32">
-        <v>11118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11111</v>
-      </c>
-      <c r="D33">
-        <v>11118</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11111</v>
-      </c>
-      <c r="D34">
-        <v>11118</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11111</v>
-      </c>
-      <c r="D35">
-        <v>11118</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -44399,10 +43287,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D2">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -44428,10 +43316,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D3">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -44457,10 +43345,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D4">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -44486,10 +43374,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D5">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -44515,10 +43403,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D6">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -44544,10 +43432,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D7">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -44573,10 +43461,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D8">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -44608,10 +43496,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D9">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -44640,10 +43528,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D10">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -44672,10 +43560,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D11">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -44707,10 +43595,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D12">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -44742,10 +43630,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D13">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -44774,10 +43662,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D14">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -44806,10 +43694,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D15">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -44838,10 +43726,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D16">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -44870,10 +43758,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D17">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -44902,10 +43790,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D18">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -44934,10 +43822,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D19">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -44966,10 +43854,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D20">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -44998,10 +43886,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D21">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -45030,10 +43918,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D22">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -45065,10 +43953,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D23">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -45100,10 +43988,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D24">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -45135,10 +44023,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D25">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -45170,10 +44058,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D26">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -45205,10 +44093,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D27">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -45240,10 +44128,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D28">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -45275,10 +44163,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D29">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -45310,10 +44198,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D30">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -45345,10 +44233,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D31">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -45380,10 +44268,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D32">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -45415,10 +44303,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D33">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -45450,10 +44338,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D34">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -45485,10 +44373,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D35">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -45521,7 +44409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -45573,10 +44461,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D2">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -45602,10 +44490,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D3">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -45631,10 +44519,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D4">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -45660,10 +44548,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D5">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -45689,10 +44577,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D6">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -45718,10 +44606,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D7">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -45747,10 +44635,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D8">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -45782,10 +44670,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D9">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -45814,10 +44702,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D10">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -45846,10 +44734,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D11">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -45881,10 +44769,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D12">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -45916,10 +44804,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D13">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -45948,10 +44836,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D14">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -45980,10 +44868,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D15">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -46012,10 +44900,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D16">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -46044,10 +44932,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D17">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -46076,10 +44964,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D18">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -46108,10 +44996,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D19">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -46140,10 +45028,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D20">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -46172,10 +45060,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D21">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -46204,10 +45092,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D22">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -46239,10 +45127,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D23">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -46274,10 +45162,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D24">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -46309,10 +45197,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D25">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -46344,10 +45232,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D26">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -46379,10 +45267,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D27">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -46414,10 +45302,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D28">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -46449,10 +45337,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D29">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -46484,10 +45372,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D30">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -46519,10 +45407,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D31">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -46554,10 +45442,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D32">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -46589,10 +45477,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D33">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -46624,10 +45512,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D34">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -46659,10 +45547,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D35">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -46747,10 +45635,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D2">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -46776,10 +45664,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D3">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -46805,10 +45693,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D4">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -46834,10 +45722,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D5">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -46863,10 +45751,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D6">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -46892,10 +45780,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D7">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -46921,10 +45809,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D8">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -46956,10 +45844,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D9">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -46988,10 +45876,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D10">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -47020,10 +45908,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D11">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -47055,10 +45943,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D12">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -47090,10 +45978,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D13">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -47122,10 +46010,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D14">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -47154,10 +46042,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D15">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -47186,10 +46074,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D16">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -47218,10 +46106,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D17">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -47250,10 +46138,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D18">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -47282,10 +46170,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D19">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -47314,10 +46202,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D20">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -47346,10 +46234,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D21">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -47378,10 +46266,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D22">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -47413,10 +46301,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D23">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -47448,10 +46336,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D24">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -47483,10 +46371,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D25">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -47518,10 +46406,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D26">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -47553,10 +46441,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D27">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -47588,10 +46476,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D28">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -47623,10 +46511,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D29">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -47658,10 +46546,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D30">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -47693,10 +46581,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D31">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -47728,10 +46616,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D32">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -47763,10 +46651,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D33">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -47798,10 +46686,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D34">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -47833,10 +46721,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D35">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -47866,6 +46754,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>12316</v>
+      </c>
+      <c r="D2">
+        <v>12349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>12316</v>
+      </c>
+      <c r="D3">
+        <v>12349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>12316</v>
+      </c>
+      <c r="D4">
+        <v>12349</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>12316</v>
+      </c>
+      <c r="D5">
+        <v>12349</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>12316</v>
+      </c>
+      <c r="D6">
+        <v>12349</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>12316</v>
+      </c>
+      <c r="D7">
+        <v>12349</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>12316</v>
+      </c>
+      <c r="D8">
+        <v>12371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>12316</v>
+      </c>
+      <c r="D9">
+        <v>12371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>12316</v>
+      </c>
+      <c r="D10">
+        <v>12371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>12316</v>
+      </c>
+      <c r="D11">
+        <v>12371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>12316</v>
+      </c>
+      <c r="D12">
+        <v>12371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>12316</v>
+      </c>
+      <c r="D13">
+        <v>12371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>12316</v>
+      </c>
+      <c r="D14">
+        <v>12371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>12316</v>
+      </c>
+      <c r="D15">
+        <v>12371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>12316</v>
+      </c>
+      <c r="D16">
+        <v>12371</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>12316</v>
+      </c>
+      <c r="D17">
+        <v>12371</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>12316</v>
+      </c>
+      <c r="D18">
+        <v>12371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>12316</v>
+      </c>
+      <c r="D19">
+        <v>12371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>12316</v>
+      </c>
+      <c r="D20">
+        <v>12371</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>12316</v>
+      </c>
+      <c r="D21">
+        <v>12371</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11231</v>
+      </c>
+      <c r="D22">
+        <v>11239</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11231</v>
+      </c>
+      <c r="D23">
+        <v>11239</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11231</v>
+      </c>
+      <c r="D24">
+        <v>11239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11231</v>
+      </c>
+      <c r="D25">
+        <v>11239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11231</v>
+      </c>
+      <c r="D26">
+        <v>11239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11231</v>
+      </c>
+      <c r="D27">
+        <v>11239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11231</v>
+      </c>
+      <c r="D28">
+        <v>11239</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11231</v>
+      </c>
+      <c r="D29">
+        <v>11239</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11231</v>
+      </c>
+      <c r="D30">
+        <v>11239</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11231</v>
+      </c>
+      <c r="D31">
+        <v>11239</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11231</v>
+      </c>
+      <c r="D32">
+        <v>11239</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11231</v>
+      </c>
+      <c r="D33">
+        <v>11239</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11231</v>
+      </c>
+      <c r="D34">
+        <v>11239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11231</v>
+      </c>
+      <c r="D35">
+        <v>11239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -49011,1180 +49073,6 @@
       </c>
       <c r="D35">
         <v>11321</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>13115</v>
-      </c>
-      <c r="D2">
-        <v>13137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>13115</v>
-      </c>
-      <c r="D3">
-        <v>13137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>13115</v>
-      </c>
-      <c r="D4">
-        <v>13137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>13115</v>
-      </c>
-      <c r="D5">
-        <v>13137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>13115</v>
-      </c>
-      <c r="D6">
-        <v>13137</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>13115</v>
-      </c>
-      <c r="D7">
-        <v>13137</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>13115</v>
-      </c>
-      <c r="D8">
-        <v>13137</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>13115</v>
-      </c>
-      <c r="D9">
-        <v>13137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>13115</v>
-      </c>
-      <c r="D10">
-        <v>13137</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>13115</v>
-      </c>
-      <c r="D11">
-        <v>13137</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>13115</v>
-      </c>
-      <c r="D12">
-        <v>13137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>13115</v>
-      </c>
-      <c r="D13">
-        <v>13137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>13115</v>
-      </c>
-      <c r="D14">
-        <v>13137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>13115</v>
-      </c>
-      <c r="D15">
-        <v>13137</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>13115</v>
-      </c>
-      <c r="D16">
-        <v>13137</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>13115</v>
-      </c>
-      <c r="D17">
-        <v>13137</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>13115</v>
-      </c>
-      <c r="D18">
-        <v>13137</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>13115</v>
-      </c>
-      <c r="D19">
-        <v>13137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>13115</v>
-      </c>
-      <c r="D20">
-        <v>13137</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>13115</v>
-      </c>
-      <c r="D21">
-        <v>13137</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11411</v>
-      </c>
-      <c r="D22">
-        <v>11414</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11411</v>
-      </c>
-      <c r="D23">
-        <v>11414</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11411</v>
-      </c>
-      <c r="D24">
-        <v>11414</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11411</v>
-      </c>
-      <c r="D25">
-        <v>11414</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11411</v>
-      </c>
-      <c r="D26">
-        <v>11414</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11411</v>
-      </c>
-      <c r="D27">
-        <v>11414</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11411</v>
-      </c>
-      <c r="D28">
-        <v>11414</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11411</v>
-      </c>
-      <c r="D29">
-        <v>11414</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11411</v>
-      </c>
-      <c r="D30">
-        <v>11414</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11411</v>
-      </c>
-      <c r="D31">
-        <v>11414</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11411</v>
-      </c>
-      <c r="D32">
-        <v>11414</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11411</v>
-      </c>
-      <c r="D33">
-        <v>11414</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11411</v>
-      </c>
-      <c r="D34">
-        <v>11414</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11411</v>
-      </c>
-      <c r="D35">
-        <v>11414</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -51450,6 +50338,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>13115</v>
+      </c>
+      <c r="D2">
+        <v>13137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>13115</v>
+      </c>
+      <c r="D3">
+        <v>13137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>13115</v>
+      </c>
+      <c r="D4">
+        <v>13137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>13115</v>
+      </c>
+      <c r="D5">
+        <v>13137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>13115</v>
+      </c>
+      <c r="D6">
+        <v>13137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>13115</v>
+      </c>
+      <c r="D7">
+        <v>13137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>13115</v>
+      </c>
+      <c r="D8">
+        <v>13137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>13115</v>
+      </c>
+      <c r="D9">
+        <v>13137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>13115</v>
+      </c>
+      <c r="D10">
+        <v>13137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>13115</v>
+      </c>
+      <c r="D11">
+        <v>13137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>13115</v>
+      </c>
+      <c r="D12">
+        <v>13137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>13115</v>
+      </c>
+      <c r="D13">
+        <v>13137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>13115</v>
+      </c>
+      <c r="D14">
+        <v>13137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>13115</v>
+      </c>
+      <c r="D15">
+        <v>13137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>13115</v>
+      </c>
+      <c r="D16">
+        <v>13137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>13115</v>
+      </c>
+      <c r="D17">
+        <v>13137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>13115</v>
+      </c>
+      <c r="D18">
+        <v>13137</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>13115</v>
+      </c>
+      <c r="D19">
+        <v>13137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>13115</v>
+      </c>
+      <c r="D20">
+        <v>13137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>13115</v>
+      </c>
+      <c r="D21">
+        <v>13137</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11411</v>
+      </c>
+      <c r="D22">
+        <v>11414</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11411</v>
+      </c>
+      <c r="D23">
+        <v>11414</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11411</v>
+      </c>
+      <c r="D24">
+        <v>11414</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11411</v>
+      </c>
+      <c r="D25">
+        <v>11414</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11411</v>
+      </c>
+      <c r="D26">
+        <v>11414</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11411</v>
+      </c>
+      <c r="D27">
+        <v>11414</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11411</v>
+      </c>
+      <c r="D28">
+        <v>11414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11411</v>
+      </c>
+      <c r="D29">
+        <v>11414</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11411</v>
+      </c>
+      <c r="D30">
+        <v>11414</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11411</v>
+      </c>
+      <c r="D31">
+        <v>11414</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11411</v>
+      </c>
+      <c r="D32">
+        <v>11414</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11411</v>
+      </c>
+      <c r="D33">
+        <v>11414</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11411</v>
+      </c>
+      <c r="D34">
+        <v>11414</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11411</v>
+      </c>
+      <c r="D35">
+        <v>11414</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
@@ -52620,7 +52682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -53794,7 +53856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -54971,7 +55033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -56145,7 +56207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -57319,7 +57381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -58493,7 +58555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -59667,7 +59729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -60841,7 +60903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -61987,1180 +62049,6 @@
       </c>
       <c r="D35">
         <v>11175</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>16113</v>
-      </c>
-      <c r="D2">
-        <v>16237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>16113</v>
-      </c>
-      <c r="D3">
-        <v>16237</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>16113</v>
-      </c>
-      <c r="D4">
-        <v>16237</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>16113</v>
-      </c>
-      <c r="D5">
-        <v>16237</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>16113</v>
-      </c>
-      <c r="D6">
-        <v>16237</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>16113</v>
-      </c>
-      <c r="D7">
-        <v>16237</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>16113</v>
-      </c>
-      <c r="D8">
-        <v>16237</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>16113</v>
-      </c>
-      <c r="D9">
-        <v>16237</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>16113</v>
-      </c>
-      <c r="D10">
-        <v>16237</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>16113</v>
-      </c>
-      <c r="D11">
-        <v>16237</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>16113</v>
-      </c>
-      <c r="D12">
-        <v>16237</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>16113</v>
-      </c>
-      <c r="D13">
-        <v>16237</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>16113</v>
-      </c>
-      <c r="D14">
-        <v>16237</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>16113</v>
-      </c>
-      <c r="D15">
-        <v>16237</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>16113</v>
-      </c>
-      <c r="D16">
-        <v>16237</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>16113</v>
-      </c>
-      <c r="D17">
-        <v>16237</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>16113</v>
-      </c>
-      <c r="D18">
-        <v>16237</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>16113</v>
-      </c>
-      <c r="D19">
-        <v>16237</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>16113</v>
-      </c>
-      <c r="D20">
-        <v>16237</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>16113</v>
-      </c>
-      <c r="D21">
-        <v>16237</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11651</v>
-      </c>
-      <c r="D22">
-        <v>11662</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11651</v>
-      </c>
-      <c r="D23">
-        <v>11662</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11651</v>
-      </c>
-      <c r="D24">
-        <v>11662</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11651</v>
-      </c>
-      <c r="D25">
-        <v>11662</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11651</v>
-      </c>
-      <c r="D26">
-        <v>11662</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11651</v>
-      </c>
-      <c r="D27">
-        <v>11662</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11651</v>
-      </c>
-      <c r="D28">
-        <v>11662</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11651</v>
-      </c>
-      <c r="D29">
-        <v>11662</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11651</v>
-      </c>
-      <c r="D30">
-        <v>11662</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11651</v>
-      </c>
-      <c r="D31">
-        <v>11662</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11651</v>
-      </c>
-      <c r="D32">
-        <v>11662</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11651</v>
-      </c>
-      <c r="D33">
-        <v>11662</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11651</v>
-      </c>
-      <c r="D34">
-        <v>11662</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11651</v>
-      </c>
-      <c r="D35">
-        <v>11662</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -63308,6 +62196,1180 @@
       </c>
       <c r="D10">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>16113</v>
+      </c>
+      <c r="D2">
+        <v>16237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>16113</v>
+      </c>
+      <c r="D3">
+        <v>16237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>16113</v>
+      </c>
+      <c r="D4">
+        <v>16237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>16113</v>
+      </c>
+      <c r="D5">
+        <v>16237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>16113</v>
+      </c>
+      <c r="D6">
+        <v>16237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>16113</v>
+      </c>
+      <c r="D7">
+        <v>16237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>16113</v>
+      </c>
+      <c r="D8">
+        <v>16237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>16113</v>
+      </c>
+      <c r="D9">
+        <v>16237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>16113</v>
+      </c>
+      <c r="D10">
+        <v>16237</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>16113</v>
+      </c>
+      <c r="D11">
+        <v>16237</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>16113</v>
+      </c>
+      <c r="D12">
+        <v>16237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>16113</v>
+      </c>
+      <c r="D13">
+        <v>16237</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>16113</v>
+      </c>
+      <c r="D14">
+        <v>16237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>16113</v>
+      </c>
+      <c r="D15">
+        <v>16237</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>16113</v>
+      </c>
+      <c r="D16">
+        <v>16237</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>16113</v>
+      </c>
+      <c r="D17">
+        <v>16237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>16113</v>
+      </c>
+      <c r="D18">
+        <v>16237</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>16113</v>
+      </c>
+      <c r="D19">
+        <v>16237</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>16113</v>
+      </c>
+      <c r="D20">
+        <v>16237</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>16113</v>
+      </c>
+      <c r="D21">
+        <v>16237</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11651</v>
+      </c>
+      <c r="D22">
+        <v>11662</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11651</v>
+      </c>
+      <c r="D23">
+        <v>11662</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11651</v>
+      </c>
+      <c r="D24">
+        <v>11662</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11651</v>
+      </c>
+      <c r="D25">
+        <v>11662</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11651</v>
+      </c>
+      <c r="D26">
+        <v>11662</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11651</v>
+      </c>
+      <c r="D27">
+        <v>11662</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11651</v>
+      </c>
+      <c r="D28">
+        <v>11662</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11651</v>
+      </c>
+      <c r="D29">
+        <v>11662</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11651</v>
+      </c>
+      <c r="D30">
+        <v>11662</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11651</v>
+      </c>
+      <c r="D31">
+        <v>11662</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11651</v>
+      </c>
+      <c r="D32">
+        <v>11662</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11651</v>
+      </c>
+      <c r="D33">
+        <v>11662</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11651</v>
+      </c>
+      <c r="D34">
+        <v>11662</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11651</v>
+      </c>
+      <c r="D35">
+        <v>11662</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -52,33 +52,34 @@
     <sheet name="HomemadeTables" sheetId="1006" r:id="rId38"/>
     <sheet name="IntraTables" sheetId="1007" r:id="rId39"/>
     <sheet name="FoodGroupTables" sheetId="1030" r:id="rId40"/>
-    <sheet name="Sheet1" sheetId="1033" r:id="rId41"/>
-    <sheet name="Ghand" sheetId="1009" r:id="rId42"/>
-    <sheet name="Hoboobat" sheetId="1010" r:id="rId43"/>
-    <sheet name="Roghan" sheetId="1011" r:id="rId44"/>
-    <sheet name="Berenj" sheetId="1012" r:id="rId45"/>
-    <sheet name="Nan" sheetId="1013" r:id="rId46"/>
-    <sheet name="Goosht" sheetId="1014" r:id="rId47"/>
-    <sheet name="Morgh" sheetId="1015" r:id="rId48"/>
-    <sheet name="Mahi" sheetId="1016" r:id="rId49"/>
-    <sheet name="Shir" sheetId="1017" r:id="rId50"/>
-    <sheet name="Mast" sheetId="1018" r:id="rId51"/>
-    <sheet name="Panir" sheetId="1019" r:id="rId52"/>
-    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId53"/>
-    <sheet name="Mive" sheetId="1021" r:id="rId54"/>
-    <sheet name="Sabzi" sheetId="1022" r:id="rId55"/>
-    <sheet name="Makarooni" sheetId="1023" r:id="rId56"/>
-    <sheet name="Sibzamini" sheetId="1024" r:id="rId57"/>
-    <sheet name="Shirini" sheetId="1025" r:id="rId58"/>
-    <sheet name="Biscuit" sheetId="1026" r:id="rId59"/>
-    <sheet name="Khoshkbar" sheetId="1027" r:id="rId60"/>
+    <sheet name="BenzinTables" sheetId="1034" r:id="rId41"/>
+    <sheet name="Sheet1" sheetId="1033" r:id="rId42"/>
+    <sheet name="Ghand" sheetId="1009" r:id="rId43"/>
+    <sheet name="Hoboobat" sheetId="1010" r:id="rId44"/>
+    <sheet name="Roghan" sheetId="1011" r:id="rId45"/>
+    <sheet name="Berenj" sheetId="1012" r:id="rId46"/>
+    <sheet name="Nan" sheetId="1013" r:id="rId47"/>
+    <sheet name="Goosht" sheetId="1014" r:id="rId48"/>
+    <sheet name="Morgh" sheetId="1015" r:id="rId49"/>
+    <sheet name="Mahi" sheetId="1016" r:id="rId50"/>
+    <sheet name="Shir" sheetId="1017" r:id="rId51"/>
+    <sheet name="Mast" sheetId="1018" r:id="rId52"/>
+    <sheet name="Panir" sheetId="1019" r:id="rId53"/>
+    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId54"/>
+    <sheet name="Mive" sheetId="1021" r:id="rId55"/>
+    <sheet name="Sabzi" sheetId="1022" r:id="rId56"/>
+    <sheet name="Makarooni" sheetId="1023" r:id="rId57"/>
+    <sheet name="Sibzamini" sheetId="1024" r:id="rId58"/>
+    <sheet name="Shirini" sheetId="1025" r:id="rId59"/>
+    <sheet name="Biscuit" sheetId="1026" r:id="rId60"/>
+    <sheet name="Khoshkbar" sheetId="1027" r:id="rId61"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14195" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="596">
   <si>
     <t>Year</t>
   </si>
@@ -1864,6 +1865,9 @@
   <si>
     <t>Shirini</t>
   </si>
+  <si>
+    <t>Benzin_Exp</t>
+  </si>
 </sst>
 </file>
 
@@ -39453,8 +39457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39659,6 +39663,955 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2">
+        <v>72211</v>
+      </c>
+      <c r="D2">
+        <v>72211</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3">
+        <v>72211</v>
+      </c>
+      <c r="D3">
+        <v>72211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4">
+        <v>72211</v>
+      </c>
+      <c r="D4">
+        <v>72211</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5">
+        <v>72211</v>
+      </c>
+      <c r="D5">
+        <v>72211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6">
+        <v>72211</v>
+      </c>
+      <c r="D6">
+        <v>72211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7">
+        <v>72211</v>
+      </c>
+      <c r="D7">
+        <v>72211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8">
+        <v>72211</v>
+      </c>
+      <c r="D8">
+        <v>72211</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9">
+        <v>72211</v>
+      </c>
+      <c r="D9">
+        <v>72211</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10">
+        <v>72211</v>
+      </c>
+      <c r="D10">
+        <v>72211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11">
+        <v>72211</v>
+      </c>
+      <c r="D11">
+        <v>72211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12">
+        <v>72211</v>
+      </c>
+      <c r="D12">
+        <v>72211</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13">
+        <v>72211</v>
+      </c>
+      <c r="D13">
+        <v>72211</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14">
+        <v>72211</v>
+      </c>
+      <c r="D14">
+        <v>72211</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15">
+        <v>72211</v>
+      </c>
+      <c r="D15">
+        <v>72211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16">
+        <v>72211</v>
+      </c>
+      <c r="D16">
+        <v>72211</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17">
+        <v>72211</v>
+      </c>
+      <c r="D17">
+        <v>72211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18">
+        <v>72211</v>
+      </c>
+      <c r="D18">
+        <v>72211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19">
+        <v>72211</v>
+      </c>
+      <c r="D19">
+        <v>72211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20">
+        <v>72211</v>
+      </c>
+      <c r="D20">
+        <v>72211</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21">
+        <v>72211</v>
+      </c>
+      <c r="D21">
+        <v>72211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22">
+        <v>72211</v>
+      </c>
+      <c r="D22">
+        <v>72211</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23">
+        <v>72211</v>
+      </c>
+      <c r="D23">
+        <v>72211</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24">
+        <v>72211</v>
+      </c>
+      <c r="D24">
+        <v>72211</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25">
+        <v>72211</v>
+      </c>
+      <c r="D25">
+        <v>72211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26">
+        <v>72211</v>
+      </c>
+      <c r="D26">
+        <v>72211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27">
+        <v>72211</v>
+      </c>
+      <c r="D27">
+        <v>72211</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28">
+        <v>72211</v>
+      </c>
+      <c r="D28">
+        <v>72211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29">
+        <v>72211</v>
+      </c>
+      <c r="D29">
+        <v>72211</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30">
+        <v>72211</v>
+      </c>
+      <c r="D30">
+        <v>72211</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31">
+        <v>72211</v>
+      </c>
+      <c r="D31">
+        <v>72211</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32">
+        <v>72211</v>
+      </c>
+      <c r="D32">
+        <v>72211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33">
+        <v>72211</v>
+      </c>
+      <c r="D33">
+        <v>72211</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34">
+        <v>72211</v>
+      </c>
+      <c r="D34">
+        <v>72211</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35">
+        <v>72211</v>
+      </c>
+      <c r="D35">
+        <v>72211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -39706,7 +40659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -40883,7 +41836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -42057,7 +43010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -43203,1180 +44156,6 @@
       </c>
       <c r="D35">
         <v>11533</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>11211</v>
-      </c>
-      <c r="D2">
-        <v>11277</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>11211</v>
-      </c>
-      <c r="D3">
-        <v>11277</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>11211</v>
-      </c>
-      <c r="D4">
-        <v>11277</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>11211</v>
-      </c>
-      <c r="D5">
-        <v>11277</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>11211</v>
-      </c>
-      <c r="D6">
-        <v>11277</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>11211</v>
-      </c>
-      <c r="D7">
-        <v>11277</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>11211</v>
-      </c>
-      <c r="D8">
-        <v>11277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>11211</v>
-      </c>
-      <c r="D9">
-        <v>11277</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>11211</v>
-      </c>
-      <c r="D10">
-        <v>11277</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>11211</v>
-      </c>
-      <c r="D11">
-        <v>11277</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>11211</v>
-      </c>
-      <c r="D12">
-        <v>11277</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>11211</v>
-      </c>
-      <c r="D13">
-        <v>11277</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>11211</v>
-      </c>
-      <c r="D14">
-        <v>11277</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>11211</v>
-      </c>
-      <c r="D15">
-        <v>11277</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>11211</v>
-      </c>
-      <c r="D16">
-        <v>11277</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>11211</v>
-      </c>
-      <c r="D17">
-        <v>11277</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>11211</v>
-      </c>
-      <c r="D18">
-        <v>11277</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>11211</v>
-      </c>
-      <c r="D19">
-        <v>11277</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>11211</v>
-      </c>
-      <c r="D20">
-        <v>11277</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>11211</v>
-      </c>
-      <c r="D21">
-        <v>11277</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11111</v>
-      </c>
-      <c r="D22">
-        <v>11118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11111</v>
-      </c>
-      <c r="D23">
-        <v>11118</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11111</v>
-      </c>
-      <c r="D24">
-        <v>11118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11111</v>
-      </c>
-      <c r="D25">
-        <v>11118</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11111</v>
-      </c>
-      <c r="D26">
-        <v>11118</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11111</v>
-      </c>
-      <c r="D27">
-        <v>11118</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11111</v>
-      </c>
-      <c r="D28">
-        <v>11118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11111</v>
-      </c>
-      <c r="D29">
-        <v>11118</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11111</v>
-      </c>
-      <c r="D30">
-        <v>11118</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11111</v>
-      </c>
-      <c r="D31">
-        <v>11118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11111</v>
-      </c>
-      <c r="D32">
-        <v>11118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11111</v>
-      </c>
-      <c r="D33">
-        <v>11118</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11111</v>
-      </c>
-      <c r="D34">
-        <v>11118</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11111</v>
-      </c>
-      <c r="D35">
-        <v>11118</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -44461,10 +44240,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D2">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -44490,10 +44269,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D3">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -44519,10 +44298,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D4">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -44548,10 +44327,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D5">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -44577,10 +44356,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D6">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -44606,10 +44385,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D7">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -44635,10 +44414,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D8">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -44670,10 +44449,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D9">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -44702,10 +44481,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D10">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -44734,10 +44513,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D11">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -44769,10 +44548,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D12">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -44804,10 +44583,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D13">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -44836,10 +44615,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D14">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -44868,10 +44647,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D15">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -44900,10 +44679,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D16">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -44932,10 +44711,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D17">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -44964,10 +44743,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D18">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -44996,10 +44775,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D19">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -45028,10 +44807,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D20">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -45060,10 +44839,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>11313</v>
+        <v>11211</v>
       </c>
       <c r="D21">
-        <v>11379</v>
+        <v>11277</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -45092,10 +44871,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D22">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -45127,10 +44906,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D23">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -45162,10 +44941,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D24">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -45197,10 +44976,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D25">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -45232,10 +45011,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D26">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -45267,10 +45046,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D27">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -45302,10 +45081,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D28">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -45337,10 +45116,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D29">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -45372,10 +45151,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D30">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -45407,10 +45186,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D31">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -45442,10 +45221,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D32">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -45477,10 +45256,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D33">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -45512,10 +45291,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D34">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -45547,10 +45326,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11141</v>
+        <v>11111</v>
       </c>
       <c r="D35">
-        <v>11153</v>
+        <v>11118</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -45583,7 +45362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -45635,10 +45414,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D2">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -45664,10 +45443,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D3">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -45693,10 +45472,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D4">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -45722,10 +45501,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D5">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -45751,10 +45530,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D6">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -45780,10 +45559,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D7">
-        <v>12247</v>
+        <v>11379</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -45809,10 +45588,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D8">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -45844,10 +45623,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D9">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -45876,10 +45655,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D10">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -45908,10 +45687,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D11">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -45943,10 +45722,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D12">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -45978,10 +45757,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D13">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -46010,10 +45789,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D14">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -46042,10 +45821,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D15">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -46074,10 +45853,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D16">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -46106,10 +45885,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D17">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -46138,10 +45917,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D18">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -46170,10 +45949,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D19">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -46202,10 +45981,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D20">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -46234,10 +46013,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12112</v>
+        <v>11313</v>
       </c>
       <c r="D21">
-        <v>12178</v>
+        <v>11379</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -46266,10 +46045,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D22">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -46301,10 +46080,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D23">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -46336,10 +46115,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D24">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -46371,10 +46150,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D25">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -46406,10 +46185,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D26">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -46441,10 +46220,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D27">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -46476,10 +46255,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D28">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -46511,10 +46290,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D29">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -46546,10 +46325,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D30">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -46581,10 +46360,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D31">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -46616,10 +46395,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D32">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -46651,10 +46430,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D33">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -46686,10 +46465,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D34">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -46721,10 +46500,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11211</v>
+        <v>11141</v>
       </c>
       <c r="D35">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -46809,10 +46588,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D2">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -46838,10 +46617,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D3">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -46867,10 +46646,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D4">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -46896,10 +46675,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D5">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -46925,10 +46704,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D6">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -46954,10 +46733,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D7">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -46983,10 +46762,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D8">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -47018,10 +46797,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D9">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -47050,10 +46829,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D10">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -47082,10 +46861,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D11">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -47117,10 +46896,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D12">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -47152,10 +46931,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D13">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -47184,10 +46963,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D14">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -47216,10 +46995,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D15">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -47248,10 +47027,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D16">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -47280,10 +47059,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D17">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -47312,10 +47091,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D18">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -47344,10 +47123,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D19">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -47376,10 +47155,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D20">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -47408,10 +47187,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D21">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -47440,10 +47219,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D22">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -47475,10 +47254,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D23">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -47510,10 +47289,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D24">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -47545,10 +47324,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D25">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -47580,10 +47359,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D26">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -47615,10 +47394,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D27">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -47650,10 +47429,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D28">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -47685,10 +47464,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D29">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -47720,10 +47499,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D30">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -47755,10 +47534,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D31">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -47790,10 +47569,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D32">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -47825,10 +47604,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D33">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -47860,10 +47639,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D34">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -47895,10 +47674,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D35">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -47931,7 +47710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -47983,10 +47762,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D2">
-        <v>12473</v>
+        <v>12349</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -48012,10 +47791,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D3">
-        <v>12473</v>
+        <v>12349</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -48041,10 +47820,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D4">
-        <v>12473</v>
+        <v>12349</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -48070,10 +47849,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D5">
-        <v>12473</v>
+        <v>12349</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -48099,10 +47878,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D6">
-        <v>12473</v>
+        <v>12349</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -48128,10 +47907,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D7">
-        <v>12473</v>
+        <v>12349</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -48157,10 +47936,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D8">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -48192,10 +47971,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D9">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -48224,10 +48003,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D10">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -48256,10 +48035,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D11">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -48291,10 +48070,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D12">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -48326,10 +48105,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D13">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -48358,10 +48137,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D14">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -48390,10 +48169,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D15">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -48422,10 +48201,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D16">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -48454,10 +48233,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D17">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -48486,10 +48265,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D18">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -48518,10 +48297,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D19">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -48550,10 +48329,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D20">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -48582,10 +48361,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12418</v>
+        <v>12316</v>
       </c>
       <c r="D21">
-        <v>12440</v>
+        <v>12371</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -48614,10 +48393,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D22">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -48649,10 +48428,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D23">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -48684,10 +48463,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D24">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -48719,10 +48498,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D25">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -48754,10 +48533,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D26">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -48789,10 +48568,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D27">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -48824,10 +48603,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D28">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -48859,10 +48638,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D29">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -48894,10 +48673,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D30">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -48929,10 +48708,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D31">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -48964,10 +48743,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D32">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -48999,10 +48778,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D33">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -49034,10 +48813,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D34">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -49069,10 +48848,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11311</v>
+        <v>11231</v>
       </c>
       <c r="D35">
-        <v>11321</v>
+        <v>11239</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -50338,6 +50117,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>12418</v>
+      </c>
+      <c r="D2">
+        <v>12473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>12418</v>
+      </c>
+      <c r="D3">
+        <v>12473</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>12418</v>
+      </c>
+      <c r="D4">
+        <v>12473</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>12418</v>
+      </c>
+      <c r="D5">
+        <v>12473</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>12418</v>
+      </c>
+      <c r="D6">
+        <v>12473</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>12418</v>
+      </c>
+      <c r="D7">
+        <v>12473</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>12418</v>
+      </c>
+      <c r="D8">
+        <v>12440</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>12418</v>
+      </c>
+      <c r="D9">
+        <v>12440</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>12418</v>
+      </c>
+      <c r="D10">
+        <v>12440</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>12418</v>
+      </c>
+      <c r="D11">
+        <v>12440</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>12418</v>
+      </c>
+      <c r="D12">
+        <v>12440</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>12418</v>
+      </c>
+      <c r="D13">
+        <v>12440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>12418</v>
+      </c>
+      <c r="D14">
+        <v>12440</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>12418</v>
+      </c>
+      <c r="D15">
+        <v>12440</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>12418</v>
+      </c>
+      <c r="D16">
+        <v>12440</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>12418</v>
+      </c>
+      <c r="D17">
+        <v>12440</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>12418</v>
+      </c>
+      <c r="D18">
+        <v>12440</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>12418</v>
+      </c>
+      <c r="D19">
+        <v>12440</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>12418</v>
+      </c>
+      <c r="D20">
+        <v>12440</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>12418</v>
+      </c>
+      <c r="D21">
+        <v>12440</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11311</v>
+      </c>
+      <c r="D22">
+        <v>11321</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11311</v>
+      </c>
+      <c r="D23">
+        <v>11321</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11311</v>
+      </c>
+      <c r="D24">
+        <v>11321</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11311</v>
+      </c>
+      <c r="D25">
+        <v>11321</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11311</v>
+      </c>
+      <c r="D26">
+        <v>11321</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11311</v>
+      </c>
+      <c r="D27">
+        <v>11321</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11311</v>
+      </c>
+      <c r="D28">
+        <v>11321</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11311</v>
+      </c>
+      <c r="D29">
+        <v>11321</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11311</v>
+      </c>
+      <c r="D30">
+        <v>11321</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11311</v>
+      </c>
+      <c r="D31">
+        <v>11321</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11311</v>
+      </c>
+      <c r="D32">
+        <v>11321</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11311</v>
+      </c>
+      <c r="D33">
+        <v>11321</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11311</v>
+      </c>
+      <c r="D34">
+        <v>11321</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11311</v>
+      </c>
+      <c r="D35">
+        <v>11321</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
@@ -51508,7 +52461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -52682,7 +53635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -53856,7 +54809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -55033,7 +55986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -56207,7 +57160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -57381,7 +58334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -58555,7 +59508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -59729,7 +60682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -60875,1180 +61828,6 @@
       </c>
       <c r="D35">
         <v>11845</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>11415</v>
-      </c>
-      <c r="D2">
-        <v>11426</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>11415</v>
-      </c>
-      <c r="D3">
-        <v>11426</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>11415</v>
-      </c>
-      <c r="D4">
-        <v>11426</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>11415</v>
-      </c>
-      <c r="D5">
-        <v>11426</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>11415</v>
-      </c>
-      <c r="D6">
-        <v>11426</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>11415</v>
-      </c>
-      <c r="D7">
-        <v>11426</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>11415</v>
-      </c>
-      <c r="D8">
-        <v>11426</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>11415</v>
-      </c>
-      <c r="D9">
-        <v>11426</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>11415</v>
-      </c>
-      <c r="D10">
-        <v>11426</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>11415</v>
-      </c>
-      <c r="D11">
-        <v>11426</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>11415</v>
-      </c>
-      <c r="D12">
-        <v>11426</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>11415</v>
-      </c>
-      <c r="D13">
-        <v>11426</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>11415</v>
-      </c>
-      <c r="D14">
-        <v>11426</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>11415</v>
-      </c>
-      <c r="D15">
-        <v>11426</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>11415</v>
-      </c>
-      <c r="D16">
-        <v>11426</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>11415</v>
-      </c>
-      <c r="D17">
-        <v>11426</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>11415</v>
-      </c>
-      <c r="D18">
-        <v>11426</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>11415</v>
-      </c>
-      <c r="D19">
-        <v>11426</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>11415</v>
-      </c>
-      <c r="D20">
-        <v>11426</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>11415</v>
-      </c>
-      <c r="D21">
-        <v>11426</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11171</v>
-      </c>
-      <c r="D22">
-        <v>11175</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11171</v>
-      </c>
-      <c r="D23">
-        <v>11175</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11171</v>
-      </c>
-      <c r="D24">
-        <v>11175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11171</v>
-      </c>
-      <c r="D25">
-        <v>11175</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11171</v>
-      </c>
-      <c r="D26">
-        <v>11175</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11171</v>
-      </c>
-      <c r="D27">
-        <v>11175</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11171</v>
-      </c>
-      <c r="D28">
-        <v>11175</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11171</v>
-      </c>
-      <c r="D29">
-        <v>11175</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11171</v>
-      </c>
-      <c r="D30">
-        <v>11175</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11171</v>
-      </c>
-      <c r="D31">
-        <v>11175</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11171</v>
-      </c>
-      <c r="D32">
-        <v>11175</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11171</v>
-      </c>
-      <c r="D33">
-        <v>11175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11171</v>
-      </c>
-      <c r="D34">
-        <v>11175</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11171</v>
-      </c>
-      <c r="D35">
-        <v>11175</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -62204,6 +61983,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>11415</v>
+      </c>
+      <c r="D2">
+        <v>11426</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>11415</v>
+      </c>
+      <c r="D3">
+        <v>11426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>11415</v>
+      </c>
+      <c r="D4">
+        <v>11426</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>11415</v>
+      </c>
+      <c r="D5">
+        <v>11426</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>11415</v>
+      </c>
+      <c r="D6">
+        <v>11426</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>11415</v>
+      </c>
+      <c r="D7">
+        <v>11426</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>11415</v>
+      </c>
+      <c r="D8">
+        <v>11426</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>11415</v>
+      </c>
+      <c r="D9">
+        <v>11426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>11415</v>
+      </c>
+      <c r="D10">
+        <v>11426</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>11415</v>
+      </c>
+      <c r="D11">
+        <v>11426</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>11415</v>
+      </c>
+      <c r="D12">
+        <v>11426</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>11415</v>
+      </c>
+      <c r="D13">
+        <v>11426</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>11415</v>
+      </c>
+      <c r="D14">
+        <v>11426</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>11415</v>
+      </c>
+      <c r="D15">
+        <v>11426</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>11415</v>
+      </c>
+      <c r="D16">
+        <v>11426</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>11415</v>
+      </c>
+      <c r="D17">
+        <v>11426</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>11415</v>
+      </c>
+      <c r="D18">
+        <v>11426</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>11415</v>
+      </c>
+      <c r="D19">
+        <v>11426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>11415</v>
+      </c>
+      <c r="D20">
+        <v>11426</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>11415</v>
+      </c>
+      <c r="D21">
+        <v>11426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11171</v>
+      </c>
+      <c r="D22">
+        <v>11175</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11171</v>
+      </c>
+      <c r="D23">
+        <v>11175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11171</v>
+      </c>
+      <c r="D24">
+        <v>11175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11171</v>
+      </c>
+      <c r="D25">
+        <v>11175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11171</v>
+      </c>
+      <c r="D26">
+        <v>11175</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11171</v>
+      </c>
+      <c r="D27">
+        <v>11175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11171</v>
+      </c>
+      <c r="D28">
+        <v>11175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11171</v>
+      </c>
+      <c r="D29">
+        <v>11175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11171</v>
+      </c>
+      <c r="D30">
+        <v>11175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11171</v>
+      </c>
+      <c r="D31">
+        <v>11175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11171</v>
+      </c>
+      <c r="D32">
+        <v>11175</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11171</v>
+      </c>
+      <c r="D33">
+        <v>11175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11171</v>
+      </c>
+      <c r="D34">
+        <v>11175</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11171</v>
+      </c>
+      <c r="D35">
+        <v>11175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="35" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14383" uniqueCount="596">
   <si>
     <t>Year</t>
   </si>
@@ -39455,10 +39455,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39652,6 +39652,17 @@
       </c>
       <c r="C17">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -39666,7 +39677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -40616,7 +40627,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -52,34 +52,35 @@
     <sheet name="HomemadeTables" sheetId="1006" r:id="rId38"/>
     <sheet name="IntraTables" sheetId="1007" r:id="rId39"/>
     <sheet name="FoodGroupTables" sheetId="1030" r:id="rId40"/>
-    <sheet name="BenzinTables" sheetId="1034" r:id="rId41"/>
-    <sheet name="Sheet1" sheetId="1033" r:id="rId42"/>
-    <sheet name="Ghand" sheetId="1009" r:id="rId43"/>
-    <sheet name="Hoboobat" sheetId="1010" r:id="rId44"/>
-    <sheet name="Roghan" sheetId="1011" r:id="rId45"/>
-    <sheet name="Berenj" sheetId="1012" r:id="rId46"/>
-    <sheet name="Nan" sheetId="1013" r:id="rId47"/>
-    <sheet name="Goosht" sheetId="1014" r:id="rId48"/>
-    <sheet name="Morgh" sheetId="1015" r:id="rId49"/>
-    <sheet name="Mahi" sheetId="1016" r:id="rId50"/>
-    <sheet name="Shir" sheetId="1017" r:id="rId51"/>
-    <sheet name="Mast" sheetId="1018" r:id="rId52"/>
-    <sheet name="Panir" sheetId="1019" r:id="rId53"/>
-    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId54"/>
-    <sheet name="Mive" sheetId="1021" r:id="rId55"/>
-    <sheet name="Sabzi" sheetId="1022" r:id="rId56"/>
-    <sheet name="Makarooni" sheetId="1023" r:id="rId57"/>
-    <sheet name="Sibzamini" sheetId="1024" r:id="rId58"/>
-    <sheet name="Shirini" sheetId="1025" r:id="rId59"/>
-    <sheet name="Biscuit" sheetId="1026" r:id="rId60"/>
-    <sheet name="Khoshkbar" sheetId="1027" r:id="rId61"/>
+    <sheet name="FoodGroupCalories" sheetId="1035" r:id="rId41"/>
+    <sheet name="BenzinTables" sheetId="1034" r:id="rId42"/>
+    <sheet name="Sheet1" sheetId="1033" r:id="rId43"/>
+    <sheet name="Ghand" sheetId="1009" r:id="rId44"/>
+    <sheet name="Hoboobat" sheetId="1010" r:id="rId45"/>
+    <sheet name="Roghan" sheetId="1011" r:id="rId46"/>
+    <sheet name="Berenj" sheetId="1012" r:id="rId47"/>
+    <sheet name="Nan" sheetId="1013" r:id="rId48"/>
+    <sheet name="Goosht" sheetId="1014" r:id="rId49"/>
+    <sheet name="Morgh" sheetId="1015" r:id="rId50"/>
+    <sheet name="Mahi" sheetId="1016" r:id="rId51"/>
+    <sheet name="Shir" sheetId="1017" r:id="rId52"/>
+    <sheet name="Mast" sheetId="1018" r:id="rId53"/>
+    <sheet name="Panir" sheetId="1019" r:id="rId54"/>
+    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId55"/>
+    <sheet name="Mive" sheetId="1021" r:id="rId56"/>
+    <sheet name="Sabzi" sheetId="1022" r:id="rId57"/>
+    <sheet name="Makarooni" sheetId="1023" r:id="rId58"/>
+    <sheet name="Sibzamini" sheetId="1024" r:id="rId59"/>
+    <sheet name="Shirini" sheetId="1025" r:id="rId60"/>
+    <sheet name="Biscuit" sheetId="1026" r:id="rId61"/>
+    <sheet name="Khoshkbar" sheetId="1027" r:id="rId62"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14383" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14385" uniqueCount="597">
   <si>
     <t>Year</t>
   </si>
@@ -1868,6 +1869,9 @@
   <si>
     <t>Benzin_Exp</t>
   </si>
+  <si>
+    <t>Calorie_per_gram</t>
+  </si>
 </sst>
 </file>
 
@@ -10099,8 +10103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39457,8 +39461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G14:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39674,6 +39678,1904 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B235"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9">
+        <v>11111</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3.633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>11112</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
+        <v>11113</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3.5489999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>11114</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
+        <v>11115</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.6244999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <v>11116</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
+        <v>11117</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
+        <v>11118</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3.5489999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
+        <v>11121</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3.488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
+        <v>11122</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3.4569999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
+        <v>11123</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
+        <v>11124</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9">
+        <v>11125</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
+        <v>11141</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9">
+        <v>11142</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9">
+        <v>11143</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9">
+        <v>11144</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9">
+        <v>11151</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9">
+        <v>11152</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9">
+        <v>11153</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9">
+        <v>11154</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9">
+        <v>11161</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3.613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9">
+        <v>11162</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9">
+        <v>11163</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3.8130000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9">
+        <v>11164</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3.7680000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9">
+        <v>11165</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1.4069999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9">
+        <v>11166</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1.4069999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9">
+        <v>11171</v>
+      </c>
+      <c r="B29" s="9">
+        <v>5.1429999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9">
+        <v>11172</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3.7589999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9">
+        <v>11173</v>
+      </c>
+      <c r="B31" s="9">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9">
+        <v>11174</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9">
+        <v>11175</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9">
+        <v>11211</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2.8169999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9">
+        <v>11212</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9">
+        <v>11213</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9">
+        <v>11214</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1.4080000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9">
+        <v>11215</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9">
+        <v>11216</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2.8169999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9">
+        <v>11217</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9">
+        <v>11218</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0.78520000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9">
+        <v>11219</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9">
+        <v>11221</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9">
+        <v>11222</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2.6060000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="9">
+        <v>11223</v>
+      </c>
+      <c r="B45" s="9">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="9">
+        <v>11224</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="9">
+        <v>11231</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2.3260000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="9">
+        <v>11232</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2.3260000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9">
+        <v>11233</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="9">
+        <v>11234</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2.3260000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="9">
+        <v>11235</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="9">
+        <v>11236</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1.5640000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="9">
+        <v>11237</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1.794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="9">
+        <v>11238</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2.3260000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9">
+        <v>11239</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2.3260000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="9">
+        <v>11241</v>
+      </c>
+      <c r="B56" s="9">
+        <v>3.1019999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9">
+        <v>11242</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1.946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9">
+        <v>11243</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9">
+        <v>11244</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1.9690000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9">
+        <v>11245</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9">
+        <v>11246</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="9">
+        <v>11247</v>
+      </c>
+      <c r="B62" s="9">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9">
+        <v>11311</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1.208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9">
+        <v>11312</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0.78099999999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9">
+        <v>11313</v>
+      </c>
+      <c r="B65" s="9">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9">
+        <v>11314</v>
+      </c>
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9">
+        <v>11315</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9">
+        <v>11316</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1.9750000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9">
+        <v>11317</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9">
+        <v>11318</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9">
+        <v>11319</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9">
+        <v>11321</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9">
+        <v>11322</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2.5190000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9">
+        <v>11323</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1.3869999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9">
+        <v>11411</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9">
+        <v>11412</v>
+      </c>
+      <c r="B76" s="9">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9">
+        <v>11413</v>
+      </c>
+      <c r="B77" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="9">
+        <v>11414</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9">
+        <v>11421</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2.9249999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="9">
+        <v>11422</v>
+      </c>
+      <c r="B80" s="9">
+        <v>2.1430000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9">
+        <v>11423</v>
+      </c>
+      <c r="B81" s="9">
+        <v>1.9240000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9">
+        <v>11424</v>
+      </c>
+      <c r="B82" s="9">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9">
+        <v>11425</v>
+      </c>
+      <c r="B83" s="9">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="9">
+        <v>11426</v>
+      </c>
+      <c r="B84" s="9">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9">
+        <v>11427</v>
+      </c>
+      <c r="B85" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9">
+        <v>11428</v>
+      </c>
+      <c r="B86" s="9">
+        <v>3.7319999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9">
+        <v>11429</v>
+      </c>
+      <c r="B87" s="9">
+        <v>2.7239999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9">
+        <v>11431</v>
+      </c>
+      <c r="B88" s="9">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9">
+        <v>11432</v>
+      </c>
+      <c r="B89" s="9">
+        <v>2.222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="9">
+        <v>11433</v>
+      </c>
+      <c r="B90" s="9">
+        <v>3.448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="9">
+        <v>11434</v>
+      </c>
+      <c r="B91" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="9">
+        <v>11441</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1.5109999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9">
+        <v>11442</v>
+      </c>
+      <c r="B93" s="9">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="9">
+        <v>11443</v>
+      </c>
+      <c r="B94" s="9">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9">
+        <v>11511</v>
+      </c>
+      <c r="B95" s="9">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="9">
+        <v>11512</v>
+      </c>
+      <c r="B96" s="9">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9">
+        <v>11521</v>
+      </c>
+      <c r="B97" s="9">
+        <v>7.1670000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="9">
+        <v>11522</v>
+      </c>
+      <c r="B98" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9">
+        <v>11523</v>
+      </c>
+      <c r="B99" s="9">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="9">
+        <v>11531</v>
+      </c>
+      <c r="B100" s="9">
+        <v>8.8390000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9">
+        <v>11532</v>
+      </c>
+      <c r="B101" s="9">
+        <v>8.8149999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9">
+        <v>11533</v>
+      </c>
+      <c r="B102" s="9">
+        <v>8.8390000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9">
+        <v>11611</v>
+      </c>
+      <c r="B103" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9">
+        <v>11612</v>
+      </c>
+      <c r="B104" s="9">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9">
+        <v>11613</v>
+      </c>
+      <c r="B105" s="9">
+        <v>0.54799999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9">
+        <v>11614</v>
+      </c>
+      <c r="B106" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9">
+        <v>11615</v>
+      </c>
+      <c r="B107" s="9">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9">
+        <v>11616</v>
+      </c>
+      <c r="B108" s="9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9">
+        <v>11617</v>
+      </c>
+      <c r="B109" s="9">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9">
+        <v>11618</v>
+      </c>
+      <c r="B110" s="9">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9">
+        <v>11619</v>
+      </c>
+      <c r="B111" s="9">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9">
+        <v>11621</v>
+      </c>
+      <c r="B112" s="9">
+        <v>0.92099999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9">
+        <v>11622</v>
+      </c>
+      <c r="B113" s="9">
+        <v>2.7530000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9">
+        <v>11623</v>
+      </c>
+      <c r="B114" s="9">
+        <v>6.0629999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9">
+        <v>11624</v>
+      </c>
+      <c r="B115" s="9">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9">
+        <v>11625</v>
+      </c>
+      <c r="B116" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9">
+        <v>11631</v>
+      </c>
+      <c r="B117" s="9">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="9">
+        <v>11632</v>
+      </c>
+      <c r="B118" s="9">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="9">
+        <v>11633</v>
+      </c>
+      <c r="B119" s="9">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="9">
+        <v>11634</v>
+      </c>
+      <c r="B120" s="9">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="9">
+        <v>11635</v>
+      </c>
+      <c r="B121" s="9">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="9">
+        <v>11641</v>
+      </c>
+      <c r="B122" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="9">
+        <v>11642</v>
+      </c>
+      <c r="B123" s="9">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="9">
+        <v>11643</v>
+      </c>
+      <c r="B124" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="9">
+        <v>11651</v>
+      </c>
+      <c r="B125" s="9">
+        <v>2.391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="9">
+        <v>11652</v>
+      </c>
+      <c r="B126" s="9">
+        <v>3.0060000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="9">
+        <v>11653</v>
+      </c>
+      <c r="B127" s="9">
+        <v>2.7530000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="9">
+        <v>11654</v>
+      </c>
+      <c r="B128" s="9">
+        <v>0.70400000000000007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="9">
+        <v>11655</v>
+      </c>
+      <c r="B129" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="9">
+        <v>11656</v>
+      </c>
+      <c r="B130" s="9">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="9">
+        <v>11657</v>
+      </c>
+      <c r="B131" s="9">
+        <v>6.6179999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="9">
+        <v>11658</v>
+      </c>
+      <c r="B132" s="9">
+        <v>6.0629999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="9">
+        <v>11659</v>
+      </c>
+      <c r="B133" s="9">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="9">
+        <v>11661</v>
+      </c>
+      <c r="B134" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="9">
+        <v>11662</v>
+      </c>
+      <c r="B135" s="9">
+        <v>5.8559999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="9">
+        <v>11663</v>
+      </c>
+      <c r="B136" s="9">
+        <v>2.2430000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="9">
+        <v>11664</v>
+      </c>
+      <c r="B137" s="9">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="9">
+        <v>11665</v>
+      </c>
+      <c r="B138" s="9">
+        <v>5.3520000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="9">
+        <v>11666</v>
+      </c>
+      <c r="B139" s="9">
+        <v>5.0110000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="9">
+        <v>11667</v>
+      </c>
+      <c r="B140" s="9">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="9">
+        <v>11668</v>
+      </c>
+      <c r="B141" s="9">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="9">
+        <v>11669</v>
+      </c>
+      <c r="B142" s="9">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="9">
+        <v>11711</v>
+      </c>
+      <c r="B143" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="9">
+        <v>11712</v>
+      </c>
+      <c r="B144" s="9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="9">
+        <v>11713</v>
+      </c>
+      <c r="B145" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="9">
+        <v>11714</v>
+      </c>
+      <c r="B146" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="9">
+        <v>11715</v>
+      </c>
+      <c r="B147" s="9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="9">
+        <v>11716</v>
+      </c>
+      <c r="B148" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="9">
+        <v>11721</v>
+      </c>
+      <c r="B149" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="9">
+        <v>11722</v>
+      </c>
+      <c r="B150" s="9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="9">
+        <v>11723</v>
+      </c>
+      <c r="B151" s="9">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="9">
+        <v>11724</v>
+      </c>
+      <c r="B152" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="9">
+        <v>11725</v>
+      </c>
+      <c r="B153" s="9">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="9">
+        <v>11726</v>
+      </c>
+      <c r="B154" s="9">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="9">
+        <v>11727</v>
+      </c>
+      <c r="B155" s="9">
+        <v>0.11800000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="9">
+        <v>11731</v>
+      </c>
+      <c r="B156" s="9">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="9">
+        <v>11732</v>
+      </c>
+      <c r="B157" s="9">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="9">
+        <v>11733</v>
+      </c>
+      <c r="B158" s="9">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="9">
+        <v>11734</v>
+      </c>
+      <c r="B159" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="9">
+        <v>11735</v>
+      </c>
+      <c r="B160" s="9">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="9">
+        <v>11741</v>
+      </c>
+      <c r="B161" s="9">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="9">
+        <v>11742</v>
+      </c>
+      <c r="B162" s="9">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="9">
+        <v>11743</v>
+      </c>
+      <c r="B163" s="9">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="9">
+        <v>11751</v>
+      </c>
+      <c r="B164" s="9">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="9">
+        <v>11752</v>
+      </c>
+      <c r="B165" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="9">
+        <v>11753</v>
+      </c>
+      <c r="B166" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="9">
+        <v>11754</v>
+      </c>
+      <c r="B167" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="9">
+        <v>11761</v>
+      </c>
+      <c r="B168" s="9">
+        <v>0.78099999999999992</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="9">
+        <v>11762</v>
+      </c>
+      <c r="B169" s="9">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="9">
+        <v>11763</v>
+      </c>
+      <c r="B170" s="9">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="9">
+        <v>11764</v>
+      </c>
+      <c r="B171" s="9">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="9">
+        <v>11765</v>
+      </c>
+      <c r="B172" s="9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="9">
+        <v>11766</v>
+      </c>
+      <c r="B173" s="9">
+        <v>2.9010000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="9">
+        <v>11767</v>
+      </c>
+      <c r="B174" s="9">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="9">
+        <v>11768</v>
+      </c>
+      <c r="B175" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="9">
+        <v>11769</v>
+      </c>
+      <c r="B176" s="9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="9">
+        <v>11811</v>
+      </c>
+      <c r="B177" s="9">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="9">
+        <v>11812</v>
+      </c>
+      <c r="B178" s="9">
+        <v>3.8650000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="9">
+        <v>11821</v>
+      </c>
+      <c r="B179" s="9">
+        <v>3.0950000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="9">
+        <v>11822</v>
+      </c>
+      <c r="B180" s="9">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="9">
+        <v>11823</v>
+      </c>
+      <c r="B181" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="9">
+        <v>11831</v>
+      </c>
+      <c r="B182" s="9">
+        <v>2.7460000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="9">
+        <v>11832</v>
+      </c>
+      <c r="B183" s="9">
+        <v>1.9580000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="9">
+        <v>11833</v>
+      </c>
+      <c r="B184" s="9">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="9">
+        <v>11834</v>
+      </c>
+      <c r="B185" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="9">
+        <v>11835</v>
+      </c>
+      <c r="B186" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="9">
+        <v>11836</v>
+      </c>
+      <c r="B187" s="9">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="9">
+        <v>11837</v>
+      </c>
+      <c r="B188" s="9">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="9">
+        <v>11838</v>
+      </c>
+      <c r="B189" s="9">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="9">
+        <v>11839</v>
+      </c>
+      <c r="B190" s="9">
+        <v>5.4170000000000007</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="9">
+        <v>11841</v>
+      </c>
+      <c r="B191" s="9">
+        <v>4.8889999999999993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="9">
+        <v>11842</v>
+      </c>
+      <c r="B192" s="9">
+        <v>3.3330000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="9">
+        <v>11843</v>
+      </c>
+      <c r="B193" s="9">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="9">
+        <v>11844</v>
+      </c>
+      <c r="B194" s="9">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="9">
+        <v>11845</v>
+      </c>
+      <c r="B195" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="9">
+        <v>11846</v>
+      </c>
+      <c r="B196" s="9">
+        <v>3.2569999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="9">
+        <v>11911</v>
+      </c>
+      <c r="B197" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="9">
+        <v>11912</v>
+      </c>
+      <c r="B198" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="9">
+        <v>11913</v>
+      </c>
+      <c r="B199" s="9">
+        <v>2.3809999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="9">
+        <v>11914</v>
+      </c>
+      <c r="B200" s="9">
+        <v>3.6360000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="9">
+        <v>11915</v>
+      </c>
+      <c r="B201" s="9">
+        <v>3.3330000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="9">
+        <v>11916</v>
+      </c>
+      <c r="B202" s="9">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="9">
+        <v>11917</v>
+      </c>
+      <c r="B203" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="9">
+        <v>11918</v>
+      </c>
+      <c r="B204" s="9">
+        <v>2.2880000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="9">
+        <v>11919</v>
+      </c>
+      <c r="B205" s="9">
+        <v>3.214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="9">
+        <v>11921</v>
+      </c>
+      <c r="B206" s="9">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="9">
+        <v>11922</v>
+      </c>
+      <c r="B207" s="9">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="9">
+        <v>11923</v>
+      </c>
+      <c r="B208" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="9">
+        <v>11924</v>
+      </c>
+      <c r="B209" s="9">
+        <v>7.0640000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="9">
+        <v>11925</v>
+      </c>
+      <c r="B210" s="9">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="9">
+        <v>11926</v>
+      </c>
+      <c r="B211" s="9">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="9">
+        <v>11927</v>
+      </c>
+      <c r="B212" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="9">
+        <v>11928</v>
+      </c>
+      <c r="B213" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="9">
+        <v>11929</v>
+      </c>
+      <c r="B214" s="9">
+        <v>1.3530000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="9">
+        <v>11931</v>
+      </c>
+      <c r="B215" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="9">
+        <v>11932</v>
+      </c>
+      <c r="B216" s="9">
+        <v>3.5920000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="9">
+        <v>11933</v>
+      </c>
+      <c r="B217" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="9">
+        <v>11934</v>
+      </c>
+      <c r="B218" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="9">
+        <v>11935</v>
+      </c>
+      <c r="B219" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="9">
+        <v>11936</v>
+      </c>
+      <c r="B220" s="9">
+        <v>4.617</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="9">
+        <v>11945</v>
+      </c>
+      <c r="B221" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="9">
+        <v>11946</v>
+      </c>
+      <c r="B222" s="9">
+        <v>0.84400000000000008</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="9">
+        <v>11947</v>
+      </c>
+      <c r="B223" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="9">
+        <v>12111</v>
+      </c>
+      <c r="B224" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="9">
+        <v>12112</v>
+      </c>
+      <c r="B225" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="9">
+        <v>12113</v>
+      </c>
+      <c r="B226" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="9">
+        <v>12114</v>
+      </c>
+      <c r="B227" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="9">
+        <v>12211</v>
+      </c>
+      <c r="B228" s="9">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="9">
+        <v>12212</v>
+      </c>
+      <c r="B229" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="9">
+        <v>12213</v>
+      </c>
+      <c r="B230" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="9">
+        <v>12214</v>
+      </c>
+      <c r="B231" s="9">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="9">
+        <v>12215</v>
+      </c>
+      <c r="B232" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="9">
+        <v>12216</v>
+      </c>
+      <c r="B233" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="9">
+        <v>12217</v>
+      </c>
+      <c r="B234" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="9">
+        <v>12218</v>
+      </c>
+      <c r="B235" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -40622,7 +42524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -40670,7 +42572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -41847,7 +43749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -43021,7 +44923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -44195,7 +46097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -45369,11 +47271,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -46518,1180 +48420,6 @@
       </c>
       <c r="D35">
         <v>11153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>12112</v>
-      </c>
-      <c r="D2">
-        <v>12247</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>12112</v>
-      </c>
-      <c r="D3">
-        <v>12247</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>12112</v>
-      </c>
-      <c r="D4">
-        <v>12247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>12112</v>
-      </c>
-      <c r="D5">
-        <v>12247</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>12112</v>
-      </c>
-      <c r="D6">
-        <v>12247</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>12112</v>
-      </c>
-      <c r="D7">
-        <v>12247</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>12112</v>
-      </c>
-      <c r="D8">
-        <v>12178</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>12112</v>
-      </c>
-      <c r="D9">
-        <v>12178</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>12112</v>
-      </c>
-      <c r="D10">
-        <v>12178</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>12112</v>
-      </c>
-      <c r="D11">
-        <v>12178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>12112</v>
-      </c>
-      <c r="D12">
-        <v>12178</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>12112</v>
-      </c>
-      <c r="D13">
-        <v>12178</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>12112</v>
-      </c>
-      <c r="D14">
-        <v>12178</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>12112</v>
-      </c>
-      <c r="D15">
-        <v>12178</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>12112</v>
-      </c>
-      <c r="D16">
-        <v>12178</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>12112</v>
-      </c>
-      <c r="D17">
-        <v>12178</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>12112</v>
-      </c>
-      <c r="D18">
-        <v>12178</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>12112</v>
-      </c>
-      <c r="D19">
-        <v>12178</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>12112</v>
-      </c>
-      <c r="D20">
-        <v>12178</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>12112</v>
-      </c>
-      <c r="D21">
-        <v>12178</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11211</v>
-      </c>
-      <c r="D22">
-        <v>11221</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11211</v>
-      </c>
-      <c r="D23">
-        <v>11221</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11211</v>
-      </c>
-      <c r="D24">
-        <v>11221</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11211</v>
-      </c>
-      <c r="D25">
-        <v>11221</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11211</v>
-      </c>
-      <c r="D26">
-        <v>11221</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11211</v>
-      </c>
-      <c r="D27">
-        <v>11221</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11211</v>
-      </c>
-      <c r="D28">
-        <v>11221</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11211</v>
-      </c>
-      <c r="D29">
-        <v>11221</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11211</v>
-      </c>
-      <c r="D30">
-        <v>11221</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11211</v>
-      </c>
-      <c r="D31">
-        <v>11221</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11211</v>
-      </c>
-      <c r="D32">
-        <v>11221</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11211</v>
-      </c>
-      <c r="D33">
-        <v>11221</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11211</v>
-      </c>
-      <c r="D34">
-        <v>11221</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11211</v>
-      </c>
-      <c r="D35">
-        <v>11221</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -47776,10 +48504,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D2">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -47805,10 +48533,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D3">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -47834,10 +48562,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D4">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -47863,10 +48591,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D5">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -47892,10 +48620,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D6">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -47921,10 +48649,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D7">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -47950,10 +48678,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D8">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -47985,10 +48713,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D9">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -48017,10 +48745,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D10">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -48049,10 +48777,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D11">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -48084,10 +48812,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D12">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -48119,10 +48847,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D13">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -48151,10 +48879,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D14">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -48183,10 +48911,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D15">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -48215,10 +48943,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D16">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -48247,10 +48975,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D17">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -48279,10 +49007,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D18">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -48311,10 +49039,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D19">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -48343,10 +49071,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D20">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -48375,10 +49103,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D21">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -48407,10 +49135,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D22">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -48442,10 +49170,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D23">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -48477,10 +49205,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D24">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -48512,10 +49240,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D25">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -48547,10 +49275,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D26">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -48582,10 +49310,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D27">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -48617,10 +49345,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D28">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -48652,10 +49380,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D29">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -48687,10 +49415,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D30">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -48722,10 +49450,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D31">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -48757,10 +49485,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D32">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -48792,10 +49520,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D33">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -48827,10 +49555,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D34">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -48862,10 +49590,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D35">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -50131,6 +50859,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>12316</v>
+      </c>
+      <c r="D2">
+        <v>12349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>12316</v>
+      </c>
+      <c r="D3">
+        <v>12349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>12316</v>
+      </c>
+      <c r="D4">
+        <v>12349</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>12316</v>
+      </c>
+      <c r="D5">
+        <v>12349</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>12316</v>
+      </c>
+      <c r="D6">
+        <v>12349</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>12316</v>
+      </c>
+      <c r="D7">
+        <v>12349</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>12316</v>
+      </c>
+      <c r="D8">
+        <v>12371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>12316</v>
+      </c>
+      <c r="D9">
+        <v>12371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>12316</v>
+      </c>
+      <c r="D10">
+        <v>12371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>12316</v>
+      </c>
+      <c r="D11">
+        <v>12371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>12316</v>
+      </c>
+      <c r="D12">
+        <v>12371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>12316</v>
+      </c>
+      <c r="D13">
+        <v>12371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>12316</v>
+      </c>
+      <c r="D14">
+        <v>12371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>12316</v>
+      </c>
+      <c r="D15">
+        <v>12371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>12316</v>
+      </c>
+      <c r="D16">
+        <v>12371</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>12316</v>
+      </c>
+      <c r="D17">
+        <v>12371</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>12316</v>
+      </c>
+      <c r="D18">
+        <v>12371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>12316</v>
+      </c>
+      <c r="D19">
+        <v>12371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>12316</v>
+      </c>
+      <c r="D20">
+        <v>12371</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>12316</v>
+      </c>
+      <c r="D21">
+        <v>12371</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11231</v>
+      </c>
+      <c r="D22">
+        <v>11239</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11231</v>
+      </c>
+      <c r="D23">
+        <v>11239</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11231</v>
+      </c>
+      <c r="D24">
+        <v>11239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11231</v>
+      </c>
+      <c r="D25">
+        <v>11239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11231</v>
+      </c>
+      <c r="D26">
+        <v>11239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11231</v>
+      </c>
+      <c r="D27">
+        <v>11239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11231</v>
+      </c>
+      <c r="D28">
+        <v>11239</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11231</v>
+      </c>
+      <c r="D29">
+        <v>11239</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11231</v>
+      </c>
+      <c r="D30">
+        <v>11239</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11231</v>
+      </c>
+      <c r="D31">
+        <v>11239</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11231</v>
+      </c>
+      <c r="D32">
+        <v>11239</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11231</v>
+      </c>
+      <c r="D33">
+        <v>11239</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11231</v>
+      </c>
+      <c r="D34">
+        <v>11239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11231</v>
+      </c>
+      <c r="D35">
+        <v>11239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
@@ -51301,7 +53203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -52475,7 +54377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -53649,7 +55551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -54823,7 +56725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -56000,7 +57902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -57174,12 +59076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57864,7 +59766,7 @@
         <v>11711</v>
       </c>
       <c r="D22">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -57899,7 +59801,7 @@
         <v>11711</v>
       </c>
       <c r="D23">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -57934,7 +59836,7 @@
         <v>11711</v>
       </c>
       <c r="D24">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -57969,7 +59871,7 @@
         <v>11711</v>
       </c>
       <c r="D25">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -58004,7 +59906,7 @@
         <v>11711</v>
       </c>
       <c r="D26">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -58039,7 +59941,7 @@
         <v>11711</v>
       </c>
       <c r="D27">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -58074,7 +59976,7 @@
         <v>11711</v>
       </c>
       <c r="D28">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -58109,7 +60011,7 @@
         <v>11711</v>
       </c>
       <c r="D29">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -58144,7 +60046,7 @@
         <v>11711</v>
       </c>
       <c r="D30">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -58179,7 +60081,7 @@
         <v>11711</v>
       </c>
       <c r="D31">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -58214,7 +60116,7 @@
         <v>11711</v>
       </c>
       <c r="D32">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -58249,7 +60151,7 @@
         <v>11711</v>
       </c>
       <c r="D33">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -58284,7 +60186,7 @@
         <v>11711</v>
       </c>
       <c r="D34">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -58319,7 +60221,7 @@
         <v>11711</v>
       </c>
       <c r="D35">
-        <v>11754</v>
+        <v>11727</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -58348,12 +60250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59522,7 +61424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -60668,1180 +62570,6 @@
       </c>
       <c r="D35">
         <v>11731</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>17218</v>
-      </c>
-      <c r="D2">
-        <v>17353</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>17218</v>
-      </c>
-      <c r="D3">
-        <v>17353</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>17218</v>
-      </c>
-      <c r="D4">
-        <v>17353</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>17218</v>
-      </c>
-      <c r="D5">
-        <v>17353</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>17218</v>
-      </c>
-      <c r="D6">
-        <v>17353</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>17218</v>
-      </c>
-      <c r="D7">
-        <v>17353</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>17218</v>
-      </c>
-      <c r="D8">
-        <v>17331</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>17218</v>
-      </c>
-      <c r="D9">
-        <v>17331</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>17218</v>
-      </c>
-      <c r="D10">
-        <v>17331</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>17218</v>
-      </c>
-      <c r="D11">
-        <v>17331</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>17218</v>
-      </c>
-      <c r="D12">
-        <v>17331</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>17218</v>
-      </c>
-      <c r="D13">
-        <v>17331</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>17218</v>
-      </c>
-      <c r="D14">
-        <v>17331</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>17218</v>
-      </c>
-      <c r="D15">
-        <v>17331</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>17218</v>
-      </c>
-      <c r="D16">
-        <v>17331</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>17218</v>
-      </c>
-      <c r="D17">
-        <v>17331</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>17218</v>
-      </c>
-      <c r="D18">
-        <v>17331</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>17218</v>
-      </c>
-      <c r="D19">
-        <v>17331</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>17218</v>
-      </c>
-      <c r="D20">
-        <v>17331</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>17218</v>
-      </c>
-      <c r="D21">
-        <v>17331</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11821</v>
-      </c>
-      <c r="D22">
-        <v>11845</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11821</v>
-      </c>
-      <c r="D23">
-        <v>11845</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11821</v>
-      </c>
-      <c r="D24">
-        <v>11845</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11821</v>
-      </c>
-      <c r="D25">
-        <v>11845</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11821</v>
-      </c>
-      <c r="D26">
-        <v>11845</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11821</v>
-      </c>
-      <c r="D27">
-        <v>11845</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11821</v>
-      </c>
-      <c r="D28">
-        <v>11845</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11821</v>
-      </c>
-      <c r="D29">
-        <v>11845</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11821</v>
-      </c>
-      <c r="D30">
-        <v>11845</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11821</v>
-      </c>
-      <c r="D31">
-        <v>11845</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11821</v>
-      </c>
-      <c r="D32">
-        <v>11845</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11821</v>
-      </c>
-      <c r="D33">
-        <v>11845</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11821</v>
-      </c>
-      <c r="D34">
-        <v>11845</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11821</v>
-      </c>
-      <c r="D35">
-        <v>11845</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -62000,6 +62728,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>17218</v>
+      </c>
+      <c r="D2">
+        <v>17353</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>17218</v>
+      </c>
+      <c r="D3">
+        <v>17353</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>17218</v>
+      </c>
+      <c r="D4">
+        <v>17353</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>17218</v>
+      </c>
+      <c r="D5">
+        <v>17353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>17218</v>
+      </c>
+      <c r="D6">
+        <v>17353</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>17218</v>
+      </c>
+      <c r="D7">
+        <v>17353</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>17218</v>
+      </c>
+      <c r="D8">
+        <v>17331</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>17218</v>
+      </c>
+      <c r="D9">
+        <v>17331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>17218</v>
+      </c>
+      <c r="D10">
+        <v>17331</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>17218</v>
+      </c>
+      <c r="D11">
+        <v>17331</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>17218</v>
+      </c>
+      <c r="D12">
+        <v>17331</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>17218</v>
+      </c>
+      <c r="D13">
+        <v>17331</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>17218</v>
+      </c>
+      <c r="D14">
+        <v>17331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>17218</v>
+      </c>
+      <c r="D15">
+        <v>17331</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>17218</v>
+      </c>
+      <c r="D16">
+        <v>17331</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>17218</v>
+      </c>
+      <c r="D17">
+        <v>17331</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>17218</v>
+      </c>
+      <c r="D18">
+        <v>17331</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>17218</v>
+      </c>
+      <c r="D19">
+        <v>17331</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>17218</v>
+      </c>
+      <c r="D20">
+        <v>17331</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>17218</v>
+      </c>
+      <c r="D21">
+        <v>17331</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11821</v>
+      </c>
+      <c r="D22">
+        <v>11845</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11821</v>
+      </c>
+      <c r="D23">
+        <v>11845</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11821</v>
+      </c>
+      <c r="D24">
+        <v>11845</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11821</v>
+      </c>
+      <c r="D25">
+        <v>11845</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11821</v>
+      </c>
+      <c r="D26">
+        <v>11845</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11821</v>
+      </c>
+      <c r="D27">
+        <v>11845</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11821</v>
+      </c>
+      <c r="D28">
+        <v>11845</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11821</v>
+      </c>
+      <c r="D29">
+        <v>11845</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11821</v>
+      </c>
+      <c r="D30">
+        <v>11845</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11821</v>
+      </c>
+      <c r="D31">
+        <v>11845</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11821</v>
+      </c>
+      <c r="D32">
+        <v>11845</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11821</v>
+      </c>
+      <c r="D33">
+        <v>11845</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11821</v>
+      </c>
+      <c r="D34">
+        <v>11845</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11821</v>
+      </c>
+      <c r="D35">
+        <v>11845</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
@@ -63170,11 +65072,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="38" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -52,38 +52,39 @@
     <sheet name="HomemadeTables" sheetId="1006" r:id="rId38"/>
     <sheet name="IntraTables" sheetId="1007" r:id="rId39"/>
     <sheet name="FoodGroupTables" sheetId="1030" r:id="rId40"/>
-    <sheet name="FoodGroupCalories" sheetId="1035" r:id="rId41"/>
-    <sheet name="BenzinTables" sheetId="1034" r:id="rId42"/>
-    <sheet name="BarghTables" sheetId="1036" r:id="rId43"/>
-    <sheet name="GazTables" sheetId="1037" r:id="rId44"/>
-    <sheet name="NaftSefidTables" sheetId="1038" r:id="rId45"/>
-    <sheet name="Sheet1" sheetId="1033" r:id="rId46"/>
-    <sheet name="Ghand" sheetId="1009" r:id="rId47"/>
-    <sheet name="Hoboobat" sheetId="1010" r:id="rId48"/>
-    <sheet name="Roghan" sheetId="1011" r:id="rId49"/>
-    <sheet name="Berenj" sheetId="1012" r:id="rId50"/>
-    <sheet name="Nan" sheetId="1013" r:id="rId51"/>
-    <sheet name="Goosht" sheetId="1014" r:id="rId52"/>
-    <sheet name="Morgh" sheetId="1015" r:id="rId53"/>
-    <sheet name="Mahi" sheetId="1016" r:id="rId54"/>
-    <sheet name="Shir" sheetId="1017" r:id="rId55"/>
-    <sheet name="Mast" sheetId="1018" r:id="rId56"/>
-    <sheet name="Panir" sheetId="1019" r:id="rId57"/>
-    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId58"/>
-    <sheet name="Mive" sheetId="1021" r:id="rId59"/>
-    <sheet name="Sabzi" sheetId="1022" r:id="rId60"/>
-    <sheet name="Makarooni" sheetId="1023" r:id="rId61"/>
-    <sheet name="Sibzamini" sheetId="1024" r:id="rId62"/>
-    <sheet name="Shirini" sheetId="1025" r:id="rId63"/>
-    <sheet name="Biscuit" sheetId="1026" r:id="rId64"/>
-    <sheet name="Khoshkbar" sheetId="1027" r:id="rId65"/>
+    <sheet name="Protein Calculator" sheetId="1040" r:id="rId41"/>
+    <sheet name="FoodGroupCalories" sheetId="1035" r:id="rId42"/>
+    <sheet name="BenzinTables" sheetId="1034" r:id="rId43"/>
+    <sheet name="BarghTables" sheetId="1036" r:id="rId44"/>
+    <sheet name="GazTables" sheetId="1037" r:id="rId45"/>
+    <sheet name="NaftSefidTables" sheetId="1038" r:id="rId46"/>
+    <sheet name="Sheet1" sheetId="1033" r:id="rId47"/>
+    <sheet name="Ghand" sheetId="1009" r:id="rId48"/>
+    <sheet name="Hoboobat" sheetId="1010" r:id="rId49"/>
+    <sheet name="Roghan" sheetId="1011" r:id="rId50"/>
+    <sheet name="Berenj" sheetId="1012" r:id="rId51"/>
+    <sheet name="Nan" sheetId="1013" r:id="rId52"/>
+    <sheet name="Goosht" sheetId="1014" r:id="rId53"/>
+    <sheet name="Morgh" sheetId="1015" r:id="rId54"/>
+    <sheet name="Mahi" sheetId="1016" r:id="rId55"/>
+    <sheet name="Shir" sheetId="1017" r:id="rId56"/>
+    <sheet name="Mast" sheetId="1018" r:id="rId57"/>
+    <sheet name="Panir" sheetId="1019" r:id="rId58"/>
+    <sheet name="Tokhmemorgh" sheetId="1020" r:id="rId59"/>
+    <sheet name="Mive" sheetId="1021" r:id="rId60"/>
+    <sheet name="Sabzi" sheetId="1022" r:id="rId61"/>
+    <sheet name="Makarooni" sheetId="1023" r:id="rId62"/>
+    <sheet name="Sibzamini" sheetId="1024" r:id="rId63"/>
+    <sheet name="Shirini" sheetId="1025" r:id="rId64"/>
+    <sheet name="Biscuit" sheetId="1026" r:id="rId65"/>
+    <sheet name="Khoshkbar" sheetId="1027" r:id="rId66"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14982" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15007" uniqueCount="623">
   <si>
     <t>Year</t>
   </si>
@@ -1884,12 +1885,81 @@
   <si>
     <t>Bargh_Exp</t>
   </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>نان</t>
+  </si>
+  <si>
+    <t>برنج</t>
+  </si>
+  <si>
+    <t>ماکاروني</t>
+  </si>
+  <si>
+    <t>عدس</t>
+  </si>
+  <si>
+    <t>شير</t>
+  </si>
+  <si>
+    <t>ماست</t>
+  </si>
+  <si>
+    <t>پنير</t>
+  </si>
+  <si>
+    <t>گوشت قرمز</t>
+  </si>
+  <si>
+    <t>تخم مرغ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>سبزي‌هايبرگ سبز</t>
+  </si>
+  <si>
+    <t>ديگر سبزي ها</t>
+  </si>
+  <si>
+    <t>روغن مايع</t>
+  </si>
+  <si>
+    <t>شکر</t>
+  </si>
+  <si>
+    <t>سيب زميني</t>
+  </si>
+  <si>
+    <t>گوشت سفيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميوه </t>
+  </si>
+  <si>
+    <t>Daily P</t>
+  </si>
+  <si>
+    <t>Gram P</t>
+  </si>
+  <si>
+    <t>weight for month</t>
+  </si>
+  <si>
+    <t>daily calorie</t>
+  </si>
+  <si>
+    <t>daily protein</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2064,8 +2134,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Mitra"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2251,8 +2326,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2367,6 +2448,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2412,7 +2545,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2432,6 +2565,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -39473,8 +39624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39483,7 +39634,7 @@
     <col min="6" max="6" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>449</v>
       </c>
@@ -39493,8 +39644,11 @@
       <c r="C1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>454</v>
       </c>
@@ -39504,8 +39658,11 @@
       <c r="C2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -39515,8 +39672,11 @@
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -39526,8 +39686,11 @@
       <c r="C4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>452</v>
       </c>
@@ -39537,8 +39700,11 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>458</v>
       </c>
@@ -39548,8 +39714,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -39559,8 +39728,11 @@
       <c r="C7">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>6.4285714285714293E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>460</v>
       </c>
@@ -39570,8 +39742,11 @@
       <c r="C8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>463</v>
       </c>
@@ -39581,8 +39756,11 @@
       <c r="C9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>457</v>
       </c>
@@ -39592,8 +39770,11 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>455</v>
       </c>
@@ -39603,8 +39784,11 @@
       <c r="C11">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0.10124999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>461</v>
       </c>
@@ -39614,8 +39798,11 @@
       <c r="C12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -39625,8 +39812,11 @@
       <c r="C13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -39636,8 +39826,11 @@
       <c r="C14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>459</v>
       </c>
@@ -39647,8 +39840,11 @@
       <c r="C15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>3.214285714285714E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -39658,8 +39854,11 @@
       <c r="C16">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>462</v>
       </c>
@@ -39669,8 +39868,11 @@
       <c r="C17">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>8.8235294117647051E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>593</v>
       </c>
@@ -39679,6 +39881,9 @@
       </c>
       <c r="C18">
         <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -39686,10 +39891,511 @@
     <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="13">
+        <v>8000</v>
+      </c>
+      <c r="C2" s="13">
+        <v>720</v>
+      </c>
+      <c r="D2" s="13">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/30</f>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2/E2</f>
+        <v>0.10124999999999999</v>
+      </c>
+      <c r="I2" t="str">
+        <f>A2</f>
+        <v>نان</v>
+      </c>
+      <c r="J2">
+        <v>0.10124999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="14">
+        <v>240</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <f>B3/30</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
+        <f>D3/E3</f>
+        <v>0.09</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I17" si="0">A3</f>
+        <v>برنج</v>
+      </c>
+      <c r="J3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="14">
+        <v>700</v>
+      </c>
+      <c r="C4" s="14">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="3">
+        <f>B4/30</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4/E4</f>
+        <v>6.4285714285714293E-2</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>ماکاروني</v>
+      </c>
+      <c r="J4">
+        <v>6.4285714285714293E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="14">
+        <v>40</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="3">
+        <f>B5/30</f>
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <f>D5/E5</f>
+        <v>0.03</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>سيب زميني</v>
+      </c>
+      <c r="J5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" s="14">
+        <v>600</v>
+      </c>
+      <c r="C6" s="14">
+        <v>40</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <f>B6/30</f>
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6/E6</f>
+        <v>0.1</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>عدس</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="14">
+        <v>7000</v>
+      </c>
+      <c r="C7" s="14">
+        <v>115</v>
+      </c>
+      <c r="D7" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>B7/30</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7/E7</f>
+        <v>3.214285714285714E-2</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>شير</v>
+      </c>
+      <c r="J7">
+        <v>3.214285714285714E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>50</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <f>B8/30</f>
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8/E8</f>
+        <v>0.04</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>ماست</v>
+      </c>
+      <c r="J8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="14">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <f>B9/30</f>
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9/E9</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>گوشت قرمز</v>
+      </c>
+      <c r="J9">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="14">
+        <v>100</v>
+      </c>
+      <c r="D10" s="14">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <f>B10/30</f>
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10/E10</f>
+        <v>0.22</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>گوشت سفيد</v>
+      </c>
+      <c r="J10">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B11" s="14">
+        <v>680</v>
+      </c>
+      <c r="C11" s="14">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f>B11/30</f>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11/E11</f>
+        <v>8.8235294117647051E-2</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>تخم مرغ</v>
+      </c>
+      <c r="J11">
+        <v>8.8235294117647051E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B12" s="14">
+        <v>450</v>
+      </c>
+      <c r="C12" s="14">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>B12/30</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <f>D12/E12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>پنير</v>
+      </c>
+      <c r="J12">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" s="14">
+        <v>7200</v>
+      </c>
+      <c r="C13" s="14">
+        <v>120</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E13" s="3">
+        <f>B13/30</f>
+        <v>240</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ميوه </v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="14">
+        <v>50</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <f>B14/30</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14/E14</f>
+        <v>0.04</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>سبزي‌هايبرگ سبز</v>
+      </c>
+      <c r="J14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="14">
+        <v>50</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <f>B15/30</f>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <f>D15/E15</f>
+        <v>0.04</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>ديگر سبزي ها</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16" s="14">
+        <v>900</v>
+      </c>
+      <c r="C16" s="14">
+        <v>290</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E16" s="3">
+        <f>B16/30</f>
+        <v>30</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>روغن مايع</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="14">
+        <v>130</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" s="3">
+        <f>B17/30</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>شکر</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B235"/>
   <sheetViews>
@@ -41587,12 +42293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="A1:J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42536,7 +43242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -43524,7 +44230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -44512,12 +45218,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45500,7 +46206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -45548,7 +46254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -46725,7 +47431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -47871,1180 +48577,6 @@
       </c>
       <c r="D35">
         <v>11769</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>14118</v>
-      </c>
-      <c r="D2">
-        <v>14220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>14118</v>
-      </c>
-      <c r="D3">
-        <v>14220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>14118</v>
-      </c>
-      <c r="D4">
-        <v>14220</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>14118</v>
-      </c>
-      <c r="D5">
-        <v>14220</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>14118</v>
-      </c>
-      <c r="D6">
-        <v>14220</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>14118</v>
-      </c>
-      <c r="D7">
-        <v>14220</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>14118</v>
-      </c>
-      <c r="D8">
-        <v>14231</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>14118</v>
-      </c>
-      <c r="D9">
-        <v>14231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>14118</v>
-      </c>
-      <c r="D10">
-        <v>14231</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>14118</v>
-      </c>
-      <c r="D11">
-        <v>14231</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>14118</v>
-      </c>
-      <c r="D12">
-        <v>14231</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>14118</v>
-      </c>
-      <c r="D13">
-        <v>14231</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>14118</v>
-      </c>
-      <c r="D14">
-        <v>14231</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>14118</v>
-      </c>
-      <c r="D15">
-        <v>14231</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>14118</v>
-      </c>
-      <c r="D16">
-        <v>14231</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>14118</v>
-      </c>
-      <c r="D17">
-        <v>14231</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>14118</v>
-      </c>
-      <c r="D18">
-        <v>14231</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>14118</v>
-      </c>
-      <c r="D19">
-        <v>14231</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>14118</v>
-      </c>
-      <c r="D20">
-        <v>14231</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>14118</v>
-      </c>
-      <c r="D21">
-        <v>14231</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11511</v>
-      </c>
-      <c r="D22">
-        <v>11533</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11511</v>
-      </c>
-      <c r="D23">
-        <v>11533</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11511</v>
-      </c>
-      <c r="D24">
-        <v>11533</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11511</v>
-      </c>
-      <c r="D25">
-        <v>11533</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11511</v>
-      </c>
-      <c r="D26">
-        <v>11533</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11511</v>
-      </c>
-      <c r="D27">
-        <v>11533</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11511</v>
-      </c>
-      <c r="D28">
-        <v>11533</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11511</v>
-      </c>
-      <c r="D29">
-        <v>11533</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11511</v>
-      </c>
-      <c r="D30">
-        <v>11533</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11511</v>
-      </c>
-      <c r="D31">
-        <v>11533</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11511</v>
-      </c>
-      <c r="D32">
-        <v>11533</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11511</v>
-      </c>
-      <c r="D33">
-        <v>11533</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11511</v>
-      </c>
-      <c r="D34">
-        <v>11533</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11511</v>
-      </c>
-      <c r="D35">
-        <v>11533</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -50310,6 +49842,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>14118</v>
+      </c>
+      <c r="D2">
+        <v>14220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>14118</v>
+      </c>
+      <c r="D3">
+        <v>14220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>14118</v>
+      </c>
+      <c r="D4">
+        <v>14220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>14118</v>
+      </c>
+      <c r="D5">
+        <v>14220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>14118</v>
+      </c>
+      <c r="D6">
+        <v>14220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>14118</v>
+      </c>
+      <c r="D7">
+        <v>14220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>14118</v>
+      </c>
+      <c r="D8">
+        <v>14231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>14118</v>
+      </c>
+      <c r="D9">
+        <v>14231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>14118</v>
+      </c>
+      <c r="D10">
+        <v>14231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>14118</v>
+      </c>
+      <c r="D11">
+        <v>14231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>14118</v>
+      </c>
+      <c r="D12">
+        <v>14231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>14118</v>
+      </c>
+      <c r="D13">
+        <v>14231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>14118</v>
+      </c>
+      <c r="D14">
+        <v>14231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>14118</v>
+      </c>
+      <c r="D15">
+        <v>14231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>14118</v>
+      </c>
+      <c r="D16">
+        <v>14231</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>14118</v>
+      </c>
+      <c r="D17">
+        <v>14231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>14118</v>
+      </c>
+      <c r="D18">
+        <v>14231</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>14118</v>
+      </c>
+      <c r="D19">
+        <v>14231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>14118</v>
+      </c>
+      <c r="D20">
+        <v>14231</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>14118</v>
+      </c>
+      <c r="D21">
+        <v>14231</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11511</v>
+      </c>
+      <c r="D22">
+        <v>11533</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11511</v>
+      </c>
+      <c r="D23">
+        <v>11533</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11511</v>
+      </c>
+      <c r="D24">
+        <v>11533</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11511</v>
+      </c>
+      <c r="D25">
+        <v>11533</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11511</v>
+      </c>
+      <c r="D26">
+        <v>11533</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11511</v>
+      </c>
+      <c r="D27">
+        <v>11533</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11511</v>
+      </c>
+      <c r="D28">
+        <v>11533</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11511</v>
+      </c>
+      <c r="D29">
+        <v>11533</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11511</v>
+      </c>
+      <c r="D30">
+        <v>11533</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11511</v>
+      </c>
+      <c r="D31">
+        <v>11533</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11511</v>
+      </c>
+      <c r="D32">
+        <v>11533</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11511</v>
+      </c>
+      <c r="D33">
+        <v>11533</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11511</v>
+      </c>
+      <c r="D34">
+        <v>11533</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11511</v>
+      </c>
+      <c r="D35">
+        <v>11533</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -51480,7 +52186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -52629,1180 +53335,6 @@
       </c>
       <c r="D35">
         <v>11153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>12112</v>
-      </c>
-      <c r="D2">
-        <v>12247</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>12112</v>
-      </c>
-      <c r="D3">
-        <v>12247</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>12112</v>
-      </c>
-      <c r="D4">
-        <v>12247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>12112</v>
-      </c>
-      <c r="D5">
-        <v>12247</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>12112</v>
-      </c>
-      <c r="D6">
-        <v>12247</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>12112</v>
-      </c>
-      <c r="D7">
-        <v>12247</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>12112</v>
-      </c>
-      <c r="D8">
-        <v>12178</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>12112</v>
-      </c>
-      <c r="D9">
-        <v>12178</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>12112</v>
-      </c>
-      <c r="D10">
-        <v>12178</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>12112</v>
-      </c>
-      <c r="D11">
-        <v>12178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>12112</v>
-      </c>
-      <c r="D12">
-        <v>12178</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>12112</v>
-      </c>
-      <c r="D13">
-        <v>12178</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>12112</v>
-      </c>
-      <c r="D14">
-        <v>12178</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>12112</v>
-      </c>
-      <c r="D15">
-        <v>12178</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>12112</v>
-      </c>
-      <c r="D16">
-        <v>12178</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>12112</v>
-      </c>
-      <c r="D17">
-        <v>12178</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>12112</v>
-      </c>
-      <c r="D18">
-        <v>12178</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>12112</v>
-      </c>
-      <c r="D19">
-        <v>12178</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>12112</v>
-      </c>
-      <c r="D20">
-        <v>12178</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>12112</v>
-      </c>
-      <c r="D21">
-        <v>12178</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11211</v>
-      </c>
-      <c r="D22">
-        <v>11221</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11211</v>
-      </c>
-      <c r="D23">
-        <v>11221</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11211</v>
-      </c>
-      <c r="D24">
-        <v>11221</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11211</v>
-      </c>
-      <c r="D25">
-        <v>11221</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11211</v>
-      </c>
-      <c r="D26">
-        <v>11221</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11211</v>
-      </c>
-      <c r="D27">
-        <v>11221</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11211</v>
-      </c>
-      <c r="D28">
-        <v>11221</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11211</v>
-      </c>
-      <c r="D29">
-        <v>11221</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11211</v>
-      </c>
-      <c r="D30">
-        <v>11221</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11211</v>
-      </c>
-      <c r="D31">
-        <v>11221</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11211</v>
-      </c>
-      <c r="D32">
-        <v>11221</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11211</v>
-      </c>
-      <c r="D33">
-        <v>11221</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11211</v>
-      </c>
-      <c r="D34">
-        <v>11221</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11211</v>
-      </c>
-      <c r="D35">
-        <v>11221</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -53887,10 +53419,10 @@
         <v>299</v>
       </c>
       <c r="C2">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D2">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -53916,10 +53448,10 @@
         <v>299</v>
       </c>
       <c r="C3">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D3">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -53945,10 +53477,10 @@
         <v>299</v>
       </c>
       <c r="C4">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D4">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -53974,10 +53506,10 @@
         <v>299</v>
       </c>
       <c r="C5">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D5">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -54003,10 +53535,10 @@
         <v>299</v>
       </c>
       <c r="C6">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D6">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -54032,10 +53564,10 @@
         <v>299</v>
       </c>
       <c r="C7">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D7">
-        <v>12349</v>
+        <v>12247</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -54061,10 +53593,10 @@
         <v>299</v>
       </c>
       <c r="C8">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D8">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -54096,10 +53628,10 @@
         <v>299</v>
       </c>
       <c r="C9">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D9">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -54128,10 +53660,10 @@
         <v>299</v>
       </c>
       <c r="C10">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D10">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -54160,10 +53692,10 @@
         <v>299</v>
       </c>
       <c r="C11">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D11">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -54195,10 +53727,10 @@
         <v>299</v>
       </c>
       <c r="C12">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D12">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -54230,10 +53762,10 @@
         <v>299</v>
       </c>
       <c r="C13">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D13">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -54262,10 +53794,10 @@
         <v>299</v>
       </c>
       <c r="C14">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D14">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -54294,10 +53826,10 @@
         <v>299</v>
       </c>
       <c r="C15">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D15">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -54326,10 +53858,10 @@
         <v>299</v>
       </c>
       <c r="C16">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D16">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -54358,10 +53890,10 @@
         <v>299</v>
       </c>
       <c r="C17">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D17">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -54390,10 +53922,10 @@
         <v>299</v>
       </c>
       <c r="C18">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D18">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -54422,10 +53954,10 @@
         <v>299</v>
       </c>
       <c r="C19">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D19">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -54454,10 +53986,10 @@
         <v>299</v>
       </c>
       <c r="C20">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D20">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -54486,10 +54018,10 @@
         <v>299</v>
       </c>
       <c r="C21">
-        <v>12316</v>
+        <v>12112</v>
       </c>
       <c r="D21">
-        <v>12371</v>
+        <v>12178</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -54518,10 +54050,10 @@
         <v>299</v>
       </c>
       <c r="C22">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D22">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -54553,10 +54085,10 @@
         <v>299</v>
       </c>
       <c r="C23">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D23">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -54588,10 +54120,10 @@
         <v>299</v>
       </c>
       <c r="C24">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D24">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -54623,10 +54155,10 @@
         <v>299</v>
       </c>
       <c r="C25">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D25">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -54658,10 +54190,10 @@
         <v>299</v>
       </c>
       <c r="C26">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D26">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -54693,10 +54225,10 @@
         <v>299</v>
       </c>
       <c r="C27">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D27">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -54728,10 +54260,10 @@
         <v>299</v>
       </c>
       <c r="C28">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D28">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -54763,10 +54295,10 @@
         <v>299</v>
       </c>
       <c r="C29">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D29">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -54798,10 +54330,10 @@
         <v>299</v>
       </c>
       <c r="C30">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D30">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -54833,10 +54365,10 @@
         <v>299</v>
       </c>
       <c r="C31">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D31">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -54868,10 +54400,10 @@
         <v>299</v>
       </c>
       <c r="C32">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D32">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -54903,10 +54435,10 @@
         <v>299</v>
       </c>
       <c r="C33">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D33">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -54938,10 +54470,10 @@
         <v>299</v>
       </c>
       <c r="C34">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D34">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -54973,10 +54505,10 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>11231</v>
+        <v>11211</v>
       </c>
       <c r="D35">
-        <v>11239</v>
+        <v>11221</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -55006,6 +54538,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>12316</v>
+      </c>
+      <c r="D2">
+        <v>12349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>12316</v>
+      </c>
+      <c r="D3">
+        <v>12349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>12316</v>
+      </c>
+      <c r="D4">
+        <v>12349</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>12316</v>
+      </c>
+      <c r="D5">
+        <v>12349</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>12316</v>
+      </c>
+      <c r="D6">
+        <v>12349</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>12316</v>
+      </c>
+      <c r="D7">
+        <v>12349</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>12316</v>
+      </c>
+      <c r="D8">
+        <v>12371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>12316</v>
+      </c>
+      <c r="D9">
+        <v>12371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>12316</v>
+      </c>
+      <c r="D10">
+        <v>12371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>12316</v>
+      </c>
+      <c r="D11">
+        <v>12371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>12316</v>
+      </c>
+      <c r="D12">
+        <v>12371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>12316</v>
+      </c>
+      <c r="D13">
+        <v>12371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>12316</v>
+      </c>
+      <c r="D14">
+        <v>12371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>12316</v>
+      </c>
+      <c r="D15">
+        <v>12371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>12316</v>
+      </c>
+      <c r="D16">
+        <v>12371</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>12316</v>
+      </c>
+      <c r="D17">
+        <v>12371</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>12316</v>
+      </c>
+      <c r="D18">
+        <v>12371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>12316</v>
+      </c>
+      <c r="D19">
+        <v>12371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>12316</v>
+      </c>
+      <c r="D20">
+        <v>12371</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>12316</v>
+      </c>
+      <c r="D21">
+        <v>12371</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11231</v>
+      </c>
+      <c r="D22">
+        <v>11239</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11231</v>
+      </c>
+      <c r="D23">
+        <v>11239</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11231</v>
+      </c>
+      <c r="D24">
+        <v>11239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11231</v>
+      </c>
+      <c r="D25">
+        <v>11239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11231</v>
+      </c>
+      <c r="D26">
+        <v>11239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11231</v>
+      </c>
+      <c r="D27">
+        <v>11239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11231</v>
+      </c>
+      <c r="D28">
+        <v>11239</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11231</v>
+      </c>
+      <c r="D29">
+        <v>11239</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11231</v>
+      </c>
+      <c r="D30">
+        <v>11239</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11231</v>
+      </c>
+      <c r="D31">
+        <v>11239</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11231</v>
+      </c>
+      <c r="D32">
+        <v>11239</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11231</v>
+      </c>
+      <c r="D33">
+        <v>11239</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11231</v>
+      </c>
+      <c r="D34">
+        <v>11239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11231</v>
+      </c>
+      <c r="D35">
+        <v>11239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -56179,7 +56885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -57353,7 +58059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -58527,7 +59233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -59701,7 +60407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -60850,1180 +61556,6 @@
       </c>
       <c r="D35">
         <v>11443</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2">
-        <v>15110</v>
-      </c>
-      <c r="D2">
-        <v>15336</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3">
-        <v>15110</v>
-      </c>
-      <c r="D3">
-        <v>15336</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4">
-        <v>15110</v>
-      </c>
-      <c r="D4">
-        <v>15336</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>15110</v>
-      </c>
-      <c r="D5">
-        <v>15336</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6">
-        <v>15110</v>
-      </c>
-      <c r="D6">
-        <v>15336</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7">
-        <v>15110</v>
-      </c>
-      <c r="D7">
-        <v>15336</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>15110</v>
-      </c>
-      <c r="D8">
-        <v>15336</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9">
-        <v>15110</v>
-      </c>
-      <c r="D9">
-        <v>15336</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10">
-        <v>15110</v>
-      </c>
-      <c r="D10">
-        <v>15336</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11">
-        <v>15110</v>
-      </c>
-      <c r="D11">
-        <v>15336</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12">
-        <v>15110</v>
-      </c>
-      <c r="D12">
-        <v>15336</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13">
-        <v>15110</v>
-      </c>
-      <c r="D13">
-        <v>15336</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14">
-        <v>15110</v>
-      </c>
-      <c r="D14">
-        <v>15336</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15">
-        <v>15110</v>
-      </c>
-      <c r="D15">
-        <v>15336</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16">
-        <v>15110</v>
-      </c>
-      <c r="D16">
-        <v>15336</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17">
-        <v>15110</v>
-      </c>
-      <c r="D17">
-        <v>15336</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18">
-        <v>15110</v>
-      </c>
-      <c r="D18">
-        <v>15336</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19">
-        <v>15110</v>
-      </c>
-      <c r="D19">
-        <v>15336</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20">
-        <v>15110</v>
-      </c>
-      <c r="D20">
-        <v>15336</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <v>15110</v>
-      </c>
-      <c r="D21">
-        <v>15336</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22">
-        <v>11611</v>
-      </c>
-      <c r="D22">
-        <v>11643</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23">
-        <v>11611</v>
-      </c>
-      <c r="D23">
-        <v>11643</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24">
-        <v>11611</v>
-      </c>
-      <c r="D24">
-        <v>11643</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25">
-        <v>11611</v>
-      </c>
-      <c r="D25">
-        <v>11643</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>11611</v>
-      </c>
-      <c r="D26">
-        <v>11643</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27">
-        <v>11611</v>
-      </c>
-      <c r="D27">
-        <v>11643</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28">
-        <v>11611</v>
-      </c>
-      <c r="D28">
-        <v>11643</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>11611</v>
-      </c>
-      <c r="D29">
-        <v>11643</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30">
-        <v>11611</v>
-      </c>
-      <c r="D30">
-        <v>11643</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31">
-        <v>11611</v>
-      </c>
-      <c r="D31">
-        <v>11643</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32">
-        <v>11611</v>
-      </c>
-      <c r="D32">
-        <v>11643</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33">
-        <v>11611</v>
-      </c>
-      <c r="D33">
-        <v>11643</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>11611</v>
-      </c>
-      <c r="D34">
-        <v>11643</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35">
-        <v>11611</v>
-      </c>
-      <c r="D35">
-        <v>11643</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -62182,6 +61714,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>15110</v>
+      </c>
+      <c r="D2">
+        <v>15336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>15110</v>
+      </c>
+      <c r="D3">
+        <v>15336</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>15110</v>
+      </c>
+      <c r="D4">
+        <v>15336</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>15110</v>
+      </c>
+      <c r="D5">
+        <v>15336</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>15110</v>
+      </c>
+      <c r="D6">
+        <v>15336</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>15110</v>
+      </c>
+      <c r="D7">
+        <v>15336</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>15110</v>
+      </c>
+      <c r="D8">
+        <v>15336</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>15110</v>
+      </c>
+      <c r="D9">
+        <v>15336</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>15110</v>
+      </c>
+      <c r="D10">
+        <v>15336</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>15110</v>
+      </c>
+      <c r="D11">
+        <v>15336</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>15110</v>
+      </c>
+      <c r="D12">
+        <v>15336</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>15110</v>
+      </c>
+      <c r="D13">
+        <v>15336</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>15110</v>
+      </c>
+      <c r="D14">
+        <v>15336</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>15110</v>
+      </c>
+      <c r="D15">
+        <v>15336</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>15110</v>
+      </c>
+      <c r="D16">
+        <v>15336</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>15110</v>
+      </c>
+      <c r="D17">
+        <v>15336</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>15110</v>
+      </c>
+      <c r="D18">
+        <v>15336</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>15110</v>
+      </c>
+      <c r="D19">
+        <v>15336</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>15110</v>
+      </c>
+      <c r="D20">
+        <v>15336</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>15110</v>
+      </c>
+      <c r="D21">
+        <v>15336</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>11611</v>
+      </c>
+      <c r="D22">
+        <v>11643</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>11611</v>
+      </c>
+      <c r="D23">
+        <v>11643</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>11611</v>
+      </c>
+      <c r="D24">
+        <v>11643</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>11611</v>
+      </c>
+      <c r="D25">
+        <v>11643</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>11611</v>
+      </c>
+      <c r="D26">
+        <v>11643</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>11611</v>
+      </c>
+      <c r="D27">
+        <v>11643</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>11611</v>
+      </c>
+      <c r="D28">
+        <v>11643</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>11611</v>
+      </c>
+      <c r="D29">
+        <v>11643</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>11611</v>
+      </c>
+      <c r="D30">
+        <v>11643</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>11611</v>
+      </c>
+      <c r="D31">
+        <v>11643</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>11611</v>
+      </c>
+      <c r="D32">
+        <v>11643</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>11611</v>
+      </c>
+      <c r="D33">
+        <v>11643</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>11611</v>
+      </c>
+      <c r="D34">
+        <v>11643</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>11611</v>
+      </c>
+      <c r="D35">
+        <v>11643</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
@@ -63352,7 +64058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -64526,7 +65232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -65700,7 +66406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -66874,7 +67580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -68048,7 +68754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6600" tabRatio="858" firstSheet="36" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6600" tabRatio="858" firstSheet="37" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -2907,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10266,8 +10266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12265,7 +12265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -13510,7 +13510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
@@ -15397,7 +15397,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16351,7 +16351,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="BI29" sqref="BI28:BI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19787,8 +19787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I13" sqref="I1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22612,7 +22612,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J35"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26093,7 +26093,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="B32" sqref="A1:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26842,7 +26842,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29423,8 +29423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38948,7 +38948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -39625,7 +39627,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39943,11 +39945,11 @@
         <v>27</v>
       </c>
       <c r="E2" s="3">
-        <f>B2/30</f>
+        <f t="shared" ref="E2:E17" si="0">B2/30</f>
         <v>266.66666666666669</v>
       </c>
       <c r="F2" s="3">
-        <f>D2/E2</f>
+        <f t="shared" ref="F2:F12" si="1">D2/E2</f>
         <v>0.10124999999999999</v>
       </c>
       <c r="I2" t="str">
@@ -39972,15 +39974,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="3">
-        <f>B3/30</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F3" s="3">
-        <f>D3/E3</f>
+        <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I17" si="0">A3</f>
+        <f t="shared" ref="I3:I17" si="2">A3</f>
         <v>برنج</v>
       </c>
       <c r="J3">
@@ -40001,15 +40003,15 @@
         <v>1.5</v>
       </c>
       <c r="E4" s="3">
-        <f>B4/30</f>
+        <f t="shared" si="0"/>
         <v>23.333333333333332</v>
       </c>
       <c r="F4" s="3">
-        <f>D4/E4</f>
+        <f t="shared" si="1"/>
         <v>6.4285714285714293E-2</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ماکاروني</v>
       </c>
       <c r="J4">
@@ -40030,15 +40032,15 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="3">
-        <f>B5/30</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F5" s="3">
-        <f>D5/E5</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>سيب زميني</v>
       </c>
       <c r="J5">
@@ -40059,15 +40061,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <f>B6/30</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F6" s="3">
-        <f>D6/E6</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>عدس</v>
       </c>
       <c r="J6">
@@ -40088,15 +40090,15 @@
         <v>7.5</v>
       </c>
       <c r="E7" s="3">
-        <f>B7/30</f>
+        <f t="shared" si="0"/>
         <v>233.33333333333334</v>
       </c>
       <c r="F7" s="3">
-        <f>D7/E7</f>
+        <f t="shared" si="1"/>
         <v>3.214285714285714E-2</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>شير</v>
       </c>
       <c r="J7">
@@ -40117,15 +40119,15 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <f>B8/30</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <f>D8/E8</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ماست</v>
       </c>
       <c r="J8">
@@ -40146,15 +40148,15 @@
         <v>9</v>
       </c>
       <c r="E9" s="3">
-        <f>B9/30</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F9" s="3">
-        <f>D9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>گوشت قرمز</v>
       </c>
       <c r="J9">
@@ -40175,15 +40177,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="3">
-        <f>B10/30</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F10" s="3">
-        <f>D10/E10</f>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>گوشت سفيد</v>
       </c>
       <c r="J10">
@@ -40204,15 +40206,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="3">
-        <f>B11/30</f>
+        <f t="shared" si="0"/>
         <v>22.666666666666668</v>
       </c>
       <c r="F11" s="3">
-        <f>D11/E11</f>
+        <f t="shared" si="1"/>
         <v>8.8235294117647051E-2</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>تخم مرغ</v>
       </c>
       <c r="J11">
@@ -40233,15 +40235,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <f>B12/30</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F12" s="3">
-        <f>D12/E12</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>پنير</v>
       </c>
       <c r="J12">
@@ -40262,12 +40264,12 @@
         <v>610</v>
       </c>
       <c r="E13" s="3">
-        <f>B13/30</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="F13" s="3"/>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ميوه </v>
       </c>
       <c r="J13">
@@ -40288,7 +40290,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <f>B14/30</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F14" s="3">
@@ -40296,7 +40298,7 @@
         <v>0.04</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>سبزي‌هايبرگ سبز</v>
       </c>
       <c r="J14">
@@ -40317,7 +40319,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <f>B15/30</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F15" s="3">
@@ -40325,7 +40327,7 @@
         <v>0.04</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ديگر سبزي ها</v>
       </c>
       <c r="J15">
@@ -40346,12 +40348,12 @@
         <v>610</v>
       </c>
       <c r="E16" s="3">
-        <f>B16/30</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F16" s="3"/>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>روغن مايع</v>
       </c>
       <c r="J16">
@@ -40372,12 +40374,12 @@
         <v>610</v>
       </c>
       <c r="E17" s="3">
-        <f>B17/30</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="F17" s="3"/>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>شکر</v>
       </c>
       <c r="J17">
@@ -40400,7 +40402,7 @@
   <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42297,8 +42299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46258,8 +46260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -61588,7 +61590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -69932,7 +69936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -71427,8 +71431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -39627,7 +39627,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39658,7 +39658,7 @@
         <v>454</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="D2">
         <v>0.09</v>
@@ -40402,7 +40402,7 @@
   <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -39627,7 +39627,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39658,7 +39658,7 @@
         <v>454</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="D2">
         <v>0.09</v>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -39627,7 +39627,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39658,7 +39658,7 @@
         <v>454</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
         <v>0.09</v>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -78,13 +78,14 @@
     <sheet name="Shirini" sheetId="1025" r:id="rId64"/>
     <sheet name="Biscuit" sheetId="1026" r:id="rId65"/>
     <sheet name="Khoshkbar" sheetId="1027" r:id="rId66"/>
+    <sheet name="Nooshabe" sheetId="1041" r:id="rId67"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15007" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15268" uniqueCount="623">
   <si>
     <t>Year</t>
   </si>
@@ -39627,7 +39628,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40401,8 +40402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="A2:B9"/>
+    <sheetView topLeftCell="A219" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46213,10 +46214,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -66414,7 +66418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -68762,8 +68766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="A1:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -69904,6 +69908,1184 @@
       </c>
       <c r="D35">
         <v>11662</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>12211</v>
+      </c>
+      <c r="D2">
+        <v>12216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>12211</v>
+      </c>
+      <c r="D3">
+        <v>12216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4">
+        <v>12211</v>
+      </c>
+      <c r="D4">
+        <v>12216</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>12211</v>
+      </c>
+      <c r="D5">
+        <v>12216</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>12211</v>
+      </c>
+      <c r="D6">
+        <v>12216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>12211</v>
+      </c>
+      <c r="D7">
+        <v>12216</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>12211</v>
+      </c>
+      <c r="D8">
+        <v>12216</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>12211</v>
+      </c>
+      <c r="D9">
+        <v>12216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>12211</v>
+      </c>
+      <c r="D10">
+        <v>12216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>12211</v>
+      </c>
+      <c r="D11">
+        <v>12216</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
+        <v>12211</v>
+      </c>
+      <c r="D12">
+        <v>12216</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13">
+        <v>12211</v>
+      </c>
+      <c r="D13">
+        <v>12216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>12211</v>
+      </c>
+      <c r="D14">
+        <v>12216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>12211</v>
+      </c>
+      <c r="D15">
+        <v>12216</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16">
+        <v>12211</v>
+      </c>
+      <c r="D16">
+        <v>12216</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17">
+        <v>12211</v>
+      </c>
+      <c r="D17">
+        <v>12216</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <v>12211</v>
+      </c>
+      <c r="D18">
+        <v>12216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19">
+        <v>12211</v>
+      </c>
+      <c r="D19">
+        <v>12216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20">
+        <v>12211</v>
+      </c>
+      <c r="D20">
+        <v>12216</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>12211</v>
+      </c>
+      <c r="D21">
+        <v>12216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>12211</v>
+      </c>
+      <c r="D22">
+        <v>12216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>12211</v>
+      </c>
+      <c r="D23">
+        <v>12216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>12211</v>
+      </c>
+      <c r="D24">
+        <v>12216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25">
+        <v>12211</v>
+      </c>
+      <c r="D25">
+        <v>12216</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>12211</v>
+      </c>
+      <c r="D26">
+        <v>12216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>12211</v>
+      </c>
+      <c r="D27">
+        <v>12216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>12211</v>
+      </c>
+      <c r="D28">
+        <v>12216</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29">
+        <v>12211</v>
+      </c>
+      <c r="D29">
+        <v>12216</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30">
+        <v>12211</v>
+      </c>
+      <c r="D30">
+        <v>12216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>12211</v>
+      </c>
+      <c r="D31">
+        <v>12216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32">
+        <v>12211</v>
+      </c>
+      <c r="D32">
+        <v>12216</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33">
+        <v>12211</v>
+      </c>
+      <c r="D33">
+        <v>12216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34">
+        <v>12211</v>
+      </c>
+      <c r="D34">
+        <v>12216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35">
+        <v>12211</v>
+      </c>
+      <c r="D35">
+        <v>12216</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>

--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IRHEIS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Majid\Documents\GitHub\IRHEIS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE6EF2-E2D1-4855-B15C-0D09E84BEC10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6600" tabRatio="858" firstSheet="37" activeTab="39"/>
+    <workbookView xWindow="5511" yWindow="3026" windowWidth="18540" windowHeight="12565" tabRatio="858" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompressedFileNames" sheetId="1" r:id="rId1"/>
@@ -79,12 +80,19 @@
     <sheet name="Biscuit" sheetId="1026" r:id="rId65"/>
     <sheet name="Khoshkbar" sheetId="1027" r:id="rId66"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15007" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15074" uniqueCount="624">
   <si>
     <t>Year</t>
   </si>
@@ -1954,16 +1962,19 @@
   <si>
     <t>daily protein</t>
   </si>
+  <si>
+    <t>97.rar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1971,7 +1982,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1979,7 +1990,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="major"/>
@@ -1988,7 +1999,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1997,7 +2008,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2006,7 +2017,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2014,7 +2025,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2022,7 +2033,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2030,7 +2041,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2038,7 +2049,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2047,7 +2058,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2056,7 +2067,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2064,7 +2075,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2073,7 +2084,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2081,7 +2092,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2090,7 +2101,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2099,7 +2110,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2107,7 +2118,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2115,13 +2126,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -2130,7 +2141,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2586,48 +2597,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="‏20% - تأکید1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="‏20% - تاکید6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - آکسان 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="‏40% - تاکید6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="‏60% - تأکید1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="‏60% - تاکید6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="بد" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="بررسی سلول" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="تأکید1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="تاکید2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="تاکید3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="تاکید4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="تاکید5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="تاکید6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="خروجی" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="خنثی" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="خوب" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="سلول پیوندی" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="عنوان" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="عنوان 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="عنوان 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="عنوان 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="عنوان 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="متن توصیفی" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="متن هشدار" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="مجموع" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="محاسبه" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="معمولی" xfId="0" builtinId="0"/>
+    <cellStyle name="ورودی" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="یادداشت" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2904,14 +2915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -3196,20 +3207,28 @@
         <v>469</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5240,14 +5259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -7027,14 +7046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -8796,14 +8815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="3" collapsed="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
@@ -9925,14 +9944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
@@ -10263,14 +10282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -11447,14 +11466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -12262,14 +12281,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -13507,14 +13526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -15393,14 +15412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -16347,14 +16366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BI29" sqref="BI28:BI29"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -19778,20 +19797,177 @@
       <c r="BJ35" s="9"/>
       <c r="BK35" s="9"/>
     </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="9">
+        <v>97</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z36" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB36" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE36" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF36" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG36" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH36" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI36" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ36" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL36" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM36" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN36" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AO36" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="AP36" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ36" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR36" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS36" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="AT36" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="AU36" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="9"/>
+      <c r="BC36" s="9"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="9"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="9"/>
+      <c r="BI36" s="9"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I13" sqref="I1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -20738,14 +20914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -21858,14 +22034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="9" width="14.140625" customWidth="1" collapsed="1"/>
@@ -22608,14 +22784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -23602,14 +23778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -24351,14 +24527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-0000000